--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -2,16 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB05_QUAN_LY_KHO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
     <sheet name="WORK_FLOW" sheetId="2" r:id="rId2"/>
     <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId3"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -271,6 +277,33 @@
   <si>
     <t>Chênh lệch giá trị xuất kho ====&gt;</t>
   </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Hoàn Nhập</t>
+  </si>
+  <si>
+    <t>Kiểm kê dư</t>
+  </si>
+  <si>
+    <t>Kiểm kê thiếu</t>
+  </si>
+  <si>
+    <t>Làm phiếu hoàn nhập</t>
+  </si>
+  <si>
+    <t>Làm phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>Chuyển mã</t>
+  </si>
+  <si>
+    <t>Làm phiếu xuất kho, sau đó làm phiếu nhập kho mã đó, đơn giá nhập bằng đơn giá xuất</t>
+  </si>
 </sst>
 </file>
 
@@ -437,13 +470,13 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -560,79 +593,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,79 +702,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0583804143126176</c:v>
+                  <c:v>5.1624790619765495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0583804143126176</c:v>
+                  <c:v>4.8805535324107794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8171238570241064</c:v>
+                  <c:v>4.8805535324107794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8171238570241064</c:v>
+                  <c:v>4.8805535324107794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8218623481781373</c:v>
+                  <c:v>4.8805535324107794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8462613556953178</c:v>
+                  <c:v>4.8805535324107794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.850238257317903</c:v>
+                  <c:v>4.7178975382568193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.850238257317903</c:v>
+                  <c:v>4.7178975382568193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8819584171696846</c:v>
+                  <c:v>4.7178975382568193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.882707774798928</c:v>
+                  <c:v>4.7178975382568193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8827863362357666</c:v>
+                  <c:v>4.7178975382568193</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0071428571428571</c:v>
+                  <c:v>4.8433373349339739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0602816901408447</c:v>
+                  <c:v>4.8433373349339739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0646430578976958</c:v>
+                  <c:v>4.8861271676300575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.260232440626579</c:v>
+                  <c:v>5.0125000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.260232440626579</c:v>
+                  <c:v>5.0122535961640917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.260232440626579</c:v>
+                  <c:v>5.188834951456311</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2473583093179634</c:v>
+                  <c:v>5.2503364737550475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2473583093179634</c:v>
+                  <c:v>5.2503364737550475</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2473583093179634</c:v>
+                  <c:v>5.0693069306930694</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2473583093179634</c:v>
+                  <c:v>5.0583911800734995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1455668284075875</c:v>
+                  <c:v>5.0265346534653466</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1443569553805775</c:v>
+                  <c:v>5.0862453531598515</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1443569553805775</c:v>
+                  <c:v>5.0903034789045147</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1739130434782608</c:v>
+                  <c:v>5.0938308090136681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4916,10 +4949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4930,26 +4964,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -5165,6 +5199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5302,9 +5337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
@@ -5406,7 +5442,7 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
@@ -5414,12 +5450,12 @@
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>372</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
@@ -5430,7 +5466,7 @@
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
@@ -5438,12 +5474,12 @@
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>372</v>
+        <v>1164</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5.0583804143126176</v>
+        <v>5.1624790619765495</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
@@ -5453,93 +5489,93 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>179</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-103.47826086956522</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
+        <v>179</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.0583804143126176</v>
+        <v>4.8805535324107794</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-101.16760828625235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>-169</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-860.85740672330996</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>-169</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>4.8171238570241064</v>
+        <v>4.8805535324107794</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-824.81354697742177</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-144</v>
+        <v>-35</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5551,15 +5587,15 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-745.04347826086951</v>
+        <v>-178.28407831547838</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-144</v>
+        <v>-35</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5572,115 +5608,115 @@
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>4.8171238570241064</v>
+        <v>4.8805535324107794</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-693.66583541147133</v>
+        <v>-170.81937363437729</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>-18</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-91.688954562246025</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>-18</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.8218623481781373</v>
+        <v>4.8805535324107794</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-87.849963583394029</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>-29</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-147.72109346139638</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>196</v>
+        <v>-29</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.8462613556953178</v>
+        <v>4.8805535324107794</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-141.53605243991259</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5688,20 +5724,20 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.850238257317903</v>
+        <v>4.7178975382568193</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5711,7 +5747,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5723,15 +5759,15 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-962.3478260869565</v>
+        <v>-937.26486885851489</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5744,146 +5780,146 @@
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.850238257317903</v>
+        <v>4.7178975382568193</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-902.14431586112994</v>
+        <v>-868.09314703925475</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>-133</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-677.47949759881783</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>-133</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.8819584171696846</v>
+        <v>4.7178975382568193</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-627.48037258815702</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-269.97303287772439</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.882707774798928</v>
+        <v>4.7178975382568193</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-250.04856952761142</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-105</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-534.85223494643515</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>-105</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.8827863362357666</v>
+        <v>4.7178975382568193</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-495.37924151696603</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5891,11 +5927,11 @@
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1122</v>
+        <v>978</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5903,7 +5939,7 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5911,12 +5947,12 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1122</v>
+        <v>978</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.0071428571428571</v>
+        <v>4.8433373349339739</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5926,62 +5962,62 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>-137</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-697.8548208348725</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>-137</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.0602816901408447</v>
+        <v>4.8433373349339739</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-663.53721488595443</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5989,20 +6025,20 @@
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.0646430578976958</v>
+        <v>4.8861271676300575</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6012,7 +6048,7 @@
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6020,11 +6056,11 @@
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
+        <v>770</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6032,7 +6068,7 @@
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6040,12 +6076,12 @@
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1400</v>
+        <v>770</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.260232440626579</v>
+        <v>5.0125000000000002</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6055,105 +6091,105 @@
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-47</v>
+        <v>37</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-243.17391304347825</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-47</v>
+        <v>37</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.260232440626579</v>
+        <v>5.0122535961640917</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-247.23092470944923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-85</v>
+        <v>183</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-439.78260869565219</v>
+        <v>0</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>183</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.260232440626579</v>
+        <v>5.188834951456311</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-447.11975745325924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>515</v>
+        <v>1014</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6161,20 +6197,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>515</v>
+        <v>1014</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.2473583093179634</v>
+        <v>5.2503364737550475</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6184,7 +6220,7 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-67</v>
+        <v>-186</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6196,15 +6232,15 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-346.6521739130435</v>
+        <v>-947.45253047654228</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-186</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6217,103 +6253,103 @@
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.2473583093179634</v>
+        <v>5.2503364737550475</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-351.57300672430353</v>
+        <v>-976.56258411843885</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-1003.7391304347826</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-194</v>
+        <v>195</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.2473583093179634</v>
+        <v>5.0693069306930694</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-1017.9875120076849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-51.739130434782609</v>
+        <v>0</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.2473583093179634</v>
+        <v>5.0583911800734995</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-52.473583093179634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6321,11 +6357,11 @@
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>740</v>
+        <v>304</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6333,7 +6369,7 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6341,12 +6377,12 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>740</v>
+        <v>304</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.1455668284075875</v>
+        <v>5.0265346534653466</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6356,19 +6392,19 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6376,20 +6412,20 @@
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.1443569553805775</v>
+        <v>5.0862453531598515</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6399,50 +6435,50 @@
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-165</v>
+        <v>12</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-853.695652173913</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-165</v>
+        <v>12</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.1443569553805775</v>
+        <v>5.0903034789045147</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-848.81889763779532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6450,11 +6486,11 @@
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6462,7 +6498,7 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6470,12 +6506,12 @@
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6488,20 +6524,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>405</v>
+        <v>658</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.5625</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>7019</v>
+        <v>8789</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-4749.652173913043</v>
+        <v>-5343.4285186553379</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -6509,20 +6545,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>405</v>
+        <v>658</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.5625</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>7019</v>
+        <v>8789</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-4662.1814411845253</v>
+        <v>-5106.1200663114887</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -22905,15 +22941,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1405</v>
+        <v>1658</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>7269.347826086956</v>
+        <v>8445.5714813446612</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -22923,26 +22959,26 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1405</v>
+        <v>1658</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.1739130434782608</v>
+        <v>5.0938308090136681</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>7269.347826086956</v>
+        <v>8445.5714813446612</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="28" t="s">
         <v>82</v>
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-87.47073272851776</v>
+        <v>-237.30845234384924</v>
       </c>
     </row>
   </sheetData>
@@ -22950,4 +22986,62 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -304,6 +304,16 @@
   <si>
     <t>Làm phiếu xuất kho, sau đó làm phiếu nhập kho mã đó, đơn giá nhập bằng đơn giá xuất</t>
   </si>
+  <si>
+    <t>In phiếu</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Chỉ cho in phiếu sau khi phiếu đã được lưu (nút in trên màn hình sổ chi tiết)
+==&gt; tránh trường hợp chưa lưu phiếu, nhưng đã in</t>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +445,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -593,79 +606,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,79 +715,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.1624790619765495</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8805535324107794</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8805535324107794</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8805535324107794</c:v>
+                  <c:v>5.0912667191188037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8805535324107794</c:v>
+                  <c:v>5.0912667191188037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8805535324107794</c:v>
+                  <c:v>5.0912667191188037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7178975382568193</c:v>
+                  <c:v>5.0628352490421458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7178975382568193</c:v>
+                  <c:v>5.0628352490421458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7178975382568193</c:v>
+                  <c:v>5.0553679945982442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7178975382568193</c:v>
+                  <c:v>5.0553679945982442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7178975382568193</c:v>
+                  <c:v>5.0553679945982442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8433373349339739</c:v>
+                  <c:v>5.0553679945982442</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8433373349339739</c:v>
+                  <c:v>5.0553679945982442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8861271676300575</c:v>
+                  <c:v>5.0505548705302097</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0125000000000002</c:v>
+                  <c:v>5.0454293628808866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0122535961640917</c:v>
+                  <c:v>5.0427751695357328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.188834951456311</c:v>
+                  <c:v>5.0992907801418443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2503364737550475</c:v>
+                  <c:v>5.0423854115327744</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2503364737550475</c:v>
+                  <c:v>5.1247747747747745</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0693069306930694</c:v>
+                  <c:v>5.1247747747747745</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0583911800734995</c:v>
+                  <c:v>5.1693031209918772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0265346534653466</c:v>
+                  <c:v>5.0844567803330687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0862453531598515</c:v>
+                  <c:v>5.0439346811819599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0903034789045147</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0938308090136681</c:v>
+                  <c:v>4.973348348348348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5442,66 +5455,66 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>194</v>
+        <v>-36</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>0</v>
+        <v>-179.04054054054052</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>194</v>
+        <v>-36</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5.1624790619765495</v>
+        <v>5</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>0</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>775</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5509,20 +5522,20 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>537</v>
+        <v>775</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>4.8805535324107794</v>
+        <v>5</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5532,7 +5545,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-169</v>
+        <v>-136</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5544,15 +5557,15 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-860.85740672330996</v>
+        <v>-676.37537537537537</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-169</v>
+        <v>-136</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5565,60 +5578,60 @@
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>4.8805535324107794</v>
+        <v>5</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-824.81354697742177</v>
+        <v>-680</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-35</v>
+        <v>116</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-178.28407831547838</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-35</v>
+        <v>116</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>4.8805535324107794</v>
+        <v>5.0912667191188037</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-170.81937363437729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>-122</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5630,15 +5643,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-91.688954562246025</v>
+        <v>-606.74849849849841</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-18</v>
+        <v>-122</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5651,17 +5664,17 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.8805535324107794</v>
+        <v>5.0912667191188037</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-87.849963583394029</v>
+        <v>-621.13453973249409</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-29</v>
+        <v>-3</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5673,15 +5686,15 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-147.72109346139638</v>
+        <v>-14.920045045045043</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-29</v>
+        <v>-3</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5694,29 +5707,29 @@
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.8805535324107794</v>
+        <v>5.0912667191188037</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-141.53605243991259</v>
+        <v>-15.273800157356412</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>390</v>
+        <v>136</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5724,20 +5737,20 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>390</v>
+        <v>136</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.7178975382568193</v>
+        <v>5.0628352490421458</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5747,7 +5760,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-184</v>
+        <v>-3</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5759,15 +5772,15 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-937.26486885851489</v>
+        <v>-14.920045045045043</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-184</v>
+        <v>-3</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5780,60 +5793,60 @@
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.7178975382568193</v>
+        <v>5.0628352490421458</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-868.09314703925475</v>
+        <v>-15.188505747126438</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-133</v>
+        <v>176</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-677.47949759881783</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-133</v>
+        <v>176</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.7178975382568193</v>
+        <v>5.0553679945982442</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-627.48037258815702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-53</v>
+        <v>-127</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5845,15 +5858,15 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-269.97303287772439</v>
+        <v>-631.61524024024015</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-53</v>
+        <v>-127</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5866,17 +5879,17 @@
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.7178975382568193</v>
+        <v>5.0553679945982442</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-250.04856952761142</v>
+        <v>-642.03173531397704</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-105</v>
+        <v>-111</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5888,15 +5901,15 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-534.85223494643515</v>
+        <v>-552.04166666666663</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-105</v>
+        <v>-111</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5909,60 +5922,60 @@
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.7178975382568193</v>
+        <v>5.0553679945982442</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-495.37924151696603</v>
+        <v>-561.14584740040505</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>-62</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-308.3475975975976</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>163</v>
+        <v>-62</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>4.8433373349339739</v>
+        <v>5.0553679945982442</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-313.43281566509114</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-137</v>
+        <v>-174</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5974,15 +5987,15 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-697.8548208348725</v>
+        <v>-865.36261261261257</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-137</v>
+        <v>-174</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5995,29 +6008,29 @@
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>4.8433373349339739</v>
+        <v>5.0553679945982442</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-663.53721488595443</v>
+        <v>-879.63403106009446</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <v>705</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6025,20 +6038,20 @@
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>384</v>
+        <v>705</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>4.8861271676300575</v>
+        <v>5.0505548705302097</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6048,19 +6061,19 @@
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>770</v>
+        <v>915</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6068,20 +6081,20 @@
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>770</v>
+        <v>915</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.0125000000000002</v>
+        <v>5.0454293628808866</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6091,7 +6104,7 @@
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6099,11 +6112,11 @@
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6111,7 +6124,7 @@
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6119,12 +6132,12 @@
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.0122535961640917</v>
+        <v>5.0427751695357328</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6134,7 +6147,7 @@
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6142,11 +6155,11 @@
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1281</v>
+        <v>399</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6154,7 +6167,7 @@
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6162,12 +6175,12 @@
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1281</v>
+        <v>399</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.188834951456311</v>
+        <v>5.0992907801418443</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6177,19 +6190,19 @@
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1014</v>
+        <v>165</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6197,20 +6210,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1014</v>
+        <v>165</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.2503364737550475</v>
+        <v>5.0423854115327744</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6220,105 +6233,105 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-186</v>
+        <v>191</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-947.45253047654228</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-186</v>
+        <v>191</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.2503364737550475</v>
+        <v>5.1247747747747745</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-976.56258411843885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>-38</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-188.98723723723722</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>-38</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.0693069306930694</v>
+        <v>5.1247747747747745</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-194.74144144144142</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>714</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6326,20 +6339,20 @@
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>714</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.0583911800734995</v>
+        <v>5.1693031209918772</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6349,7 +6362,7 @@
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6357,11 +6370,11 @@
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>304</v>
+        <v>732</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6369,7 +6382,7 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6377,12 +6390,12 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>304</v>
+        <v>732</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.0265346534653466</v>
+        <v>5.0844567803330687</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6392,19 +6405,19 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6412,20 +6425,20 @@
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.0862453531598515</v>
+        <v>5.0439346811819599</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6435,19 +6448,19 @@
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6455,20 +6468,20 @@
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.0903034789045147</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6478,44 +6491,44 @@
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-154</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-765.89564564564557</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>-154</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-765.89564564564557</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -6524,20 +6537,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.2666666666666666</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>8789</v>
+        <v>8249</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-5343.4285186553379</v>
+        <v>-4804.2545045045044</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -6545,20 +6558,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.2666666666666666</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>8789</v>
+        <v>8249</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-5106.1200663114887</v>
+        <v>-4868.4783621636307</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -22941,15 +22954,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1658</v>
+        <v>1698</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>8445.5714813446612</v>
+        <v>8444.7454954954956</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -22959,15 +22972,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1658</v>
+        <v>1698</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.0938308090136681</v>
+        <v>4.973348348348348</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>8445.5714813446612</v>
+        <v>8444.7454954954956</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -22978,7 +22991,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-237.30845234384924</v>
+        <v>64.223857659126224</v>
       </c>
     </row>
   </sheetData>
@@ -22991,33 +23004,39 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -23025,7 +23044,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -23033,12 +23052,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
     <sheet name="WORK_FLOW" sheetId="2" r:id="rId2"/>
     <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId3"/>
     <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId4"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -102,9 +106,6 @@
   </si>
   <si>
     <t>Thu nhập dữ liệu từ người dùng</t>
-  </si>
-  <si>
-    <t>ứng dụng cho việc import nhiều dòng (vì không biết kỹ thuật)</t>
   </si>
   <si>
     <t>NHÓM 1: CÁC BẢNG THU THẬP DỮ LIỆU</t>
@@ -314,6 +315,130 @@
     <t>Chỉ cho in phiếu sau khi phiếu đã được lưu (nút in trên màn hình sổ chi tiết)
 ==&gt; tránh trường hợp chưa lưu phiếu, nhưng đã in</t>
   </si>
+  <si>
+    <t>Ứng dụng cho việc import nhiều dòng</t>
+  </si>
+  <si>
+    <t>Bộ phận kế hoạch</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho thành phẩm</t>
+  </si>
+  <si>
+    <t>Bảng định mức phân bổ</t>
+  </si>
+  <si>
+    <t>QUYỀN</t>
+  </si>
+  <si>
+    <t>Xem</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Xoá</t>
+  </si>
+  <si>
+    <t>YES/NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho chi tiết</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho NVL chính</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho NVL phụ</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho thứ liệu</t>
+  </si>
+  <si>
+    <t>Bảng danh mục kho phế liệu</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>DIỄN GIẢI</t>
+  </si>
+  <si>
+    <t>Bảng danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Bảng danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>TÊN BẢNG</t>
+  </si>
+  <si>
+    <t>BỘ PHẬN</t>
+  </si>
+  <si>
+    <t>Bộ phận kế toán kho</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Được phép tạo mới </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khi và chỉ khi có yêu cầu bằng văn bản</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được duyệt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Được phép sửa đổi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khi và chỉ khi có yêu cầu bằng văn bản</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được duyệt</t>
+    </r>
+  </si>
+  <si>
+    <t>Bộ phận kinh doanh</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +448,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +495,23 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +535,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -437,6 +589,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -445,7 +634,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,8 +676,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -606,79 +827,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,79 +936,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0988593155893538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0988593155893538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.2348668280871671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0912667191188037</c:v>
+                  <c:v>5.3679104477611936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0912667191188037</c:v>
+                  <c:v>5.3657270029673594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0912667191188037</c:v>
+                  <c:v>5.2426160337552741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0628352490421458</c:v>
+                  <c:v>5.2426160337552741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0628352490421458</c:v>
+                  <c:v>5.2240259740259738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0553679945982442</c:v>
+                  <c:v>5.2137546468401483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0553679945982442</c:v>
+                  <c:v>5.1503229594832645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0553679945982442</c:v>
+                  <c:v>5.1482339316734222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0553679945982442</c:v>
+                  <c:v>5.2082884822389666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0553679945982442</c:v>
+                  <c:v>5.2065101387406614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0505548705302097</c:v>
+                  <c:v>5.2065101387406614</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0454293628808866</c:v>
+                  <c:v>5.1919642857142856</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0427751695357328</c:v>
+                  <c:v>5.1919642857142856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0992907801418443</c:v>
+                  <c:v>5.1919642857142856</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0423854115327744</c:v>
+                  <c:v>5.1825787401574805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1247747747747745</c:v>
+                  <c:v>5.2278010227801026</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1247747747747745</c:v>
+                  <c:v>5.2278010227801026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1693031209918772</c:v>
+                  <c:v>5.2278010227801026</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0844567803330687</c:v>
+                  <c:v>5.2086956521739127</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0439346811819599</c:v>
+                  <c:v>5.2086956521739127</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.2086956521739127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.973348348348348</c:v>
+                  <c:v>5.0900822867042006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4966,7 +5187,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5000,7 +5221,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -5023,7 +5244,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -5043,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -5063,14 +5284,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -5079,7 +5300,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -5087,7 +5308,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -5095,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -5103,12 +5324,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4"/>
     </row>
@@ -5117,7 +5338,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5125,7 +5346,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5133,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5141,7 +5362,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5149,7 +5370,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5157,7 +5378,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5165,7 +5386,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5173,7 +5394,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5181,12 +5402,12 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
@@ -5195,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5226,119 +5447,119 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F30" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5369,14 +5590,14 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="I1" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -5385,39 +5606,39 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="26">
         <v>1000</v>
@@ -5432,7 +5653,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="H3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="24">
         <f>+B3</f>
@@ -5451,156 +5672,156 @@
     </row>
     <row r="4" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-36</v>
+        <v>52</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-179.04054054054052</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-36</v>
+        <v>52</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.0988593155893538</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>-11</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-55.990905153746205</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>155</v>
+        <v>-11</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.0988593155893538</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-56.087452471482891</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-136</v>
+        <v>187</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-676.37537537537537</v>
+        <v>0</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-136</v>
+        <v>187</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.2348668280871671</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5608,20 +5829,20 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.0912667191188037</v>
+        <v>5.3679104477611936</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5631,179 +5852,179 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-122</v>
+        <v>8</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-606.74849849849841</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-122</v>
+        <v>8</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.0912667191188037</v>
+        <v>5.3657270029673594</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-621.13453973249409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>74</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-14.920045045045043</v>
+        <v>0</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>74</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.0912667191188037</v>
+        <v>5.2426160337552741</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.273800157356412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>-137</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-697.34127327847546</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>-137</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.0628352490421458</v>
+        <v>5.2426160337552741</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-718.23839662447256</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>118</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-14.920045045045043</v>
+        <v>0</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>118</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.0628352490421458</v>
+        <v>5.2240259740259738</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.188505747126438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5811,11 +6032,11 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>880</v>
+        <v>370</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5823,7 +6044,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -5831,12 +6052,12 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>880</v>
+        <v>370</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.0553679945982442</v>
+        <v>5.2137546468401483</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5846,222 +6067,222 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-127</v>
+        <v>89</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-631.61524024024015</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-127</v>
+        <v>89</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.0553679945982442</v>
+        <v>5.1503229594832645</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-642.03173531397704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-111</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-552.04166666666663</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-111</v>
+        <v>24</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.0553679945982442</v>
+        <v>5.1482339316734222</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-561.14584740040505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-62</v>
+        <v>131</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-308.3475975975976</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>131</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.0553679945982442</v>
+        <v>5.2082884822389666</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-313.43281566509114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-174</v>
+        <v>16</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-865.36261261261257</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-174</v>
+        <v>16</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.0553679945982442</v>
+        <v>5.2065101387406614</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-879.63403106009446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>-134</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-682.07102641836286</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>-134</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.0505548705302097</v>
+        <v>5.2065101387406614</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-697.67235859124867</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6069,11 +6290,11 @@
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>915</v>
+        <v>710</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6081,7 +6302,7 @@
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6089,12 +6310,12 @@
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>915</v>
+        <v>710</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.0454293628808866</v>
+        <v>5.1919642857142856</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6104,105 +6325,105 @@
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>-10</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-50.90082286704201</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>-10</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.0427751695357328</v>
+        <v>5.1919642857142856</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-51.919642857142854</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>-37</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-188.33304460805542</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>-37</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.0992907801418443</v>
+        <v>5.1919642857142856</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-192.10267857142856</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6210,20 +6431,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.0423854115327744</v>
+        <v>5.1825787401574805</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6233,7 +6454,7 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6241,11 +6462,11 @@
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1146</v>
+        <v>714</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6253,7 +6474,7 @@
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6261,12 +6482,12 @@
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1146</v>
+        <v>714</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.1247747747747745</v>
+        <v>5.2278010227801026</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6276,7 +6497,7 @@
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>-57</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6288,15 +6509,15 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-188.98723723723722</v>
+        <v>-290.13469034213944</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-38</v>
+        <v>-57</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6309,60 +6530,60 @@
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.1247747747747745</v>
+        <v>5.2278010227801026</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-194.74144144144142</v>
+        <v>-297.98465829846583</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>-196</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-997.65612819402327</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>-196</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.1693031209918772</v>
+        <v>5.2278010227801026</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-1024.6490004649002</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6370,11 +6591,11 @@
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>732</v>
+        <v>136</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6382,7 +6603,7 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6390,12 +6611,12 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>732</v>
+        <v>136</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.0844567803330687</v>
+        <v>5.2086956521739127</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6405,173 +6626,173 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>-57</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-290.13469034213944</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>-57</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.0439346811819599</v>
+        <v>5.2086956521739127</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-296.89565217391305</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>-130</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-661.71069727154611</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>-130</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>4.973348348348348</v>
+        <v>5.2086956521739127</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-677.13043478260863</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-154</v>
+        <v>124</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-765.89564564564557</v>
+        <v>0</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-154</v>
+        <v>124</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-765.89564564564557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>698</v>
+        <v>540</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.7857142857142856</v>
+        <v>5</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>8249</v>
+        <v>6753</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-4804.2545045045044</v>
+        <v>-3914.2732784755303</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>698</v>
+        <v>540</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.7857142857142856</v>
+        <v>5</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>8249</v>
+        <v>6753</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-4868.4783621636307</v>
+        <v>-4012.6802748356627</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -22950,48 +23171,48 @@
     </row>
     <row r="31" spans="1:16372" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1698</v>
+        <v>1540</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>8444.7454954954956</v>
+        <v>7838.7267215244692</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="12"/>
       <c r="H31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1698</v>
+        <v>1540</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>4.973348348348348</v>
+        <v>5.0900822867042006</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>8444.7454954954956</v>
+        <v>7838.7267215244692</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.3">
       <c r="K34" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>64.223857659126224</v>
+        <v>98.406996360132325</v>
       </c>
     </row>
   </sheetData>
@@ -23004,71 +23225,1359 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.85546875" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>93</v>
       </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>94</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="40"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="40"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="39"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="39"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="39"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="39"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="40"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="39"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E77"/>
+  <mergeCells count="38">
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
     <sheet name="WORK_FLOW" sheetId="2" r:id="rId2"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId3"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId4"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId4"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId5"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -670,12 +671,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -702,6 +697,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -769,7 +770,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -827,79 +827,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,79 +936,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0988593155893538</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0988593155893538</c:v>
+                  <c:v>4.9693708609271523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2348668280871671</c:v>
+                  <c:v>4.9722846441947564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3679104477611936</c:v>
+                  <c:v>4.9722846441947564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3657270029673594</c:v>
+                  <c:v>4.9722846441947564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2426160337552741</c:v>
+                  <c:v>4.9729927007299271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2426160337552741</c:v>
+                  <c:v>5.0992317541613312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2240259740259738</c:v>
+                  <c:v>5.0988520408163263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2137546468401483</c:v>
+                  <c:v>5.0988520408163263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1503229594832645</c:v>
+                  <c:v>5.09480122324159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1482339316734222</c:v>
+                  <c:v>5.09480122324159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2082884822389666</c:v>
+                  <c:v>5.1899288451012593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2065101387406614</c:v>
+                  <c:v>5.1899288451012593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2065101387406614</c:v>
+                  <c:v>5.1899288451012593</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1919642857142856</c:v>
+                  <c:v>5.1899288451012593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1919642857142856</c:v>
+                  <c:v>5.173275393807713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1919642857142856</c:v>
+                  <c:v>5.173275393807713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1825787401574805</c:v>
+                  <c:v>5.173275393807713</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2278010227801026</c:v>
+                  <c:v>5.173275393807713</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2278010227801026</c:v>
+                  <c:v>5.2484374999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2278010227801026</c:v>
+                  <c:v>5.2484374999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2086956521739127</c:v>
+                  <c:v>5.2285577383804505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.2086956521739127</c:v>
+                  <c:v>5.2285577383804505</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2086956521739127</c:v>
+                  <c:v>5.2847623278542866</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0900822867042006</c:v>
+                  <c:v>5.2790800530738613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,7 +1098,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4887,6 +4886,4418 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="Rectangle 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17602200" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KINH DOANH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="723900"/>
+          <a:ext cx="1438275" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>ĐƠN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> ĐẶT HÀNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Diamond 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648073" y="619125"/>
+          <a:ext cx="1514477" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>ĐỦ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t> HÀNG 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267076" y="981075"/>
+          <a:ext cx="380997" cy="61913"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="657225"/>
+          <a:ext cx="1219200" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nhận đơn hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="742950"/>
+          <a:ext cx="1276350" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Thông</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> báo giao hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="695324"/>
+          <a:ext cx="847725" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho TP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6048375" y="1023937"/>
+          <a:ext cx="190500" cy="14289"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="928688"/>
+          <a:ext cx="485776" cy="52387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8553450" y="1042988"/>
+          <a:ext cx="171450" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="685800"/>
+          <a:ext cx="1362075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> đề nghị xuất kho TP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10001250" y="957263"/>
+          <a:ext cx="314323" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Diamond 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315573" y="314325"/>
+          <a:ext cx="1514477" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>Thành</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t> viên xác nhận</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="981076"/>
+          <a:ext cx="171450" cy="28574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="3171825"/>
+          <a:ext cx="1362075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Biên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> bản giao nhận</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14701838" y="2257425"/>
+          <a:ext cx="481012" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rounded Rectangle 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15678150" y="3190875"/>
+          <a:ext cx="1362075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất hoá đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="2"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15182850" y="2257425"/>
+          <a:ext cx="1176338" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="857251"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5162550" y="1038226"/>
+          <a:ext cx="228600" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rounded Rectangle 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="800101"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Connector 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830050" y="957263"/>
+          <a:ext cx="142875" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rounded Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="152401"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Connector 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="0"/>
+          <a:endCxn id="96" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10458450" y="314325"/>
+          <a:ext cx="614362" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Connector 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="1"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9363075" y="333376"/>
+          <a:ext cx="438150" cy="409574"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rounded Rectangle 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="1790701"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Connector 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="114" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4405312" y="1466850"/>
+          <a:ext cx="66676" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="2"/>
+          <a:endCxn id="182" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4471988" y="2152651"/>
+          <a:ext cx="9525" cy="485773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rounded Rectangle 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="781050"/>
+          <a:ext cx="1371600" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Arrow Connector 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14163675" y="962025"/>
+          <a:ext cx="314325" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rounded Rectangle 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14630400" y="1581150"/>
+          <a:ext cx="1104900" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Bỏ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho TP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Arrow Connector 142"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="2"/>
+          <a:endCxn id="142" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15163800" y="1143000"/>
+          <a:ext cx="19050" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rounded Rectangle 181"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="2638424"/>
+          <a:ext cx="866775" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho TP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Rounded Rectangle 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="3590925"/>
+          <a:ext cx="1704976" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="Straight Arrow Connector 187"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="182" idx="2"/>
+          <a:endCxn id="187" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4433888" y="3276599"/>
+          <a:ext cx="47625" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rounded Rectangle 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229476" y="762000"/>
+          <a:ext cx="1323974" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> định ngày hoàn thành</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="Straight Arrow Connector 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="207" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="1023937"/>
+          <a:ext cx="142876" cy="42863"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="Diamond 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448298" y="1628775"/>
+          <a:ext cx="1514477" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>Giao một</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t> phần</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="Rounded Rectangle 255"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="1952626"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="Straight Connector 256"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="255" idx="3"/>
+          <a:endCxn id="256" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2052638"/>
+          <a:ext cx="371475" cy="80963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="Straight Arrow Connector 258"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="3"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7991475" y="1343025"/>
+          <a:ext cx="1371600" cy="790576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="Straight Arrow Connector 261"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="3"/>
+          <a:endCxn id="255" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1971676"/>
+          <a:ext cx="647698" cy="80962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="Rectangle 288"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4210050"/>
+          <a:ext cx="17602200" cy="5543549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KẾ HOẠCH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="Rounded Rectangle 289"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="4991100"/>
+          <a:ext cx="1704976" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="Diamond 290"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="4772026"/>
+          <a:ext cx="2019300" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>ĐỦ CHI TIẾT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t> và NVL 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="292" name="Straight Arrow Connector 291"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="290" idx="3"/>
+          <a:endCxn id="291" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="5195888"/>
+          <a:ext cx="514349" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="Straight Arrow Connector 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="303" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6686551" y="4972051"/>
+          <a:ext cx="742949" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="Rounded Rectangle 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="5019676"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="Straight Connector 300"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="3"/>
+          <a:endCxn id="300" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="5195889"/>
+          <a:ext cx="419100" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="Rounded Rectangle 302"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="4791076"/>
+          <a:ext cx="2171700" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> định ngày hoàn thành</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="Rounded Rectangle 309"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="5372101"/>
+          <a:ext cx="1447800" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="311" name="Straight Arrow Connector 310"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="310" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686551" y="5276851"/>
+          <a:ext cx="761999" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="Rounded Rectangle 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="6038851"/>
+          <a:ext cx="1447800" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="Straight Arrow Connector 315"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="315" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686551" y="5276851"/>
+          <a:ext cx="790574" cy="957262"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="6086476"/>
+          <a:ext cx="2114550" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất kho chi tiết</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="315" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="6234113"/>
+          <a:ext cx="1628775" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="6657976"/>
+          <a:ext cx="2419350" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất kho NVL chính</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="315" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="6234113"/>
+          <a:ext cx="1666875" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rounded Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="7181851"/>
+          <a:ext cx="2419350" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất kho NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="7667626"/>
+          <a:ext cx="2419350" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị xuất kho thứ liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="315" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="6234113"/>
+          <a:ext cx="1647825" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="315" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="6234113"/>
+          <a:ext cx="1666875" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rounded Rectangle 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677524" y="5257801"/>
+          <a:ext cx="2457451" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xưởng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> 01, 02, 03, 04, 05, 06</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="310" idx="3"/>
+          <a:endCxn id="98" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8896350" y="5453063"/>
+          <a:ext cx="1781174" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rounded Rectangle 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4733926"/>
+          <a:ext cx="1095376" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho CT, NVL chính, NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Connector 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="300" idx="3"/>
+          <a:endCxn id="111" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="5200651"/>
+          <a:ext cx="142875" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="6200776"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="5619751"/>
+          <a:ext cx="109538" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3467100" y="6562726"/>
+          <a:ext cx="4763" cy="542923"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rounded Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="7105649"/>
+          <a:ext cx="1238250" cy="1104901"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho CT, NVL chính, NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12668250" y="6281738"/>
+          <a:ext cx="1562100" cy="871537"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="6853238"/>
+          <a:ext cx="1219200" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12992100" y="7153275"/>
+          <a:ext cx="1238250" cy="223838"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13011150" y="7153275"/>
+          <a:ext cx="1219200" cy="709613"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rounded Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16116300" y="6638926"/>
+          <a:ext cx="1095376" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Bỏ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho CT, NVL chính, NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rounded Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230350" y="6972300"/>
+          <a:ext cx="1371600" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Arrow Connector 174"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="3"/>
+          <a:endCxn id="145" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15601950" y="7153275"/>
+          <a:ext cx="514350" cy="28576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>347380</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -5198,26 +9609,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -5437,7 +9848,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5570,6 +9981,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
@@ -5676,20 +10102,20 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>364</v>
+        <v>855</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
@@ -5700,20 +10126,20 @@
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>364</v>
+        <v>855</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5.0988593155893538</v>
+        <v>5</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
@@ -5723,62 +10149,62 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-55.990905153746205</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.0988593155893538</v>
+        <v>4.9693708609271523</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-56.087452471482891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1122</v>
+        <v>635</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5786,20 +10212,20 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1122</v>
+        <v>635</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.2348668280871671</v>
+        <v>4.9722846441947564</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5809,105 +10235,105 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>-72</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-380.09376382131802</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>-72</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.3679104477611936</v>
+        <v>4.9722846441947564</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-358.00449438202247</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-67</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-353.69836355594873</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>-67</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.3657270029673594</v>
+        <v>4.9722846441947564</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-333.14307116104868</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -5915,20 +10341,20 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.2426160337552741</v>
+        <v>4.9729927007299271</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -5938,50 +10364,50 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-137</v>
+        <v>192</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-697.34127327847546</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-137</v>
+        <v>192</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.2426160337552741</v>
+        <v>5.0992317541613312</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-718.23839662447256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -5989,11 +10415,11 @@
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>590</v>
+        <v>30</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6001,7 +10427,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6009,12 +10435,12 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>590</v>
+        <v>30</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.2240259740259738</v>
+        <v>5.0988520408163263</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6024,62 +10450,62 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>-71</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-374.81468376824415</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>-71</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.2137546468401483</v>
+        <v>5.0988520408163263</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-362.01849489795916</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6087,20 +10513,20 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.1503229594832645</v>
+        <v>5.09480122324159</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6110,50 +10536,50 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>-30</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-158.37240159221585</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>-30</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.1482339316734222</v>
+        <v>5.09480122324159</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-152.8440366972477</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6161,11 +10587,11 @@
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>786</v>
+        <v>1152</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6173,7 +10599,7 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6181,12 +10607,12 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>786</v>
+        <v>1152</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.2082884822389666</v>
+        <v>5.1899288451012593</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6196,50 +10622,50 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>-192</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1013.5833701901813</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>-192</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.2065101387406614</v>
+        <v>5.1899288451012593</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-996.46633825944173</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-134</v>
+        <v>-144</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6251,15 +10677,15 @@
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-682.07102641836286</v>
+        <v>-760.18752764263604</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-134</v>
+        <v>-144</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6272,103 +10698,103 @@
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.2065101387406614</v>
+        <v>5.1899288451012593</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-697.67235859124867</v>
+        <v>-747.3497536945813</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>-197</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1039.9787704555506</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>-197</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.1919642857142856</v>
+        <v>5.1899288451012593</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-1022.4159824849481</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-50.90082286704201</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.1919642857142856</v>
+        <v>5.173275393807713</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-51.919642857142854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-37</v>
+        <v>-69</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6380,15 +10806,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-188.33304460805542</v>
+        <v>-364.25652366209641</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-69</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6401,146 +10827,146 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.1919642857142856</v>
+        <v>5.173275393807713</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-192.10267857142856</v>
+        <v>-356.95600217273221</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>-121</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-638.76868642193722</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>-121</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.1825787401574805</v>
+        <v>5.173275393807713</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-625.96632265073322</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>-136</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-717.95488721804509</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>-136</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.2278010227801026</v>
+        <v>5.173275393807713</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-703.56545355784897</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-57</v>
+        <v>79</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-290.13469034213944</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>79</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.2278010227801026</v>
+        <v>5.2484374999999996</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-297.98465829846583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-196</v>
+        <v>-1</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6552,15 +10978,15 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-997.65612819402327</v>
+        <v>-5.2790800530738613</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-196</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6573,29 +10999,29 @@
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.2278010227801026</v>
+        <v>5.2484374999999996</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-1024.6490004649002</v>
+        <v>-5.2484374999999996</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>835</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6603,20 +11029,20 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>835</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.2086956521739127</v>
+        <v>5.2285577383804505</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6626,7 +11052,7 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-57</v>
+        <v>-176</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -6638,15 +11064,15 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-290.13469034213944</v>
+        <v>-929.11808934099963</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-176</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -6659,72 +11085,72 @@
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.2086956521739127</v>
+        <v>5.2285577383804505</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-296.89565217391305</v>
+        <v>-920.22616195495925</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-130</v>
+        <v>164</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-661.71069727154611</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-130</v>
+        <v>164</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.2086956521739127</v>
+        <v>5.2847623278542866</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-677.13043478260863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -6732,20 +11158,20 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -6758,20 +11184,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>540</v>
+        <v>-15</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5</v>
+        <v>5.0769230769230766</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>6753</v>
+        <v>6936</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-3914.2732784755303</v>
+        <v>-6736.1061477222465</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -6779,20 +11205,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>540</v>
+        <v>-15</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5</v>
+        <v>5.0769230769230766</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>6753</v>
+        <v>6936</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-4012.6802748356627</v>
+        <v>-6584.2045494135236</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -23175,15 +27601,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1540</v>
+        <v>985</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>7838.7267215244692</v>
+        <v>5199.8938522777535</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -23193,15 +27619,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1540</v>
+        <v>985</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.0900822867042006</v>
+        <v>5.2790800530738613</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>7838.7267215244692</v>
+        <v>5199.8938522777535</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -23212,7 +27638,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>98.406996360132325</v>
+        <v>-151.9015983087229</v>
       </c>
     </row>
   </sheetData>
@@ -23222,101 +27648,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.85546875" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="40.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.85546875" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23324,12 +27750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -23338,28 +27764,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="54.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23370,13 +27796,13 @@
       <c r="B2" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23387,13 +27813,13 @@
       <c r="B3" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
@@ -23402,13 +27828,13 @@
       <c r="B4" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23419,13 +27845,13 @@
       <c r="B5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
@@ -23434,13 +27860,13 @@
       <c r="B6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
@@ -23449,13 +27875,13 @@
       <c r="B7" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
@@ -23464,13 +27890,13 @@
       <c r="B8" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
@@ -23479,13 +27905,13 @@
       <c r="B9" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
@@ -23494,13 +27920,13 @@
       <c r="B10" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
@@ -23509,13 +27935,13 @@
       <c r="B11" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -23524,13 +27950,13 @@
       <c r="B12" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
@@ -23539,13 +27965,13 @@
       <c r="B13" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
@@ -23554,13 +27980,13 @@
       <c r="B14" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
@@ -23569,13 +27995,13 @@
       <c r="B15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
@@ -23584,13 +28010,13 @@
       <c r="B16" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
@@ -23599,13 +28025,13 @@
       <c r="B17" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
@@ -23614,13 +28040,13 @@
       <c r="B18" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
@@ -23629,13 +28055,13 @@
       <c r="B19" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
@@ -23644,13 +28070,13 @@
       <c r="B20" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
@@ -23659,13 +28085,13 @@
       <c r="B21" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
@@ -23674,13 +28100,13 @@
       <c r="B22" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
@@ -23689,13 +28115,13 @@
       <c r="B23" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
@@ -23704,13 +28130,13 @@
       <c r="B24" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
@@ -23719,13 +28145,13 @@
       <c r="B25" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
@@ -23734,13 +28160,13 @@
       <c r="B26" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
@@ -23749,13 +28175,13 @@
       <c r="B27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
@@ -23764,13 +28190,13 @@
       <c r="B28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
@@ -23779,13 +28205,13 @@
       <c r="B29" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
@@ -23794,13 +28220,13 @@
       <c r="B30" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
@@ -23809,13 +28235,13 @@
       <c r="B31" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
@@ -23824,13 +28250,13 @@
       <c r="B32" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
@@ -23839,13 +28265,13 @@
       <c r="B33" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
@@ -23854,13 +28280,13 @@
       <c r="B34" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
@@ -23869,13 +28295,13 @@
       <c r="B35" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
@@ -23884,13 +28310,13 @@
       <c r="B36" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
@@ -23899,13 +28325,13 @@
       <c r="B37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
@@ -23914,13 +28340,13 @@
       <c r="B38" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23931,13 +28357,13 @@
       <c r="B39" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
@@ -23946,13 +28372,13 @@
       <c r="B40" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23963,13 +28389,13 @@
       <c r="B41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
@@ -23978,13 +28404,13 @@
       <c r="B42" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23995,13 +28421,13 @@
       <c r="B43" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="42" t="s">
@@ -24010,13 +28436,13 @@
       <c r="B44" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24027,13 +28453,13 @@
       <c r="B45" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
@@ -24042,13 +28468,13 @@
       <c r="B46" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24059,13 +28485,13 @@
       <c r="B47" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="40"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
@@ -24074,13 +28500,13 @@
       <c r="B48" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24091,13 +28517,13 @@
       <c r="B49" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
@@ -24106,13 +28532,13 @@
       <c r="B50" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24123,13 +28549,13 @@
       <c r="B51" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
@@ -24138,13 +28564,13 @@
       <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24155,13 +28581,13 @@
       <c r="B53" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
@@ -24170,13 +28596,13 @@
       <c r="B54" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24187,13 +28613,13 @@
       <c r="B55" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="40"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
@@ -24202,13 +28628,13 @@
       <c r="B56" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24219,13 +28645,13 @@
       <c r="B57" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
@@ -24234,13 +28660,13 @@
       <c r="B58" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24251,13 +28677,13 @@
       <c r="B59" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="40"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
@@ -24266,13 +28692,13 @@
       <c r="B60" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24283,13 +28709,13 @@
       <c r="B61" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="40"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
@@ -24298,13 +28724,13 @@
       <c r="B62" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="39"/>
+      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="42" t="s">
@@ -24313,13 +28739,13 @@
       <c r="B63" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="39"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
@@ -24328,13 +28754,13 @@
       <c r="B64" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="39"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
@@ -24343,13 +28769,13 @@
       <c r="B65" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="39"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
@@ -24358,13 +28784,13 @@
       <c r="B66" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="39"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="42" t="s">
@@ -24373,13 +28799,13 @@
       <c r="B67" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="39"/>
+      <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="42" t="s">
@@ -24388,13 +28814,13 @@
       <c r="B68" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="39"/>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
@@ -24403,13 +28829,13 @@
       <c r="B69" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="39"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
@@ -24418,13 +28844,13 @@
       <c r="B70" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="40"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
@@ -24433,13 +28859,13 @@
       <c r="B71" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="40"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
@@ -24448,13 +28874,13 @@
       <c r="B72" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E72" s="40"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
@@ -24463,13 +28889,13 @@
       <c r="B73" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="40"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
@@ -24478,13 +28904,13 @@
       <c r="B74" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -24495,13 +28921,13 @@
       <c r="B75" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="40"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
@@ -24510,13 +28936,13 @@
       <c r="B76" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24527,17 +28953,39 @@
       <c r="B77" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="39"/>
+      <c r="E77" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -24554,28 +29002,6 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -827,79 +827,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,79 +936,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.9478672985781991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9693708609271523</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9722846441947564</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9722846441947564</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9722846441947564</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9729927007299271</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0992317541613312</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0988520408163263</c:v>
+                  <c:v>4.7297979797979801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0988520408163263</c:v>
+                  <c:v>4.7629246676514034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.09480122324159</c:v>
+                  <c:v>4.6382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.09480122324159</c:v>
+                  <c:v>4.6382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1899288451012593</c:v>
+                  <c:v>4.6681360201511337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1899288451012593</c:v>
+                  <c:v>4.6334328358208952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1899288451012593</c:v>
+                  <c:v>4.5775721284703321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1899288451012593</c:v>
+                  <c:v>4.5597416576964482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.173275393807713</c:v>
+                  <c:v>4.5597416576964482</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.173275393807713</c:v>
+                  <c:v>4.5597416576964482</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.173275393807713</c:v>
+                  <c:v>4.5737363210005215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.173275393807713</c:v>
+                  <c:v>4.5737363210005215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2484374999999996</c:v>
+                  <c:v>4.4731707317073175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2484374999999996</c:v>
+                  <c:v>4.4731707317073175</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2285577383804505</c:v>
+                  <c:v>4.471018022406235</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.2285577383804505</c:v>
+                  <c:v>4.4869312681510163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2847623278542866</c:v>
+                  <c:v>4.4505150022391398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2790800530738613</c:v>
+                  <c:v>4.3400910219280098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4887,13 +4887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4904,7 +4904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="9525" y="0"/>
           <a:ext cx="17602200" cy="4124325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6332,15 +6332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6349,7 +6349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="1790701"/>
+          <a:off x="4057650" y="1800226"/>
           <a:ext cx="657225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6401,15 +6401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>204788</xdr:colOff>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6420,9 +6420,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4405312" y="1466850"/>
-          <a:ext cx="66676" cy="323851"/>
+        <a:xfrm flipH="1">
+          <a:off x="4386263" y="1466850"/>
+          <a:ext cx="19049" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6451,13 +6451,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>204788</xdr:colOff>
+      <xdr:colOff>109538</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -6470,9 +6470,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4471988" y="2152651"/>
-          <a:ext cx="9525" cy="485773"/>
+        <a:xfrm flipH="1">
+          <a:off x="4376738" y="2162176"/>
+          <a:ext cx="9525" cy="476248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6733,13 +6733,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -6750,7 +6750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="2638424"/>
+          <a:off x="3943350" y="2638424"/>
           <a:ext cx="866775" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6795,15 +6795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6812,7 +6812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3581400" y="3590925"/>
+          <a:off x="3505200" y="3581400"/>
           <a:ext cx="1704976" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6857,15 +6857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:colOff>109538</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6877,8 +6877,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4433888" y="3276599"/>
-          <a:ext cx="47625" cy="314326"/>
+          <a:off x="4357688" y="3276599"/>
+          <a:ext cx="19050" cy="304801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7019,15 +7019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
+      <xdr:colOff>533398</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7036,7 +7036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448298" y="1628775"/>
+          <a:off x="5410198" y="1590675"/>
           <a:ext cx="1514477" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -7081,15 +7081,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7098,7 +7098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="1952626"/>
+          <a:off x="7353300" y="1828801"/>
           <a:ext cx="657225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7150,15 +7150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7169,9 +7169,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2052638"/>
-          <a:ext cx="371475" cy="80963"/>
+        <a:xfrm flipV="1">
+          <a:off x="6924675" y="2009776"/>
+          <a:ext cx="428625" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7200,15 +7200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7220,8 +7220,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7991475" y="1343025"/>
-          <a:ext cx="1371600" cy="790576"/>
+          <a:off x="8010525" y="1343025"/>
+          <a:ext cx="1352550" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7250,15 +7250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
+      <xdr:colOff>533398</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7270,8 +7270,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="1971676"/>
-          <a:ext cx="647698" cy="80962"/>
+          <a:off x="4714875" y="1981201"/>
+          <a:ext cx="695323" cy="33337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7302,13 +7302,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7317,8 +7317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4210050"/>
-          <a:ext cx="17602200" cy="5543549"/>
+          <a:off x="0" y="4238624"/>
+          <a:ext cx="17602200" cy="6924675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7379,78 +7379,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="290" name="Rounded Rectangle 289"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="4991100"/>
-          <a:ext cx="1704976" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Đề</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> nghị sản xuất</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7459,7 +7397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="4772026"/>
+          <a:off x="2743200" y="4791076"/>
           <a:ext cx="2019300" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -7503,29 +7441,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>52389</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="292" name="Straight Arrow Connector 291"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="290" idx="3"/>
-          <a:endCxn id="291" idx="1"/>
+          <a:stCxn id="290" idx="2"/>
+          <a:endCxn id="170" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1838326" y="5195888"/>
-          <a:ext cx="514349" cy="1"/>
+        <a:xfrm flipH="1">
+          <a:off x="928688" y="5610225"/>
+          <a:ext cx="28575" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7553,16 +7491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7574,8 +7512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6686551" y="4972051"/>
-          <a:ext cx="742949" cy="304800"/>
+          <a:off x="6915151" y="4724401"/>
+          <a:ext cx="514349" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7603,16 +7541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7621,7 +7559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4791075" y="5019676"/>
+          <a:off x="4981575" y="5029201"/>
           <a:ext cx="657225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7673,15 +7611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>52389</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7692,9 +7630,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371975" y="5195889"/>
-          <a:ext cx="419100" cy="4762"/>
+        <a:xfrm flipV="1">
+          <a:off x="4762500" y="5210176"/>
+          <a:ext cx="219075" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7724,14 +7662,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7740,7 +7678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="4791076"/>
+          <a:off x="7429500" y="4543426"/>
           <a:ext cx="2171700" cy="361949"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7785,15 +7723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7802,8 +7740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448550" y="5372101"/>
-          <a:ext cx="1447800" cy="390524"/>
+          <a:off x="7448549" y="5124451"/>
+          <a:ext cx="1704975" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7836,9 +7774,21 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> sản xuất</a:t>
+            <a:t> sản xuất </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7846,16 +7796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7867,8 +7817,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686551" y="5276851"/>
-          <a:ext cx="761999" cy="290512"/>
+          <a:off x="6915151" y="5210176"/>
+          <a:ext cx="533398" cy="109537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7898,14 +7848,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7914,7 +7864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="6038851"/>
+          <a:off x="7477125" y="5791201"/>
           <a:ext cx="1447800" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7958,16 +7908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7979,8 +7929,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686551" y="5276851"/>
-          <a:ext cx="790574" cy="957262"/>
+          <a:off x="6915151" y="5210176"/>
+          <a:ext cx="561974" cy="776287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8010,14 +7960,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8026,7 +7976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553700" y="6086476"/>
+          <a:off x="10553700" y="5838826"/>
           <a:ext cx="2114550" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8072,14 +8022,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8091,7 +8041,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="6234113"/>
+          <a:off x="8924925" y="5986463"/>
           <a:ext cx="1628775" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8122,14 +8072,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8138,7 +8088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="6657976"/>
+          <a:off x="10591800" y="6410326"/>
           <a:ext cx="2419350" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8184,14 +8134,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8203,7 +8153,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="6234113"/>
+          <a:off x="8924925" y="5986463"/>
           <a:ext cx="1666875" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8234,14 +8184,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8250,7 +8200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10572750" y="7181851"/>
+          <a:off x="10572750" y="6934201"/>
           <a:ext cx="2419350" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8296,14 +8246,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8312,7 +8262,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="7667626"/>
+          <a:off x="10591800" y="7419976"/>
           <a:ext cx="2419350" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8358,14 +8308,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8377,7 +8327,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="6234113"/>
+          <a:off x="8924925" y="5986463"/>
           <a:ext cx="1647825" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8408,14 +8358,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8427,7 +8377,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="6234113"/>
+          <a:off x="8924925" y="5986463"/>
           <a:ext cx="1666875" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8457,15 +8407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8474,7 +8424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677524" y="5257801"/>
+          <a:off x="10658474" y="5124451"/>
           <a:ext cx="2457451" cy="390524"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8518,16 +8468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8538,9 +8488,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8896350" y="5453063"/>
-          <a:ext cx="1781174" cy="114300"/>
+        <a:xfrm>
+          <a:off x="9153524" y="5319713"/>
+          <a:ext cx="1504950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8569,15 +8519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8586,7 +8536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="4733926"/>
+          <a:off x="5819775" y="4667251"/>
           <a:ext cx="1095376" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8630,16 +8580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8651,8 +8601,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="5200651"/>
-          <a:ext cx="142875" cy="76200"/>
+          <a:off x="5638800" y="5210176"/>
+          <a:ext cx="180975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8681,15 +8631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8698,7 +8648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="6200776"/>
+          <a:off x="3419475" y="6219826"/>
           <a:ext cx="657225" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8749,16 +8699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8769,9 +8719,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="5619751"/>
-          <a:ext cx="109538" cy="581025"/>
+        <a:xfrm flipH="1">
+          <a:off x="3748088" y="5638801"/>
+          <a:ext cx="4762" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8799,16 +8749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8819,9 +8769,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3467100" y="6562726"/>
-          <a:ext cx="4763" cy="542923"/>
+        <a:xfrm>
+          <a:off x="3748088" y="6581776"/>
+          <a:ext cx="4762" cy="542923"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8849,16 +8799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8867,7 +8817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="7105649"/>
+          <a:off x="3133725" y="7124699"/>
           <a:ext cx="1238250" cy="1104901"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8913,14 +8863,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8932,7 +8882,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12668250" y="6281738"/>
+          <a:off x="12668250" y="6034088"/>
           <a:ext cx="1562100" cy="871537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8963,14 +8913,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8982,7 +8932,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13011150" y="6853238"/>
+          <a:off x="13011150" y="6605588"/>
           <a:ext cx="1219200" cy="300037"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9013,14 +8963,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9032,7 +8982,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12992100" y="7153275"/>
+          <a:off x="12992100" y="6905625"/>
           <a:ext cx="1238250" cy="223838"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9063,14 +9013,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9082,7 +9032,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13011150" y="7153275"/>
+          <a:off x="13011150" y="6905625"/>
           <a:ext cx="1219200" cy="709613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9113,14 +9063,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9129,7 +9079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16116300" y="6638926"/>
+          <a:off x="16116300" y="6391276"/>
           <a:ext cx="1095376" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9183,14 +9133,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9199,7 +9149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14230350" y="6972300"/>
+          <a:off x="14230350" y="6724650"/>
           <a:ext cx="1371600" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9245,14 +9195,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9264,13 +9214,1748 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15601950" y="7153275"/>
+          <a:off x="15601950" y="6905625"/>
           <a:ext cx="514350" cy="28576"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Straight Arrow Connector 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="125" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1957387" y="8229600"/>
+          <a:ext cx="1795463" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rounded Rectangle 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="8782050"/>
+          <a:ext cx="1895476" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> định lượng NVL còn thiếu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rounded Rectangle 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="9972675"/>
+          <a:ext cx="2114550" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị mua NVL </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="2"/>
+          <a:endCxn id="132" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957387" y="9391650"/>
+          <a:ext cx="4763" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rounded Rectangle 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505199" y="8743950"/>
+          <a:ext cx="1895476" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> định lượng chi tiết còn thiếu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Arrow Connector 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="138" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="8229600"/>
+          <a:ext cx="700087" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="Straight Arrow Connector 143"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="3"/>
+          <a:endCxn id="203" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="9043988"/>
+          <a:ext cx="314325" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rounded Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392024" y="8820151"/>
+          <a:ext cx="1704975" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> sản xuất </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Diamond 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="8620125"/>
+          <a:ext cx="2019300" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>ĐỦ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0"/>
+            <a:t>NVL 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="Straight Arrow Connector 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="222" idx="3"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10610850" y="9039226"/>
+          <a:ext cx="381000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Rounded Rectangle 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14487524" y="8829676"/>
+          <a:ext cx="2457451" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Xưởng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> 01, 02, 03, 04, 05, 06</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Arrow Connector 161"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="151" idx="3"/>
+          <a:endCxn id="161" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14096999" y="9015413"/>
+          <a:ext cx="390525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="8496301"/>
+          <a:ext cx="1095376" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho NVL chính, NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="Straight Arrow Connector 184"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="3"/>
+          <a:endCxn id="291" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1781176" y="5214939"/>
+          <a:ext cx="962024" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="Rounded Rectangle 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="8629650"/>
+          <a:ext cx="1704976" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> các NVL cần xuất kho (ĐỊNH MỨC)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Straight Arrow Connector 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="3"/>
+          <a:endCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419976" y="9043988"/>
+          <a:ext cx="333374" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="Rounded Rectangle 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="8877301"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="Straight Connector 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="3"/>
+          <a:endCxn id="222" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="9043988"/>
+          <a:ext cx="180975" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="Rounded Rectangle 229"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="10086976"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="Straight Connector 230"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="230" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="9467850"/>
+          <a:ext cx="14288" cy="619126"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Straight Arrow Connector 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="230" idx="3"/>
+          <a:endCxn id="251" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9105900" y="10258426"/>
+          <a:ext cx="733425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="Straight Arrow Connector 245"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="164" idx="3"/>
+          <a:endCxn id="151" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12087226" y="9015413"/>
+          <a:ext cx="304798" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="Rounded Rectangle 250"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="9715501"/>
+          <a:ext cx="1095376" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> chỗ kho NVL chính, NVL phụ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="Rounded Rectangle 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="10067925"/>
+          <a:ext cx="2114550" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị mua NVL </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="Straight Arrow Connector 257"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="251" idx="3"/>
+          <a:endCxn id="254" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="10258426"/>
+          <a:ext cx="742949" cy="4761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="Straight Arrow Connector 260"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="1"/>
+          <a:endCxn id="291" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="904874" y="5214939"/>
+          <a:ext cx="1838325" cy="4952998"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24352"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rounded Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="6153150"/>
+          <a:ext cx="1704976" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> các Chi tiết &amp; NVL cần xuất kho (ĐỊNH MỨC)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="Rounded Rectangle 289"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="4781550"/>
+          <a:ext cx="1704976" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> nghị sản xuất (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> các TP cần sản xuất thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="Straight Arrow Connector 260"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="254" idx="2"/>
+          <a:endCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9536907" y="7260432"/>
+          <a:ext cx="1414461" cy="4981575"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37711"/>
+            <a:gd name="adj2" fmla="val 104589"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -9984,8 +11669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Z54" sqref="Z54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10102,20 +11787,20 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>855</v>
+        <v>220</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
@@ -10126,20 +11811,20 @@
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>855</v>
+        <v>220</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9478672985781991</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
@@ -10149,19 +11834,19 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -10169,20 +11854,20 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>4.9693708609271523</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -10192,50 +11877,50 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>-159</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-690.07447248655353</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>127</v>
+        <v>-159</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>4.9722846441947564</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-752.03787878787887</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-72</v>
+        <v>-99</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10247,15 +11932,15 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-380.09376382131802</v>
+        <v>-429.66901117087298</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-99</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10268,17 +11953,17 @@
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>4.9722846441947564</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-358.00449438202247</v>
+        <v>-468.25000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-67</v>
+        <v>-196</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10290,15 +11975,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-353.69836355594873</v>
+        <v>-850.65784029788995</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-196</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10311,201 +11996,201 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.9722846441947564</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-333.14307116104868</v>
+        <v>-927.04040404040416</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>-87</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-377.58791890773688</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>-87</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.9729927007299271</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-411.49242424242425</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>-155</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-672.71410839884152</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>-155</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.0992317541613312</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-733.11868686868695</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-126</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-546.85146876292924</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>-126</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.0988520408163263</v>
+        <v>4.7297979797979801</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-595.9545454545455</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-71</v>
+        <v>166</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-374.81468376824415</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>166</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.0988520408163263</v>
+        <v>4.7629246676514034</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-362.01849489795916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -10513,20 +12198,20 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.09480122324159</v>
+        <v>4.6382978723404253</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -10536,7 +12221,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-30</v>
+        <v>-128</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10548,15 +12233,15 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-158.37240159221585</v>
+        <v>-555.53165080678525</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-30</v>
+        <v>-128</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10569,29 +12254,29 @@
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.09480122324159</v>
+        <v>4.6382978723404253</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-152.8440366972477</v>
+        <v>-593.70212765957444</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1152</v>
+        <v>655</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -10599,20 +12284,20 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1152</v>
+        <v>655</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.1899288451012593</v>
+        <v>4.6681360201511337</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -10622,179 +12307,179 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-192</v>
+        <v>87</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-1013.5833701901813</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-192</v>
+        <v>87</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.1899288451012593</v>
+        <v>4.6334328358208952</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-996.46633825944173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-144</v>
+        <v>162</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-760.18752764263604</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-144</v>
+        <v>162</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.1899288451012593</v>
+        <v>4.5775721284703321</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-747.3497536945813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-197</v>
+        <v>21</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-1039.9787704555506</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-197</v>
+        <v>21</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.1899288451012593</v>
+        <v>4.5597416576964482</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-1022.4159824849481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-52.081092263136114</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.173275393807713</v>
+        <v>4.5597416576964482</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-54.716899892357375</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-69</v>
+        <v>-136</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10806,15 +12491,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-364.25652366209641</v>
+        <v>-590.25237898220928</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-69</v>
+        <v>-136</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10827,60 +12512,60 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.173275393807713</v>
+        <v>4.5597416576964482</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-356.95600217273221</v>
+        <v>-620.12486544671697</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-121</v>
+        <v>61</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-638.76868642193722</v>
+        <v>0</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-121</v>
+        <v>61</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.173275393807713</v>
+        <v>4.5737363210005215</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-625.96632265073322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-136</v>
+        <v>-141</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10892,15 +12577,15 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-717.95488721804509</v>
+        <v>-611.95283409184935</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-136</v>
+        <v>-141</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10913,29 +12598,29 @@
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.173275393807713</v>
+        <v>4.5737363210005215</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-703.56545355784897</v>
+        <v>-644.89682126107357</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>553</v>
+        <v>393</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -10943,20 +12628,20 @@
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>393</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.2484374999999996</v>
+        <v>4.4731707317073175</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -10966,7 +12651,7 @@
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-115</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -10978,15 +12663,15 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.2790800530738613</v>
+        <v>-499.11046752172115</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>-115</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -10999,29 +12684,29 @@
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.2484374999999996</v>
+        <v>4.4731707317073175</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.2484374999999996</v>
+        <v>-514.41463414634154</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>835</v>
+        <v>9</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -11029,20 +12714,20 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>835</v>
+        <v>9</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.2285577383804505</v>
+        <v>4.471018022406235</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -11052,62 +12737,62 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-176</v>
+        <v>13</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-929.11808934099963</v>
+        <v>0</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-176</v>
+        <v>13</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.2285577383804505</v>
+        <v>4.4869312681510163</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-920.22616195495925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>984</v>
+        <v>668</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -11115,20 +12800,20 @@
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>984</v>
+        <v>668</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.2847623278542866</v>
+        <v>4.4505150022391398</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -11138,19 +12823,19 @@
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>552</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -11158,20 +12843,20 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>552</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -11184,20 +12869,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-15</v>
+        <v>63</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.0769230769230766</v>
+        <v>4</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>6936</v>
+        <v>5490</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-6736.1061477222465</v>
+        <v>-5876.4832436905253</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -11205,20 +12890,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-15</v>
+        <v>63</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.0769230769230766</v>
+        <v>4</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>6936</v>
+        <v>5490</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-6584.2045494135236</v>
+        <v>-6315.749287800003</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -27601,15 +29286,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>985</v>
+        <v>1063</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>5199.8938522777535</v>
+        <v>4613.5167563094747</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -27619,15 +29304,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>985</v>
+        <v>1063</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.2790800530738613</v>
+        <v>4.3400910219280098</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>5199.8938522777535</v>
+        <v>4613.5167563094747</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -27638,7 +29323,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-151.9015983087229</v>
+        <v>439.26604410947766</v>
       </c>
     </row>
   </sheetData>
@@ -28964,28 +30649,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -29002,6 +30665,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$1:$AN$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -830,79 +830,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,76 +942,76 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.085923217550274</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0070360598065085</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0070360598065085</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2129337539432177</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1927194860813701</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1927194860813701</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.0118577075098818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0808871493802998</c:v>
+                  <c:v>4.6896265560165977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1740914419695194</c:v>
+                  <c:v>4.6896265560165977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2513283740701384</c:v>
+                  <c:v>4.7759689922480622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2513283740701384</c:v>
+                  <c:v>4.7817220543806647</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2513283740701384</c:v>
+                  <c:v>4.7817220543806647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.290890790135883</c:v>
+                  <c:v>4.7817220543806647</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1390977443609023</c:v>
+                  <c:v>4.7817220543806647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1792114695340503</c:v>
+                  <c:v>4.7817220543806647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1792114695340503</c:v>
+                  <c:v>4.7922358015815956</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1792114695340503</c:v>
+                  <c:v>4.8120936280884266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1985815602836878</c:v>
+                  <c:v>4.8839340256566892</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1985815602836878</c:v>
+                  <c:v>4.8097369893676554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1985815602836878</c:v>
+                  <c:v>4.8332419089413055</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1985815602836878</c:v>
+                  <c:v>4.8332419089413055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1985815602836878</c:v>
+                  <c:v>4.8015831134564646</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0453608247422679</c:v>
+                  <c:v>4.8483772819472613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4919,9 @@
             <a:alpha val="70000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="28575"/>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5155,7 +5157,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>379186</xdr:colOff>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
@@ -5172,8 +5174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2216150" y="835760"/>
-          <a:ext cx="1852388" cy="1143000"/>
+          <a:off x="2136321" y="835760"/>
+          <a:ext cx="1932217" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5202,11 +5204,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2400"/>
-            <a:t>Xác</a:t>
+            <a:t>Kiểm</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2400" baseline="0"/>
-            <a:t> nhận đơn hàng</a:t>
+            <a:t> tra hàng tồn kho</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2400"/>
         </a:p>
@@ -5323,16 +5325,26 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400"/>
-            <a:t>Giữ</a:t>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác định ngày hoàn thành</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" baseline="0"/>
-            <a:t> chỗ kho TP</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400"/>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5397,7 +5409,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>379186</xdr:colOff>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
@@ -5412,7 +5424,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1840282" y="1407260"/>
-          <a:ext cx="375868" cy="1"/>
+          <a:ext cx="296039" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5440,8 +5452,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>90345</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
@@ -5461,8 +5473,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12336774" y="1407260"/>
-          <a:ext cx="335044" cy="0"/>
+          <a:off x="12055928" y="1407260"/>
+          <a:ext cx="615890" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5974,8 +5986,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6001,12 +6013,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2000">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>YES</a:t>
           </a:r>
@@ -6093,8 +6108,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6120,20 +6135,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2000">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>YES</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6217,8 +6230,7 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+            <a:lumMod val="75000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6244,12 +6256,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>NO</a:t>
           </a:r>
@@ -6388,8 +6403,7 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+            <a:lumMod val="75000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6415,12 +6429,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>NO</a:t>
           </a:r>
@@ -6812,14 +6829,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400"/>
-            <a:t>Giữ</a:t>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Xác</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> nhận &amp; g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
             <a:t> chỗ kho TP</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400"/>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6827,14 +6852,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>341402</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14834</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1123830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>296952</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>15756</xdr:rowOff>
     </xdr:to>
@@ -6847,7 +6872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9526223" y="3981330"/>
+          <a:off x="7362691" y="3981330"/>
           <a:ext cx="1792515" cy="1763033"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6901,8 +6926,8 @@
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>341402</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14834</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
     </xdr:to>
@@ -6917,7 +6942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6637870" y="4862846"/>
-          <a:ext cx="2888353" cy="1"/>
+          <a:ext cx="724821" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6945,14 +6970,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>442131</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>90345</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
@@ -6963,8 +6988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10239274" y="835760"/>
-          <a:ext cx="2097500" cy="1143000"/>
+          <a:off x="10599964" y="835760"/>
+          <a:ext cx="1455964" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6992,14 +7017,56 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400"/>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Xác</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" baseline="0"/>
-            <a:t> định ngày hoàn thành</a:t>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhận &amp; g</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ kho TP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7013,8 +7080,8 @@
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>442131</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
@@ -7029,7 +7096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9904230" y="1407260"/>
-          <a:ext cx="335044" cy="0"/>
+          <a:ext cx="695734" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7057,16 +7124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>395722</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65878</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408216</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>299354</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1229449</xdr:rowOff>
+      <xdr:rowOff>998128</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7075,8 +7142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7131258" y="2161378"/>
-          <a:ext cx="2965239" cy="1925571"/>
+          <a:off x="9593037" y="2517321"/>
+          <a:ext cx="2326818" cy="1338307"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -7104,14 +7171,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400"/>
+            <a:rPr lang="en-US" sz="1800"/>
             <a:t>Giao một</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
             <a:t> phần</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400"/>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7119,16 +7186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254209</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131744</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114704</xdr:rowOff>
+      <xdr:rowOff>5847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>301836</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95654</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179371</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7137,7 +7204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11275995" y="2400704"/>
+          <a:off x="12378173" y="2291847"/>
           <a:ext cx="659948" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7145,8 +7212,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -7188,16 +7255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>299354</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105179</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254209</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131744</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>266664</xdr:rowOff>
+      <xdr:rowOff>328975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7209,8 +7276,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10096497" y="2581679"/>
-          <a:ext cx="1179498" cy="542485"/>
+          <a:off x="11919855" y="2472822"/>
+          <a:ext cx="458318" cy="713653"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7238,16 +7305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>301836</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179371</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248097</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105179</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7259,8 +7326,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11935943" y="1978760"/>
-          <a:ext cx="1783225" cy="602919"/>
+          <a:off x="13038121" y="1978760"/>
+          <a:ext cx="681047" cy="494062"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7288,66 +7355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514656</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23177</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>266664</xdr:rowOff>
+      <xdr:rowOff>423665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>395722</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685453</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="262" name="Straight Arrow Connector 261"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="182" idx="3"/>
-          <a:endCxn id="255" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6637870" y="3124164"/>
-          <a:ext cx="493388" cy="1738682"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>186462</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>70802</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>450879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>234087</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>812829</xdr:rowOff>
+      <xdr:rowOff>785615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7356,7 +7373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11208248" y="3308379"/>
+          <a:off x="12269606" y="3281165"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7364,8 +7381,7 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+            <a:lumMod val="75000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -7407,16 +7423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>299354</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>266664</xdr:rowOff>
+      <xdr:rowOff>328975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>186462</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23177</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>631854</xdr:rowOff>
+      <xdr:rowOff>604640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7428,8 +7444,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096497" y="3124164"/>
-          <a:ext cx="1111751" cy="365190"/>
+          <a:off x="11919855" y="3186475"/>
+          <a:ext cx="349751" cy="275665"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7458,10 +7474,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>234087</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>70802</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>631854</xdr:rowOff>
+      <xdr:rowOff>604640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -7479,8 +7495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11868194" y="3489354"/>
-          <a:ext cx="1690411" cy="801992"/>
+          <a:off x="12929552" y="3462140"/>
+          <a:ext cx="629053" cy="829206"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7509,8 +7525,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>296952</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
@@ -7530,8 +7546,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11318738" y="4862846"/>
-          <a:ext cx="1192517" cy="1"/>
+          <a:off x="9155206" y="4862846"/>
+          <a:ext cx="3356049" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7667,6 +7683,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>328975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408216</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>685454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="3"/>
+          <a:endCxn id="255" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9155206" y="3186475"/>
+          <a:ext cx="437831" cy="1676372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14401,10 +14467,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A16:A22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,9 +14491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="BF68" sqref="BF68"/>
     </sheetView>
   </sheetViews>
@@ -14548,7 +14616,7 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-54</v>
+        <v>-184</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
@@ -14561,18 +14629,18 @@
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-272.44948453608248</v>
+        <v>-892.10141987829604</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-54</v>
+        <v>-184</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
@@ -14589,99 +14657,99 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-270</v>
+        <v>-920</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>-200</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-969.67545638945228</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>-200</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.085923217550274</v>
+        <v>5</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>-78</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-378.1734279918864</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>-78</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.0070360598065085</v>
+        <v>5</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-151</v>
+        <v>-127</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14693,15 +14761,15 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-761.8494845360824</v>
+        <v>-615.74391480730219</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-151</v>
+        <v>-127</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14714,103 +14782,103 @@
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.0070360598065085</v>
+        <v>5</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-756.06244503078278</v>
+        <v>-635</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>-148</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-717.55983772819468</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>-148</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.2129337539432177</v>
+        <v>5</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-740</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>-4</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-19.393509127789045</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>133</v>
+        <v>-4</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.1927194860813701</v>
+        <v>5</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-194</v>
+        <v>-45</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14822,15 +14890,15 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-978.8</v>
+        <v>-218.17697768762676</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-194</v>
+        <v>-45</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14843,29 +14911,29 @@
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.1927194860813701</v>
+        <v>5</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-1007.3875802997858</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14873,20 +14941,20 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.0118577075098818</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14896,19 +14964,19 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>295</v>
+        <v>579</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14916,20 +14984,20 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>295</v>
+        <v>579</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.0808871493802998</v>
+        <v>4.6896265560165977</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14939,50 +15007,50 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>-72</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-349.08316430020284</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>-72</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.1740914419695194</v>
+        <v>4.6896265560165977</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-337.65311203319504</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14990,11 +15058,11 @@
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1056</v>
+        <v>510</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15002,7 +15070,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15010,12 +15078,12 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1056</v>
+        <v>510</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.2513283740701384</v>
+        <v>4.7759689922480622</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15025,50 +15093,50 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>34</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-105.95257731958762</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-21</v>
+        <v>34</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.2513283740701384</v>
+        <v>4.7817220543806647</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-110.27789585547291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-94</v>
+        <v>-24</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15080,15 +15148,15 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-474.26391752577319</v>
+        <v>-116.36105476673427</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-94</v>
+        <v>-24</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15101,244 +15169,244 @@
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.2513283740701384</v>
+        <v>4.7817220543806647</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-493.62486716259303</v>
+        <v>-114.76132930513594</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>-43</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-208.48022312373223</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>-43</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.290890790135883</v>
+        <v>4.7817220543806647</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-205.61404833836858</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>-69</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-334.53803245436103</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>-69</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.1390977443609023</v>
+        <v>4.7817220543806647</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-329.93882175226588</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>-32</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-155.14807302231236</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>-32</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.1792114695340503</v>
+        <v>4.7817220543806647</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-153.01510574018127</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-144</v>
+        <v>67</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-726.53195876288657</v>
+        <v>0</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-144</v>
+        <v>67</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.1792114695340503</v>
+        <v>4.7922358015815956</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-745.80645161290329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-746.71340206185562</v>
+        <v>0</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.1792114695340503</v>
+        <v>4.8120936280884266</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-766.52329749103944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <v>594</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15346,20 +15414,20 @@
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>168</v>
+        <v>594</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.1985815602836878</v>
+        <v>4.8839340256566892</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15369,93 +15437,93 @@
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-190</v>
+        <v>150</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-958.61855670103091</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-190</v>
+        <v>150</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.1985815602836878</v>
+        <v>4.8097369893676554</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-987.73049645390063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-60.544329896907215</v>
+        <v>0</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.1985815602836878</v>
+        <v>4.8332419089413055</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-62.38297872340425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-162</v>
+        <v>-60</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15467,15 +15535,15 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-817.34845360824738</v>
+        <v>-290.90263691683566</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-162</v>
+        <v>-60</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15488,72 +15556,72 @@
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.1985815602836878</v>
+        <v>4.8332419089413055</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-842.17021276595744</v>
+        <v>-289.99451453647833</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-165</v>
+        <v>72</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-832.48453608247416</v>
+        <v>0</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-165</v>
+        <v>72</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.1985815602836878</v>
+        <v>4.8015831134564646</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-857.76595744680844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15561,20 +15629,20 @@
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15584,7 +15652,7 @@
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-185</v>
+        <v>-91</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15596,15 +15664,15 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-933.39175257731961</v>
+        <v>-441.20233265720077</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-185</v>
+        <v>-91</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15617,11 +15685,11 @@
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-933.39175257731961</v>
+        <v>-441.20233265720077</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -15630,20 +15698,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-95</v>
+        <v>-205</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.0769230769230766</v>
+        <v>5.0909090909090908</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>7235</v>
+        <v>4561</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-7668.9484536082464</v>
+        <v>-5706.5400608519258</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15651,20 +15719,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-95</v>
+        <v>-205</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.0769230769230766</v>
+        <v>5.0909090909090908</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>7235</v>
+        <v>4561</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-7833.1239354199679</v>
+        <v>-5802.1792643628251</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -32047,15 +32115,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>905</v>
+        <v>795</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>4566.0515463917527</v>
+        <v>3854.4599391480729</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -32065,15 +32133,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>905</v>
+        <v>795</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.0453608247422679</v>
+        <v>4.8483772819472613</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>4566.0515463917527</v>
+        <v>3854.4599391480729</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -32084,7 +32152,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>164.17548181172151</v>
+        <v>95.639203510899279</v>
       </c>
     </row>
   </sheetData>
@@ -33410,28 +33478,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -33448,6 +33494,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$1:$AN$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$2:$AN$23</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -830,79 +830,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,79 +939,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.1834695731153495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.1834695731153495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4.9884201819685687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4.9613837489943684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4.9613837489943684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>4.9613837489943684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.9619952494061756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0118577075098818</c:v>
+                  <c:v>4.9669193659545146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6896265560165977</c:v>
+                  <c:v>4.9669193659545146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6896265560165977</c:v>
+                  <c:v>4.9706601466992666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7759689922480622</c:v>
+                  <c:v>4.9706601466992666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7817220543806647</c:v>
+                  <c:v>5.0197904540162979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7817220543806647</c:v>
+                  <c:v>5.0197904540162979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7817220543806647</c:v>
+                  <c:v>5.0197904540162979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7817220543806647</c:v>
+                  <c:v>5.0802839978154015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7817220543806647</c:v>
+                  <c:v>5.0802839978154015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7922358015815956</c:v>
+                  <c:v>5.0566954643628508</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8120936280884266</c:v>
+                  <c:v>5.0566954643628508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8839340256566892</c:v>
+                  <c:v>5.0566954643628508</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8097369893676554</c:v>
+                  <c:v>5.0519031141868513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8332419089413055</c:v>
+                  <c:v>5.0498765432098764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8332419089413055</c:v>
+                  <c:v>5.0335439961108408</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8015831134564646</c:v>
+                  <c:v>5.0335439961108408</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0335439961108408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8483772819472613</c:v>
+                  <c:v>5.0405405405405403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,15 +4890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4907,15 +4907,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="24016606" cy="5852432"/>
+          <a:off x="176892" y="54429"/>
+          <a:ext cx="3823607" cy="408214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+            <a:lumMod val="85000"/>
             <a:alpha val="70000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4940,10 +4940,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800">
               <a:solidFill>
@@ -4974,13 +4974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>171423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>166598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5046,13 +5046,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5108,13 +5108,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5158,13 +5158,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5220,13 +5220,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5282,13 +5282,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5337,14 +5337,6 @@
             </a:rPr>
             <a:t>Xác định ngày hoàn thành</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5354,13 +5346,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5404,13 +5396,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5454,13 +5446,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5504,13 +5496,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5566,13 +5558,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5616,13 +5608,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5678,13 +5670,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5726,16 +5718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>534672</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1097846</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>194491</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>512738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>534582</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41739</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>194401</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5746,7 +5738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20128958" y="3955346"/>
+          <a:off x="20401098" y="4690131"/>
           <a:ext cx="1836874" cy="1815000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5795,15 +5787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>228466</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>864454</xdr:rowOff>
+      <xdr:colOff>500606</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>142153</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1097846</xdr:rowOff>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>512738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5815,8 +5807,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21047395" y="3721954"/>
-          <a:ext cx="1138329" cy="233392"/>
+          <a:off x="21319535" y="3926059"/>
+          <a:ext cx="880518" cy="764072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5845,15 +5837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>46428</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1069000</xdr:rowOff>
+      <xdr:colOff>318568</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>483892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>101365</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70585</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>101362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5864,7 +5856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22089999" y="3926500"/>
+          <a:off x="22362139" y="4661285"/>
           <a:ext cx="1891902" cy="1872692"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5911,15 +5903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>142153</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>864454</xdr:rowOff>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>380057</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1069000</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>39876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>483892</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5931,8 +5923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22185724" y="3721954"/>
-          <a:ext cx="850226" cy="204546"/>
+          <a:off x="22200053" y="3926059"/>
+          <a:ext cx="1108037" cy="735226"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5962,13 +5954,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6034,13 +6026,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6084,13 +6076,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6156,13 +6148,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6204,16 +6196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>102099</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>537527</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12727</xdr:rowOff>
+      <xdr:rowOff>121584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>149723</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>184177</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>585152</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6222,7 +6214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14797813" y="203227"/>
+          <a:off x="14620920" y="121584"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6275,16 +6267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>149723</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>585152</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3202</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6296,8 +6288,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15457759" y="163287"/>
-          <a:ext cx="878812" cy="220915"/>
+          <a:off x="15280866" y="163287"/>
+          <a:ext cx="1055705" cy="139272"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6329,12 +6321,12 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>248097</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3202</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>102099</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>537527</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6347,8 +6339,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13719168" y="384202"/>
-          <a:ext cx="1078645" cy="451558"/>
+          <a:off x="13719168" y="302559"/>
+          <a:ext cx="901752" cy="533201"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6379,13 +6371,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>102130</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>74225</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6450,13 +6442,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380170</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6501,13 +6493,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394337</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6552,13 +6544,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>380997</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6614,13 +6606,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6662,16 +6654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>91726</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91248</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>192579</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>864454</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6680,8 +6672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21522976" y="2377248"/>
-          <a:ext cx="1325496" cy="1344706"/>
+          <a:off x="20723678" y="2581353"/>
+          <a:ext cx="2952749" cy="1344706"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6722,7 +6714,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2400" baseline="0"/>
-            <a:t> chỗ kho TP</a:t>
+            <a:t> chỗ kho TP theo số lượng đã giao</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2400"/>
         </a:p>
@@ -6733,15 +6725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>142153</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>146155</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>146155</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91248</xdr:rowOff>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6752,9 +6744,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="22185724" y="1978760"/>
-          <a:ext cx="4002" cy="398488"/>
+        <a:xfrm>
+          <a:off x="22189726" y="1978760"/>
+          <a:ext cx="10327" cy="602593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6784,13 +6776,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>274019</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6854,13 +6846,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1123830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15756</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6922,13 +6914,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6972,13 +6964,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7076,13 +7068,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7125,15 +7117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408216</xdr:colOff>
+      <xdr:colOff>108859</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>998128</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1061357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7142,8 +7134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9593037" y="2517321"/>
-          <a:ext cx="2326818" cy="1338307"/>
+          <a:off x="9293680" y="2326821"/>
+          <a:ext cx="2326818" cy="1592036"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -7188,13 +7180,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>131744</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>5847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>179371</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>177297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7255,16 +7247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>186822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>131744</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>328975</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>265339</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7276,8 +7268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11919855" y="2472822"/>
-          <a:ext cx="458318" cy="713653"/>
+          <a:off x="11620498" y="2472822"/>
+          <a:ext cx="757675" cy="650017"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7307,13 +7299,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>179371</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248097</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>186822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7357,14 +7349,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>423665</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>777451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>785615</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1139401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7373,7 +7365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12269606" y="3281165"/>
+          <a:off x="12269606" y="3634951"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7423,16 +7415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>328975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>604640</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>958426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7444,8 +7436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11919855" y="3186475"/>
-          <a:ext cx="349751" cy="275665"/>
+          <a:off x="11620498" y="3122839"/>
+          <a:ext cx="649108" cy="693087"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7476,13 +7468,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>604640</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>958426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>87534</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7495,8 +7487,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12929552" y="3462140"/>
-          <a:ext cx="629053" cy="829206"/>
+          <a:off x="12929552" y="3815926"/>
+          <a:ext cx="629053" cy="475420"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7527,13 +7519,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7577,13 +7569,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7627,13 +7619,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7689,13 +7681,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>328975</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408216</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>108859</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7708,8 +7700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9155206" y="3186475"/>
-          <a:ext cx="437831" cy="1676372"/>
+          <a:off x="9155206" y="3122839"/>
+          <a:ext cx="138474" cy="1740008"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7744,13 +7736,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366157</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>161058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>543049</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>35872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7805,15 +7797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190210</xdr:rowOff>
+      <xdr:colOff>531915</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71249</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81353</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7824,9 +7816,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2874817" y="1523710"/>
-          <a:ext cx="450274" cy="71539"/>
+        <a:xfrm flipV="1">
+          <a:off x="2981201" y="2166749"/>
+          <a:ext cx="374815" cy="10104"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7856,13 +7848,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>10390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>492827</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>135454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7906,13 +7898,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>110960</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>131865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>158586</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>112815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7975,13 +7967,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>543049</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>110960</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>122340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8025,13 +8017,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>492827</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>229589</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>124690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8087,13 +8079,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>135454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>586274</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>167915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8137,13 +8129,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>135454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>540381</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8187,13 +8179,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>430974</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>33521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>375309</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>71621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8249,13 +8241,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>514487</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>147821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>430974</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8299,13 +8291,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>168481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>16081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8361,13 +8353,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>514487</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>92281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8411,13 +8403,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8473,13 +8465,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>63582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>101682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8535,13 +8527,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>514487</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8585,13 +8577,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>514487</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>106868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>177882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8635,13 +8627,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>265894</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>127967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>52264</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>166067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8697,13 +8689,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>560380</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>51767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>265894</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>167915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8747,13 +8739,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>395226</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>21154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>59254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8809,13 +8801,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>158586</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>122340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>395226</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>135454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8859,13 +8851,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>101806</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>149431</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>37978</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8928,13 +8920,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>428687</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>35872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>454603</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57028</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8978,13 +8970,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>435181</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>37978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201944</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>29933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9028,13 +9020,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>322551</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>29933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81336</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>68033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9090,13 +9082,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>375309</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>147821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>176520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9140,13 +9132,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>92281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>176520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9190,13 +9182,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>176520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9240,13 +9232,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>566798</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>176520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>177882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9290,13 +9282,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>104032</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>91290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>95867</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9360,13 +9352,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>62220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>411430</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>100320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9422,13 +9414,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>411430</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>176520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>104032</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9472,13 +9464,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81336</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>144233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>300907</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>175404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9522,13 +9514,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>88757</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>109164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>551154</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>147264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9584,13 +9576,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>226312</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>165449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>505879</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>13049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9658,13 +9650,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>10393</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>147264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56533</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>165449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9708,13 +9700,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>222972</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>36428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>93086</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>74528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9770,13 +9762,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201944</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>68033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>158029</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>36428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9820,13 +9812,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>93086</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>150728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>364983</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>157654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9870,13 +9862,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>136380</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>66487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>534698</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>71929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9932,13 +9924,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>228167</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>84672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>86776</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>135636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9982,13 +9974,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>233239</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>42984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>252290</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>81084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10044,13 +10036,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>319224</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>78293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>233239</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>157284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10094,13 +10086,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>86776</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>21336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>59436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10156,13 +10148,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381495</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>71249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366157</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10206,13 +10198,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>364983</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>43354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>378837</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>81454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10284,13 +10276,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>378837</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>69208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>136380</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>157654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10334,13 +10326,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>180543</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>94197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>228167</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>75147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10403,13 +10395,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>534698</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>84672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>180543</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>69208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10453,13 +10445,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>56963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>37913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10522,13 +10514,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>335539</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>71929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>56963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10572,13 +10564,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>47438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>100506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10622,13 +10614,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>78293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>345118</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>135636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10672,13 +10664,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>176706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>396153</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>24306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10734,13 +10726,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>518309</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>29377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>542121</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>67477</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10808,13 +10800,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>396153</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>100506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>518309</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>143677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10858,13 +10850,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>147449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381495</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>185549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10936,13 +10928,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>136380</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>69208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>89684</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>67477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10990,13 +10982,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>150236</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>102238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>20350</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>140338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11052,13 +11044,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56533</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>13049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85293</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>102238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11101,15 +11093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108154</xdr:rowOff>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81766</xdr:rowOff>
+      <xdr:colOff>531915</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11120,8 +11112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="108154"/>
-          <a:ext cx="2874817" cy="2831112"/>
+          <a:off x="81643" y="761297"/>
+          <a:ext cx="2899558" cy="2831112"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11214,13 +11206,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>345118</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>149276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>319224</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>7309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11298,13 +11290,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>132920</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>71063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>188336</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>109163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11360,13 +11352,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160628</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>68033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201944</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>71063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11410,13 +11402,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>306101</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>156171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>232622</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>3771</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11472,13 +11464,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>578924</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>109163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160628</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>156171</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11522,13 +11514,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>431779</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>12060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>423615</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>50160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11592,13 +11584,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>427697</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>3771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>578924</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>12060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11642,13 +11634,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>586274</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>48398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>560380</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>96931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11726,13 +11718,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>300907</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>61104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>112510</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>99204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11788,13 +11780,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>440320</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>107432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>88757</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>145532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11850,13 +11842,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>59314</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>78424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>424236</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>116524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11912,13 +11904,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>112510</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>175404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>59314</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11962,13 +11954,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>92706</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>15926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>66812</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>64459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12046,13 +12038,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>424236</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>135443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>92706</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12096,13 +12088,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>530856</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>168326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>504962</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>26359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12180,13 +12172,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>540381</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>177851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>514487</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>35884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12264,13 +12256,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>178005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>25605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12326,13 +12318,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>504962</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>101805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>97343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12376,13 +12368,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12438,13 +12430,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>73106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>111206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12500,13 +12492,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>504962</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>97343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12550,13 +12542,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>504962</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>97343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>187406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12600,13 +12592,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>101805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>542059</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>186044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12650,13 +12642,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>186044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>542059</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12700,13 +12692,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>4823</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>186044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>542059</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>187406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12750,13 +12742,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>613620</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>100813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>605455</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>138913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12820,13 +12812,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>542059</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>71744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>468580</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>109844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12882,13 +12874,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>468580</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>186044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>613620</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12932,13 +12924,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>424236</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>530856</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>97343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12982,13 +12974,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>125183</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>151779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>189879</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13044,13 +13036,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>66812</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>75579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>125183</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>135443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13094,13 +13086,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>521834</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13156,13 +13148,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>245609</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13218,13 +13210,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>605455</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13268,13 +13260,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>95867</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13318,13 +13310,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>417801</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13380,13 +13372,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>521834</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13430,13 +13422,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>355333</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>113433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>532225</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>178747</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13492,13 +13484,13 @@
     <xdr:from>
       <xdr:col>65</xdr:col>
       <xdr:colOff>576386</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>4887</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>65190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13561,13 +13553,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>532225</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>50840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>576386</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>74715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13611,13 +13603,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>567232</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>9403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>614857</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>180853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13680,13 +13672,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>276720</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>178747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>443779</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>9403</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13730,13 +13722,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>245609</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>355333</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>50840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13774,6 +13766,89 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>316367</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="316367" y="190500"/>
+          <a:ext cx="3782786" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KẾ HOẠCH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14468,10 +14543,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A16:A22"/>
+  <dimension ref="A17:A23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14479,9 +14554,9 @@
     <col min="40" max="40" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
@@ -14494,8 +14569,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="BF68" sqref="BF68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14616,54 +14691,54 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-184</v>
+        <v>101</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-892.10141987829604</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-184</v>
+        <v>101</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.1834695731153495</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-200</v>
+        <v>-153</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14675,15 +14750,15 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-969.67545638945228</v>
+        <v>-771.20270270270271</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-200</v>
+        <v>-153</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14696,103 +14771,103 @@
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.1834695731153495</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-1000</v>
+        <v>-793.07084468664846</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-78</v>
+        <v>108</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-378.1734279918864</v>
+        <v>0</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-78</v>
+        <v>108</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9884201819685687</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-127</v>
+        <v>34</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-615.74391480730219</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-127</v>
+        <v>34</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9613837489943684</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-148</v>
+        <v>-115</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14804,15 +14879,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-717.55983772819468</v>
+        <v>-579.66216216216219</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-148</v>
+        <v>-115</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14825,17 +14900,17 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9613837489943684</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-740</v>
+        <v>-570.55913113435236</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-120</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14847,15 +14922,15 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-19.393509127789045</v>
+        <v>-604.86486486486478</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-120</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14868,72 +14943,72 @@
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9613837489943684</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-20</v>
+        <v>-595.36604987932424</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-45</v>
+        <v>20</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-218.17697768762676</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-45</v>
+        <v>20</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.9619952494061756</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>940</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14941,20 +15016,20 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>940</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.0118577075098818</v>
+        <v>4.9669193659545146</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14964,148 +15039,148 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>-110</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-554.45945945945948</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>-110</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.6896265560165977</v>
+        <v>4.9669193659545146</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-546.36113025499662</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-72</v>
+        <v>185</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-349.08316430020284</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>185</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.6896265560165977</v>
+        <v>4.9706601466992666</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-337.65311203319504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>-179</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-902.25675675675677</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>-179</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.7759689922480622</v>
+        <v>4.9706601466992666</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-889.74816625916867</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15113,20 +15188,20 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>4.7817220543806647</v>
+        <v>5.0197904540162979</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15136,7 +15211,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-24</v>
+        <v>-142</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15148,15 +15223,15 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-116.36105476673427</v>
+        <v>-715.75675675675677</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-24</v>
+        <v>-142</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15169,17 +15244,17 @@
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>4.7817220543806647</v>
+        <v>5.0197904540162979</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-114.76132930513594</v>
+        <v>-712.81024447031427</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-43</v>
+        <v>-111</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15191,15 +15266,15 @@
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-208.48022312373223</v>
+        <v>-559.5</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-43</v>
+        <v>-111</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15212,60 +15287,60 @@
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>4.7817220543806647</v>
+        <v>5.0197904540162979</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-205.61404833836858</v>
+        <v>-557.19674039580912</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-69</v>
+        <v>113</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-334.53803245436103</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-69</v>
+        <v>113</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>4.7817220543806647</v>
+        <v>5.0802839978154015</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-329.93882175226588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-32</v>
+        <v>-138</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15277,15 +15352,15 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-155.14807302231236</v>
+        <v>-695.59459459459458</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-138</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15298,29 +15373,29 @@
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>4.7817220543806647</v>
+        <v>5.0802839978154015</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-153.01510574018127</v>
+        <v>-701.07919169852539</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15328,20 +15403,20 @@
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>4.7922358015815956</v>
+        <v>5.0566954643628508</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15351,105 +15426,105 @@
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>-132</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-665.35135135135135</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>147</v>
+        <v>-132</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>4.8120936280884266</v>
+        <v>5.0566954643628508</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-667.48380129589634</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>-25</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-126.01351351351352</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>-25</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>4.8839340256566892</v>
+        <v>5.0566954643628508</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-126.41738660907127</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>855</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15457,20 +15532,20 @@
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>600</v>
+        <v>855</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>4.8097369893676554</v>
+        <v>5.0519031141868513</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15480,19 +15555,19 @@
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15500,20 +15575,20 @@
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>4.8332419089413055</v>
+        <v>5.0498765432098764</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15523,173 +15598,173 @@
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-60</v>
+        <v>32</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-290.90263691683566</v>
+        <v>0</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>32</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>4.8332419089413055</v>
+        <v>5.0335439961108408</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-289.99451453647833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>-17</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-85.689189189189193</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>-17</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>4.8015831134564646</v>
+        <v>5.0335439961108408</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-85.570247933884289</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>-132</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-665.35135135135135</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>-132</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>4.8483772819472613</v>
+        <v>5.0335439961108408</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-664.42780748663097</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-91</v>
+        <v>15</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-441.20233265720077</v>
+        <v>0</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-91</v>
+        <v>15</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-441.20233265720077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -15698,20 +15773,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-205</v>
+        <v>-302</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.0909090909090908</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>4561</v>
+        <v>5444</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-5706.5400608519258</v>
+        <v>-6925.7027027027025</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15719,20 +15794,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-205</v>
+        <v>-302</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.0909090909090908</v>
+        <v>4.7692307692307692</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>4561</v>
+        <v>5444</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-5802.1792643628251</v>
+        <v>-6910.0907421046213</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -32115,15 +32190,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>795</v>
+        <v>698</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>3854.4599391480729</v>
+        <v>3518.2972972972971</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -32133,15 +32208,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>795</v>
+        <v>698</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>4.8483772819472613</v>
+        <v>5.0405405405405403</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>3854.4599391480729</v>
+        <v>3518.2972972972971</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -32152,7 +32227,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>95.639203510899279</v>
+        <v>-15.611960598081168</v>
       </c>
     </row>
   </sheetData>
@@ -33478,6 +33553,28 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -33494,28 +33591,6 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$2:$AN$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$B$2:$AO$23</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="134">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -443,6 +444,137 @@
   <si>
     <t>Bộ phận kinh doanh</t>
   </si>
+  <si>
+    <t>Trạng thái đơn hàng</t>
+  </si>
+  <si>
+    <t>Chưa xử lý</t>
+  </si>
+  <si>
+    <t>Đã xác nhận</t>
+  </si>
+  <si>
+    <t>Đã thông báo giao hàng</t>
+  </si>
+  <si>
+    <t>Đã giao một phần</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Kinh doanh đã lập thông báo giao hàng, đợi thành viên xác nhận sẽ lập đề nghị xuất kho và đề nghị xuất hoá đơn
+ - Nếu giao hàng 100%, đánh dấu trạng thái: Đã hoàn thành
+ - Nếu giao hàng một phần, đánh dấu trạng thái: Đã giao hàng một phần
+ - Nếu huỷ ngang, đánh dấu trạng thái: STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nếu giao hàng 100%, đánh dấu trạng thái: Đã hoàn thành. 
+ - Đơn hàng sẽ được tự động bỏ giữ chỗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nếu huỷ ngang, đánh dấu trạng thái: STOP
+ - Đơn hàng sẽ được tự động bỏ giữ chỗ phần hàng còn chưa giao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nếu giao hàng một phần, đánh dấu trạng thái: Đã giao hàng một phần
+ - Đơn hàng sẽ được tự động bỏ giữ chỗ phần hàng đã giao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sau khi được tạo mới bởi thành viên, đơn hàng ở trạng thái LOCKED, nhắm tránh bị thay đổi thông tin, chờ bộ phận kinh doanh xử lý</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Đơn hàng đang ở trạng thái LOCKED, hiển thị trong danh sách theo dõi của bộ phận kinh doanh nhưng chưa được KD xác nhận
+ - Thành viên muốn thay đổi thông tin, cần báo cho bộ phận kinh doanh để mở khoá, lúc này đơn hàng tự động ra khỏi danh sách theo dõi của bộ phận Kinh Doanh
+ - Nếu đơn hàng đang ở trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xác nhận</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mà thành viên muốn chỉnh sửa, KD đánh dấu STOP (huỷ đơn hàng này), thành viên tạo đơn đặt hàng mới
+ - Nếu đơn hàng đang ở trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Đã thông báo giao hàng, Đã giao một phần, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì thành viên không được chỉnh sửa, KD chỉ thực hiện STOP đơn hàng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Bộ phận kinh doanh đã xác nhận: nhận đơn hàng
+ - Nếu hàng có sẵn 100%, KD thực hiện trình tự các bước: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giữ chỗ cho đơn hàng &gt;&gt; thông báo giao hàng &gt;&gt; tiến hành giao hàng, xuất hoá đơn &gt;&gt; bỏ giữ chỗ và đánh dấu đã hoàn thành hoặc STOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Nếu hàng tồn không có sẵn 100%, KD thực hiện trình tự các bước: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giữ chỗ cho đơn hàng &gt;&gt; Tiến hành đặt lệnh sản xuất và thông báo giao hàng một phần nếu thành viên yêu cầu &gt;&gt; đơn hàng đã được giữ chỗ và đang đợi sản xuất &gt;&gt; chủ động kiểm tra tồn kho hàng hoá hoặc đợi hệ thông báo đủ hàng 100% thì tiến hành giao hàng</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +584,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +642,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,7 +777,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,6 +854,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -773,6 +918,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -830,79 +976,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,79 +1085,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.1834695731153495</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1834695731153495</c:v>
+                  <c:v>5.3319432860717262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9884201819685687</c:v>
+                  <c:v>5.3401976935749591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9613837489943684</c:v>
+                  <c:v>5.3401976935749591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9613837489943684</c:v>
+                  <c:v>5.3401976935749591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9613837489943684</c:v>
+                  <c:v>5.4020618556701034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9619952494061756</c:v>
+                  <c:v>5.4760250173731757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9669193659545146</c:v>
+                  <c:v>5.4760250173731757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9669193659545146</c:v>
+                  <c:v>5.2737715379706449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9706601466992666</c:v>
+                  <c:v>5.4534019439679815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9706601466992666</c:v>
+                  <c:v>5.5137362637362637</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0197904540162979</c:v>
+                  <c:v>5.5137362637362637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0197904540162979</c:v>
+                  <c:v>5.3329933707292199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0197904540162979</c:v>
+                  <c:v>5.2347661785545583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0802839978154015</c:v>
+                  <c:v>5.2347661785545583</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0802839978154015</c:v>
+                  <c:v>5.3486522315510383</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0566954643628508</c:v>
+                  <c:v>5.3486522315510383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0566954643628508</c:v>
+                  <c:v>5.3486522315510383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0566954643628508</c:v>
+                  <c:v>5.4728238659583166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0519031141868513</c:v>
+                  <c:v>5.4728238659583166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0498765432098764</c:v>
+                  <c:v>5.4728238659583166</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0335439961108408</c:v>
+                  <c:v>5.4728238659583166</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0335439961108408</c:v>
+                  <c:v>5.4728238659583166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0335439961108408</c:v>
+                  <c:v>5.5758384146341466</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0405405405405403</c:v>
+                  <c:v>5.4804869316147515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,6 +1247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4889,13 +5036,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>326570</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
@@ -4972,13 +5119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>166598</xdr:rowOff>
@@ -5044,13 +5191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
@@ -5106,13 +5253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -5156,13 +5303,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5218,13 +5365,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5280,13 +5427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5344,13 +5491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5394,13 +5541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -5444,13 +5591,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5494,13 +5641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5556,13 +5703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -5606,13 +5753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
@@ -5668,13 +5815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5718,13 +5865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>194491</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>512738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>194401</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>917</xdr:rowOff>
@@ -5786,13 +5933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>500606</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>512738</xdr:rowOff>
@@ -5836,13 +5983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>318568</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>483892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>101362</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>29763</xdr:rowOff>
@@ -5902,13 +6049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>39876</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>483892</xdr:rowOff>
@@ -5952,13 +6099,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
@@ -6024,13 +6171,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -6074,13 +6221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
@@ -6146,13 +6293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -6196,13 +6343,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>121584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
@@ -6267,13 +6414,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
@@ -6318,13 +6465,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>248097</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6369,13 +6516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>102130</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>74225</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
@@ -6440,13 +6587,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>380170</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
@@ -6491,13 +6638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>394337</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
@@ -6542,13 +6689,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>380997</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6604,13 +6751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6654,13 +6801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>517071</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
@@ -6724,13 +6871,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>146155</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
@@ -6774,13 +6921,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>274019</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
@@ -6844,13 +6991,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1123830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>15756</xdr:rowOff>
@@ -6912,13 +7059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -6962,13 +7109,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -7066,13 +7213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -7116,13 +7263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1061357</xdr:rowOff>
@@ -7178,13 +7325,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>131744</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>5847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>179371</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177297</xdr:rowOff>
@@ -7247,13 +7394,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>131744</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
@@ -7297,13 +7444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>179371</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>248097</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186822</xdr:rowOff>
@@ -7347,13 +7494,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>777451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1139401</xdr:rowOff>
@@ -7415,13 +7562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>958426</xdr:rowOff>
@@ -7466,13 +7613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>958426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>87534</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
@@ -7517,13 +7664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -7567,13 +7714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
@@ -7617,13 +7764,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
@@ -7679,13 +7826,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -14546,12 +14693,12 @@
   <dimension ref="A17:A23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="40" max="40" width="4" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="17" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14569,8 +14716,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA98" sqref="AA98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14691,109 +14838,109 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>101</v>
+        <v>-100</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>0</v>
+        <v>-548.04869316147517</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>101</v>
+        <v>-100</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5.1834695731153495</v>
+        <v>5</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-153</v>
+        <v>199</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-771.20270270270271</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-153</v>
+        <v>199</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.1834695731153495</v>
+        <v>5.3319432860717262</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-793.07084468664846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14801,20 +14948,20 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>4.9884201819685687</v>
+        <v>5.3401976935749591</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14824,50 +14971,50 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>-17</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-93.168277837450773</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>-17</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>4.9613837489943684</v>
+        <v>5.3401976935749591</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-90.78336079077431</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-115</v>
+        <v>-39</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14879,15 +15026,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-579.66216216216219</v>
+        <v>-213.73899033297531</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-115</v>
+        <v>-39</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14900,72 +15047,72 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.9613837489943684</v>
+        <v>5.3401976935749591</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-570.55913113435236</v>
+        <v>-208.26771004942341</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-120</v>
+        <v>47</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-604.86486486486478</v>
+        <v>0</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-120</v>
+        <v>47</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.9613837489943684</v>
+        <v>5.4020618556701034</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-595.36604987932424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>1068</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14973,20 +15120,20 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>1068</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.9619952494061756</v>
+        <v>5.4760250173731757</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14996,105 +15143,105 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>-132</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-723.42427497314725</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>-132</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.9669193659545146</v>
+        <v>5.4760250173731757</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-722.83530229325925</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-110</v>
+        <v>128</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-554.45945945945948</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-110</v>
+        <v>128</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.9669193659545146</v>
+        <v>5.2737715379706449</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-546.36113025499662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>925</v>
+        <v>1274</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15102,20 +15249,20 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>925</v>
+        <v>1274</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.9706601466992666</v>
+        <v>5.4534019439679815</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15125,308 +15272,308 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-179</v>
+        <v>71</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-902.25675675675677</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-179</v>
+        <v>71</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.9706601466992666</v>
+        <v>5.5137362637362637</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-889.74816625916867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>-7</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-38.363408521303263</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>-7</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.0197904540162979</v>
+        <v>5.5137362637362637</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-38.596153846153847</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-715.75675675675677</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-142</v>
+        <v>141</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.0197904540162979</v>
+        <v>5.3329933707292199</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-712.81024447031427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-111</v>
+        <v>156</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-559.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-111</v>
+        <v>156</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.0197904540162979</v>
+        <v>5.2347661785545583</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-557.19674039580912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>-143</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-783.7096312209095</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>-143</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.0802839978154015</v>
+        <v>5.2347661785545583</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-748.57156353330186</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-138</v>
+        <v>146</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-695.59459459459458</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-138</v>
+        <v>146</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.0802839978154015</v>
+        <v>5.3486522315510383</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-701.07919169852539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>-129</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-706.98281417830299</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>-129</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.0566954643628508</v>
+        <v>5.3486522315510383</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-689.9761378700839</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-132</v>
+        <v>-38</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15438,15 +15585,15 @@
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-665.35135135135135</v>
+        <v>-208.25850340136057</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-132</v>
+        <v>-38</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15459,189 +15606,189 @@
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.0566954643628508</v>
+        <v>5.3486522315510383</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-667.48380129589634</v>
+        <v>-203.24878479893945</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-25</v>
+        <v>184</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-126.01351351351352</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-25</v>
+        <v>184</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.0566954643628508</v>
+        <v>5.4728238659583166</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-126.41738660907127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>-133</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-728.90476190476193</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>171</v>
+        <v>-133</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.0519031141868513</v>
+        <v>5.4728238659583166</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-727.88557417245613</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-55</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-301.42678123881132</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>-55</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.0498765432098764</v>
+        <v>5.4728238659583166</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-301.00531262770744</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>-111</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-608.33404940923742</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>-111</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.0335439961108408</v>
+        <v>5.4728238659583166</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-607.48344912137316</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-17</v>
+        <v>-50</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15653,15 +15800,15 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-85.689189189189193</v>
+        <v>-274.02434658073759</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-17</v>
+        <v>-50</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15674,72 +15821,72 @@
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.0335439961108408</v>
+        <v>5.4728238659583166</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-85.570247933884289</v>
+        <v>-273.64119329791583</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-132</v>
+        <v>177</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-665.35135135135135</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-132</v>
+        <v>177</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.0335439961108408</v>
+        <v>5.5758384146341466</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-664.42780748663097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>676</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15747,20 +15894,20 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>676</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15773,20 +15920,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-302</v>
+        <v>839</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.7692307692307692</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>5444</v>
+        <v>10307</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-6925.7027027027025</v>
+        <v>-5228.3845327604731</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15794,20 +15941,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-302</v>
+        <v>839</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.7692307692307692</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>5444</v>
+        <v>10307</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-6910.0907421046213</v>
+        <v>-5112.2945424013888</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -32190,15 +32337,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>698</v>
+        <v>1839</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>3518.2972972972971</v>
+        <v>10078.615467239528</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -32208,15 +32355,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>698</v>
+        <v>1839</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.0405405405405403</v>
+        <v>5.4804869316147515</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>3518.2972972972971</v>
+        <v>10078.615467239528</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -32227,7 +32374,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-15.611960598081168</v>
+        <v>-116.08999035908437</v>
       </c>
     </row>
   </sheetData>
@@ -32240,16 +32387,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="101" style="29" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.85546875" style="29" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="29"/>
@@ -32333,9 +32480,71 @@
       <c r="C9" s="31"/>
       <c r="D9" s="30"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33553,28 +33762,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -33591,6 +33778,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
     <sheet name="WORK_FLOW" sheetId="2" r:id="rId2"/>
     <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId3"/>
-    <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="7" r:id="rId4"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId5"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId6"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId7"/>
+    <sheet name="USER_FLOW_BP_KE_HOACH (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="7" r:id="rId5"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId6"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId7"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'USER_FLOW_BP_KE_HOACH (2)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$B$2:$AO$23</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
@@ -839,6 +841,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -853,12 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -918,7 +920,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -976,79 +977,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,76 +1089,76 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3319432860717262</c:v>
+                  <c:v>5.0689013035381754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3401976935749591</c:v>
+                  <c:v>5.0087873462214407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3401976935749591</c:v>
+                  <c:v>5.007733952049497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3401976935749591</c:v>
+                  <c:v>5.007733952049497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4020618556701034</c:v>
+                  <c:v>5.007733952049497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4760250173731757</c:v>
+                  <c:v>4.8973829201101928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4760250173731757</c:v>
+                  <c:v>4.8973829201101928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2737715379706449</c:v>
+                  <c:v>4.7739858338699293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4534019439679815</c:v>
+                  <c:v>4.9099153567110037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5137362637362637</c:v>
+                  <c:v>4.9099153567110037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5137362637362637</c:v>
+                  <c:v>4.9099153567110037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3329933707292199</c:v>
+                  <c:v>4.9099153567110037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2347661785545583</c:v>
+                  <c:v>4.8134328358208958</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2347661785545583</c:v>
+                  <c:v>4.8134328358208958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3486522315510383</c:v>
+                  <c:v>4.8134328358208958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3486522315510383</c:v>
+                  <c:v>4.8134328358208958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3486522315510383</c:v>
+                  <c:v>4.8269012485811578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4728238659583166</c:v>
+                  <c:v>4.8269012485811578</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4728238659583166</c:v>
+                  <c:v>4.8275666477595012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4728238659583166</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4728238659583166</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4728238659583166</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5758384146341466</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4804869316147515</c:v>
+                  <c:v>4.8778501628664497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7881,6 +7881,4051 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130427</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557124</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="3"/>
+          <a:endCxn id="109" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1967391" y="2211162"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>316367</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="316367" y="190500"/>
+          <a:ext cx="3766457" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KẾ HOẠCH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130427</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Rounded Rectangle 107"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231322" y="1356324"/>
+          <a:ext cx="1736069" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DNSX</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293945</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rounded Rectangle 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2394088" y="1285876"/>
+          <a:ext cx="2798428" cy="1850571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kiểm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> tra tồn kho: chi tiết, NVL chính, NVL phụ, thứ liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94713</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Diamond 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619213" y="1257261"/>
+          <a:ext cx="2435679" cy="1907801"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>ĐỦ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> NVL 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569035</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8481589" y="2030186"/>
+          <a:ext cx="659946" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466183</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943373" y="3948233"/>
+          <a:ext cx="584417" cy="337259"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63635</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494087</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="188" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1288278" y="4116863"/>
+          <a:ext cx="1655095" cy="981733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293945</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5192516" y="2211162"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94713</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521410</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8054892" y="2211161"/>
+          <a:ext cx="426697" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466183</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101517</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3527790" y="3165062"/>
+          <a:ext cx="3309263" cy="951801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>498272</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9568232" y="1639661"/>
+          <a:ext cx="1339504" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác định ngày hoàn thành</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312647</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>543968</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334433" y="1639661"/>
+          <a:ext cx="1455964" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhận &amp; g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ các kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>498272</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312647</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10907736" y="2211161"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569035</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383411</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9141535" y="2211161"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>543968</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12790397" y="2211161"/>
+          <a:ext cx="234360" cy="6577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>351879</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609958</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15047593" y="1353912"/>
+          <a:ext cx="2095044" cy="1714498"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Các</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> phiếu đề nghị xuất kho (nhiều đợt)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121557</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>351879</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="3"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14817271" y="2211161"/>
+          <a:ext cx="230322" cy="6577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>424334</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>176227</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rounded Rectangle 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17569334" y="1170215"/>
+          <a:ext cx="1588857" cy="2081892"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kế</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> toán làm phiếu xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609958</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>424334</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17142637" y="2211161"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>602924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28245</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19584888" y="1485900"/>
+          <a:ext cx="1874607" cy="1450522"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Đưa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> NVL về tồn tại xưởng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>176227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>602924</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19158191" y="2211161"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28245</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149452</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="Straight Arrow Connector 168"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="199" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21459495" y="2211161"/>
+          <a:ext cx="627619" cy="33791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560296</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="Rounded Rectangle 187"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560296" y="5098596"/>
+          <a:ext cx="1455964" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhận &amp; g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ các kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217712</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173262</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="Rounded Rectangle 190"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666998" y="4803320"/>
+          <a:ext cx="1792514" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề nghị sản xuất chi tiết</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121557</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="Rounded Rectangle 191"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13024757" y="1336221"/>
+          <a:ext cx="1792514" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>611414</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="Rounded Rectangle 198"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22087114" y="1363435"/>
+          <a:ext cx="1792514" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kế</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> hoạch SX tuần</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166004</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>37644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="Rounded Rectangle 203"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2615290" y="8942611"/>
+          <a:ext cx="1779816" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề nghị mua</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> NVL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166004</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="Straight Arrow Connector 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="204" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2016260" y="5670096"/>
+          <a:ext cx="599030" cy="4154032"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217712</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="Straight Arrow Connector 215"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2016260" y="5670096"/>
+          <a:ext cx="650738" cy="14741"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173262</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559846</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="Straight Arrow Connector 223"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="225" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4459512" y="5303837"/>
+          <a:ext cx="386584" cy="50574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559846</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="Rounded Rectangle 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846096" y="4150179"/>
+          <a:ext cx="2597011" cy="2408463"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kiểm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> tra tồn kho: chi tiết, NVL chính, NVL phụ, thứ liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396794</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383186</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="Diamond 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7744651" y="4403232"/>
+          <a:ext cx="2435678" cy="1907801"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>ĐỦ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> NVL 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7062</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54687</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="Rounded Rectangle 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10416526" y="5176157"/>
+          <a:ext cx="659947" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396794</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="Straight Arrow Connector 227"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="3"/>
+          <a:endCxn id="226" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7443107" y="5354411"/>
+          <a:ext cx="301544" cy="2722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>383186</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7062</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="Straight Arrow Connector 228"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="226" idx="3"/>
+          <a:endCxn id="227" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10180329" y="5357132"/>
+          <a:ext cx="236197" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236456</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351316</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="Rounded Rectangle 229"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258242" y="4758417"/>
+          <a:ext cx="1339503" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác định ngày hoàn thành</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165692</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397013</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="Rounded Rectangle 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13024442" y="4758417"/>
+          <a:ext cx="1455964" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhận &amp; g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ các kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351316</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165692</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Straight Arrow Connector 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="230" idx="3"/>
+          <a:endCxn id="231" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12597745" y="5329917"/>
+          <a:ext cx="426697" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54687</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236456</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="Straight Arrow Connector 232"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="227" idx="3"/>
+          <a:endCxn id="230" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11076473" y="5329917"/>
+          <a:ext cx="181769" cy="27215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397013</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Straight Arrow Connector 233"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="231" idx="3"/>
+          <a:endCxn id="242" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14480406" y="5329917"/>
+          <a:ext cx="234360" cy="6577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>204924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>463003</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="Rounded Rectangle 234"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16737603" y="4472668"/>
+          <a:ext cx="2095043" cy="1714498"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Các</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> phiếu đề nghị xuất kho (nhiều đợt)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>586924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>204924</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="Straight Arrow Connector 235"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="242" idx="3"/>
+          <a:endCxn id="235" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16507281" y="5329917"/>
+          <a:ext cx="230322" cy="6577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>277380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>29272</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="Rounded Rectangle 236"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19259344" y="4288971"/>
+          <a:ext cx="1588857" cy="2081892"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kế</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> toán làm phiếu xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>463003</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>277380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Straight Arrow Connector 237"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="235" idx="3"/>
+          <a:endCxn id="237" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18832646" y="5329917"/>
+          <a:ext cx="426698" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>292682</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>330325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="Rounded Rectangle 238"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21111611" y="4591049"/>
+          <a:ext cx="1874607" cy="1450522"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Đưa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> NVL về tồn tại xưởng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>29272</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>292682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="Straight Arrow Connector 239"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="237" idx="3"/>
+          <a:endCxn id="239" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20848201" y="5316310"/>
+          <a:ext cx="263410" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>330325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>576946</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="Straight Arrow Connector 240"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="239" idx="3"/>
+          <a:endCxn id="243" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22986218" y="5309279"/>
+          <a:ext cx="246621" cy="7031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>586924</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>122010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="Rounded Rectangle 241"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14714766" y="4454977"/>
+          <a:ext cx="1792515" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>576946</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>532496</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="Rounded Rectangle 242"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23232839" y="4427762"/>
+          <a:ext cx="1792514" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kế</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> hoạch SX tuần</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265487</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237583</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="Rounded Rectangle 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7001023" y="7447991"/>
+          <a:ext cx="584417" cy="337259"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304481</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>187121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="Straight Arrow Connector 311"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="311" idx="1"/>
+          <a:endCxn id="340" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6427695" y="7616621"/>
+          <a:ext cx="573328" cy="1090589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237583</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>389990</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>187121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="313" name="Straight Arrow Connector 312"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="226" idx="2"/>
+          <a:endCxn id="311" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8197762" y="6311033"/>
+          <a:ext cx="764728" cy="924588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220118</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>97649</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="Diamond 315"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7567975" y="2762251"/>
+          <a:ext cx="2326817" cy="1885668"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sản</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> xuất trước</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> một</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> phần</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351859</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>399486</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="Rounded Rectangle 316"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11373645" y="3279444"/>
+          <a:ext cx="659948" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>97649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351859</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="318" name="Straight Connector 317"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="316" idx="3"/>
+          <a:endCxn id="317" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9894792" y="3460419"/>
+          <a:ext cx="1478853" cy="244666"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>399486</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>449943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="Straight Arrow Connector 318"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="317" idx="3"/>
+          <a:endCxn id="192" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12033593" y="3099254"/>
+          <a:ext cx="1887421" cy="361165"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63635</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220118</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="320" name="Straight Arrow Connector 319"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="0"/>
+          <a:endCxn id="316" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1288278" y="3705085"/>
+          <a:ext cx="6279697" cy="1393511"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>549411</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426942</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="Diamond 329"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121911" y="6928758"/>
+          <a:ext cx="2326817" cy="1885668"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sản</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> xuất trước</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> một</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> phần</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218510</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266137</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="Rounded Rectangle 330"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13077260" y="7622844"/>
+          <a:ext cx="659948" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426942</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>183819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218510</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="332" name="Straight Connector 331"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="330" idx="3"/>
+          <a:endCxn id="331" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11448728" y="7803819"/>
+          <a:ext cx="1628532" cy="67773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266137</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>122010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>302988</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>183819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="333" name="Straight Arrow Connector 332"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="331" idx="3"/>
+          <a:endCxn id="242" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14349530" y="6218010"/>
+          <a:ext cx="1261494" cy="1204809"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304481</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>549411</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="334" name="Straight Arrow Connector 333"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="340" idx="3"/>
+          <a:endCxn id="330" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6427695" y="7871592"/>
+          <a:ext cx="2694216" cy="835618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304481</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="Rounded Rectangle 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4971731" y="8135710"/>
+          <a:ext cx="1455964" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhận &amp; g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ các kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="345" name="Straight Arrow Connector 344"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="340" idx="1"/>
+          <a:endCxn id="204" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4395106" y="8707210"/>
+          <a:ext cx="576625" cy="1116918"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366157</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -14001,7 +18046,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14316,26 +18361,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14693,7 +18738,7 @@
   <dimension ref="A17:A23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14713,11 +18758,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA98" sqref="AA98"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14731,7 +18796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
@@ -14838,7 +18903,7 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-100</v>
+        <v>-129</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
@@ -14851,18 +18916,18 @@
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-548.04869316147517</v>
+        <v>-629.24267100977204</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-100</v>
+        <v>-129</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
@@ -14879,25 +18944,25 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-500</v>
+        <v>-645</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1393</v>
+        <v>444</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14905,20 +18970,20 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1393</v>
+        <v>444</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.3319432860717262</v>
+        <v>5.0689013035381754</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14928,19 +18993,19 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14948,20 +19013,20 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.3401976935749591</v>
+        <v>5.0087873462214407</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14971,50 +19036,50 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-17</v>
+        <v>155</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-93.168277837450773</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-17</v>
+        <v>155</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.3401976935749591</v>
+        <v>5.007733952049497</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-90.78336079077431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-39</v>
+        <v>-107</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15026,15 +19091,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-213.73899033297531</v>
+        <v>-521.92996742671016</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-39</v>
+        <v>-107</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15047,72 +19112,72 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.3401976935749591</v>
+        <v>5.007733952049497</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-208.26771004942341</v>
+        <v>-535.82753286929619</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>-131</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-638.99837133550488</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>-131</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.4020618556701034</v>
+        <v>5.007733952049497</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-656.01314771848411</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1068</v>
+        <v>636</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15120,20 +19185,20 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1068</v>
+        <v>636</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.4760250173731757</v>
+        <v>4.8973829201101928</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15143,7 +19208,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-132</v>
+        <v>-53</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15155,15 +19220,15 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-723.42427497314725</v>
+        <v>-258.52605863192184</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-132</v>
+        <v>-53</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15176,17 +19241,17 @@
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.4760250173731757</v>
+        <v>4.8973829201101928</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-722.83530229325925</v>
+        <v>-259.56129476584022</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15194,11 +19259,11 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15206,7 +19271,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15214,12 +19279,12 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.2737715379706449</v>
+        <v>4.7739858338699293</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15229,7 +19294,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15237,11 +19302,11 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1274</v>
+        <v>707</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15249,7 +19314,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15257,12 +19322,12 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1274</v>
+        <v>707</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.4534019439679815</v>
+        <v>4.9099153567110037</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15272,50 +19337,50 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>-198</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-965.81433224755699</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>-198</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.5137362637362637</v>
+        <v>4.9099153567110037</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-972.16324062877868</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-50</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15327,15 +19392,15 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-38.363408521303263</v>
+        <v>-243.89250814332249</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-7</v>
+        <v>-50</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15348,72 +19413,72 @@
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.5137362637362637</v>
+        <v>4.9099153567110037</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-38.596153846153847</v>
+        <v>-245.49576783555017</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>-3</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-14.633550488599349</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>-3</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.3329933707292199</v>
+        <v>4.9099153567110037</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-14.729746070133011</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>624</v>
+        <v>264</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15421,20 +19486,20 @@
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>624</v>
+        <v>264</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.2347661785545583</v>
+        <v>4.8134328358208958</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15444,7 +19509,7 @@
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-143</v>
+        <v>-53</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15456,15 +19521,15 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-783.7096312209095</v>
+        <v>-258.52605863192184</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-143</v>
+        <v>-53</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15477,60 +19542,60 @@
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.2347661785545583</v>
+        <v>4.8134328358208958</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-748.57156353330186</v>
+        <v>-255.11194029850748</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>-200</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-975.57003257328995</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>146</v>
+        <v>-200</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.3486522315510383</v>
+        <v>4.8134328358208958</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-962.68656716417911</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-129</v>
+        <v>-50</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15542,15 +19607,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-706.98281417830299</v>
+        <v>-243.89250814332249</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-129</v>
+        <v>-50</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15563,189 +19628,189 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.3486522315510383</v>
+        <v>4.8134328358208958</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-689.9761378700839</v>
+        <v>-240.67164179104478</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>20</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-208.25850340136057</v>
+        <v>0</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-38</v>
+        <v>20</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.3486522315510383</v>
+        <v>4.8269012485811578</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-203.24878479893945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>-38</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-185.3583061889251</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>184</v>
+        <v>-38</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.4728238659583166</v>
+        <v>4.8269012485811578</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-183.42224744608399</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-133</v>
+        <v>1</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-728.90476190476193</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-133</v>
+        <v>1</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.4728238659583166</v>
+        <v>4.8275666477595012</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-727.88557417245613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-55</v>
+        <v>79</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-301.42678123881132</v>
+        <v>0</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>79</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.4728238659583166</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-301.00531262770744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-111</v>
+        <v>-63</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15757,15 +19822,15 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-608.33404940923742</v>
+        <v>-307.30456026058636</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-111</v>
+        <v>-63</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15778,17 +19843,17 @@
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.4728238659583166</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-607.48344912137316</v>
+        <v>-307.30456026058636</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-50</v>
+        <v>-16</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15800,15 +19865,15 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-274.02434658073759</v>
+        <v>-78.045602605863195</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-50</v>
+        <v>-16</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15821,97 +19886,97 @@
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.4728238659583166</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-273.64119329791583</v>
+        <v>-78.045602605863195</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>-10</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-48.7785016286645</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>177</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.5758384146341466</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-48.7785016286645</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>-144</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-702.41042345276878</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>169</v>
+        <v>-144</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-702.41042345276878</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -15920,20 +19985,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>839</v>
+        <v>-403</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.7692307692307692</v>
+        <v>5</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>10307</v>
+        <v>3985</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-5228.3845327604731</v>
+        <v>-6072.9234527687286</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15941,20 +20006,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>839</v>
+        <v>-403</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.7692307692307692</v>
+        <v>5</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>10307</v>
+        <v>3985</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-5112.2945424013888</v>
+        <v>-6107.2222145357791</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -32337,15 +36402,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1839</v>
+        <v>597</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>10078.615467239528</v>
+        <v>2912.0765472312705</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -32355,15 +36420,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1839</v>
+        <v>597</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.4804869316147515</v>
+        <v>4.8778501628664497</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>10078.615467239528</v>
+        <v>2912.0765472312705</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -32374,7 +36439,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-116.08999035908437</v>
+        <v>34.298761767050564</v>
       </c>
     </row>
   </sheetData>
@@ -32384,12 +36449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -32454,7 +36519,7 @@
       <c r="C6" s="31"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>89</v>
       </c>
@@ -32464,7 +36529,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>91</v>
       </c>
@@ -32484,58 +36549,58 @@
       <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:4" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="39" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32548,7 +36613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E77"/>
@@ -32588,10 +36653,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -32605,10 +36670,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -32620,10 +36685,10 @@
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -32637,10 +36702,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -32652,10 +36717,10 @@
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -32667,10 +36732,10 @@
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -32682,10 +36747,10 @@
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -32697,10 +36762,10 @@
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -32712,10 +36777,10 @@
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -32727,10 +36792,10 @@
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -32742,10 +36807,10 @@
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -32757,10 +36822,10 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -32772,10 +36837,10 @@
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -32787,10 +36852,10 @@
       <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="44" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -32802,10 +36867,10 @@
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -32817,10 +36882,10 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -32832,10 +36897,10 @@
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -32847,10 +36912,10 @@
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -32862,10 +36927,10 @@
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -32877,10 +36942,10 @@
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -32892,10 +36957,10 @@
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -32907,10 +36972,10 @@
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -32922,10 +36987,10 @@
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -32937,10 +37002,10 @@
       <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="45" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -32952,10 +37017,10 @@
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="34" t="s">
@@ -32967,10 +37032,10 @@
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="44" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -32982,10 +37047,10 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -32997,10 +37062,10 @@
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="45" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -33012,10 +37077,10 @@
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -33027,10 +37092,10 @@
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -33042,10 +37107,10 @@
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -33057,10 +37122,10 @@
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -33072,10 +37137,10 @@
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -33087,10 +37152,10 @@
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -33102,10 +37167,10 @@
       <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -33117,10 +37182,10 @@
       <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -33132,10 +37197,10 @@
       <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -33149,10 +37214,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="34" t="s">
@@ -33164,10 +37229,10 @@
       <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -33181,10 +37246,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -33196,10 +37261,10 @@
       <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="43" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -33213,10 +37278,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -33228,10 +37293,10 @@
       <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="34" t="s">
@@ -33245,10 +37310,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="45" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -33260,10 +37325,10 @@
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="34" t="s">
@@ -33277,10 +37342,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="44" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -33292,10 +37357,10 @@
       <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="44" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="34" t="s">
@@ -33309,10 +37374,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="45" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="34" t="s">
@@ -33324,10 +37389,10 @@
       <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="34" t="s">
@@ -33341,10 +37406,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -33356,10 +37421,10 @@
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="34" t="s">
@@ -33373,10 +37438,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="34" t="s">
@@ -33388,10 +37453,10 @@
       <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -33405,10 +37470,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -33420,10 +37485,10 @@
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="34" t="s">
@@ -33437,10 +37502,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="45" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="34" t="s">
@@ -33452,10 +37517,10 @@
       <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -33469,10 +37534,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="44" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="34" t="s">
@@ -33484,10 +37549,10 @@
       <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="44" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="34" t="s">
@@ -33501,10 +37566,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="45" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="34" t="s">
@@ -33516,10 +37581,10 @@
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="34" t="s">
@@ -33531,10 +37596,10 @@
       <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="34" t="s">
@@ -33546,10 +37611,10 @@
       <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -33561,10 +37626,10 @@
       <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C65" s="34" t="s">
@@ -33576,10 +37641,10 @@
       <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="34" t="s">
@@ -33591,10 +37656,10 @@
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="34" t="s">
@@ -33606,10 +37671,10 @@
       <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C68" s="34" t="s">
@@ -33621,10 +37686,10 @@
       <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="34" t="s">
@@ -33636,10 +37701,10 @@
       <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C70" s="34" t="s">
@@ -33651,10 +37716,10 @@
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -33666,10 +37731,10 @@
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="34" t="s">
@@ -33681,10 +37746,10 @@
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C73" s="34" t="s">
@@ -33696,10 +37761,10 @@
       <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -33713,10 +37778,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C75" s="34" t="s">
@@ -33728,10 +37793,10 @@
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C76" s="34" t="s">
@@ -33745,10 +37810,10 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="34" t="s">

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$B$1:$AO$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$26</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -918,7 +918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -976,79 +975,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,76 +1087,76 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0814479638009047</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0765765765765769</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0677830940988837</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9614220877458397</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9614220877458397</c:v>
+                  <c:v>4.8880994671403197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9641602248770207</c:v>
+                  <c:v>4.8880994671403197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9641602248770207</c:v>
+                  <c:v>4.8880994671403197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.926257753273604</c:v>
+                  <c:v>4.8780918727915195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9348752282410224</c:v>
+                  <c:v>4.9460580912863072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8837744533947065</c:v>
+                  <c:v>4.9460580912863072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8914562063406768</c:v>
+                  <c:v>4.9460580912863072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8914562063406768</c:v>
+                  <c:v>4.7486950037285611</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8323789692868298</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8459330143540669</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8459330143540669</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7935843793584381</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7935843793584381</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7699594046008116</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7992073976221929</c:v>
+                  <c:v>4.773063973063973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8703396851698422</c:v>
+                  <c:v>4.7276902887139105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8062164236377587</c:v>
+                  <c:v>4.744170984455959</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7642428785607196</c:v>
+                  <c:v>4.744170984455959</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8261661807580172</c:v>
+                  <c:v>4.744170984455959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8051152737752165</c:v>
+                  <c:v>4.7646007151370675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1246,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5036,13 +5034,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>326570</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
@@ -5119,13 +5117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>166598</xdr:rowOff>
@@ -5191,13 +5189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
@@ -5253,13 +5251,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -5303,13 +5301,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5365,13 +5363,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
@@ -5427,13 +5425,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5491,13 +5489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5541,13 +5539,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -5591,13 +5589,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>23273</xdr:rowOff>
@@ -5641,13 +5639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5703,13 +5701,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>23273</xdr:rowOff>
@@ -5753,13 +5751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
@@ -5815,13 +5813,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -5865,13 +5863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>194491</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>512738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>194401</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>917</xdr:rowOff>
@@ -5933,13 +5931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>500606</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>512738</xdr:rowOff>
@@ -5983,13 +5981,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>318568</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>483892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>101362</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>29763</xdr:rowOff>
@@ -6049,13 +6047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>39876</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>483892</xdr:rowOff>
@@ -6099,13 +6097,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
@@ -6171,13 +6169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -6221,13 +6219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64235</xdr:rowOff>
@@ -6293,13 +6291,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73761</xdr:rowOff>
@@ -6343,13 +6341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>102534</xdr:rowOff>
@@ -6414,13 +6412,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
@@ -6465,13 +6463,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>248096</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6516,13 +6514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>102130</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>74225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
@@ -6587,13 +6585,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>380170</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>75161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>251415</xdr:rowOff>
@@ -6638,13 +6636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>394337</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>588674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
@@ -6689,13 +6687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>380997</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6751,13 +6749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -6801,13 +6799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>517071</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1068559</xdr:rowOff>
@@ -6871,13 +6869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>146155</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
@@ -6921,13 +6919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>274019</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
@@ -6991,13 +6989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1123830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>15756</xdr:rowOff>
@@ -7059,13 +7057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -7109,13 +7107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -7213,13 +7211,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73760</xdr:rowOff>
@@ -7263,13 +7261,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1061357</xdr:rowOff>
@@ -7325,13 +7323,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>36494</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>84121</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>163690</xdr:rowOff>
@@ -7394,13 +7392,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>173215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>36494</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
@@ -7444,13 +7442,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>84121</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>248096</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>173215</xdr:rowOff>
@@ -7494,13 +7492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>777451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1139401</xdr:rowOff>
@@ -7562,13 +7560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>958426</xdr:rowOff>
@@ -7613,13 +7611,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>958426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>87534</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
@@ -7664,13 +7662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -7714,13 +7712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>174734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685453</xdr:rowOff>
@@ -7764,13 +7762,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86739</xdr:rowOff>
@@ -7826,13 +7824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>685454</xdr:rowOff>
@@ -12250,15 +12248,6 @@
             </a:rPr>
             <a:t>Lập lệnh đợi</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -14265,13 +14254,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A16:A22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="40" max="40" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14289,8 +14278,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AE43" sqref="AE43"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="BA61" sqref="BA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14411,39 +14400,39 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>60</v>
+        <v>-112</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>0</v>
+        <v>-533.63528009535162</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>60</v>
+        <v>-112</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
@@ -14452,271 +14441,271 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>0</v>
+        <v>-560</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>-103</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-490.75387365911797</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>-103</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.0814479638009047</v>
+        <v>5</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-515</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-41</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-195.34862932061978</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>-41</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.0765765765765769</v>
+        <v>5</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>-37</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-176.29022646007149</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>-37</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.0677830940988837</v>
+        <v>5</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>-12</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-57.17520858164481</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>-12</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.9614220877458397</v>
+        <v>5</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-153</v>
+        <v>126</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-735.18263688760817</v>
+        <v>0</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-153</v>
+        <v>126</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.9614220877458397</v>
+        <v>4.8880994671403197</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-759.09757942511351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>-37</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-176.29022646007149</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>-37</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.9641602248770207</v>
+        <v>4.8880994671403197</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-180.85968028419182</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>-119</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14728,15 +14717,15 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-96.102305475504323</v>
+        <v>-566.98748510131099</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
+        <v>-119</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14749,17 +14738,17 @@
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.9641602248770207</v>
+        <v>4.8880994671403197</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-99.28320449754041</v>
+        <v>-581.6838365896981</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14767,11 +14756,11 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14779,7 +14768,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14787,12 +14776,12 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.926257753273604</v>
+        <v>4.8780918727915195</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14802,19 +14791,19 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>960</v>
+        <v>438</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14822,20 +14811,20 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>960</v>
+        <v>438</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.9348752282410224</v>
+        <v>4.9460580912863072</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14845,148 +14834,148 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>-153</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-728.98390941597131</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>-153</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.8837744533947065</v>
+        <v>4.9460580912863072</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-756.74688796680505</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>-60</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-285.87604290822406</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>123</v>
+        <v>-60</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>4.8914562063406768</v>
+        <v>4.9460580912863072</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-296.76348547717845</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-44</v>
+        <v>136</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-211.42507204610953</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-44</v>
+        <v>136</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>4.8914562063406768</v>
+        <v>4.7486950037285611</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-215.22407307898979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14994,20 +14983,20 @@
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>4.8323789692868298</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15017,50 +15006,50 @@
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>-162</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-771.86531585220496</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>169</v>
+        <v>-162</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>4.8459330143540669</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-773.23636363636365</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-138</v>
+        <v>-29</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15072,15 +15061,15 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-663.10590778097992</v>
+        <v>-138.17342073897495</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-138</v>
+        <v>-29</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15093,60 +15082,60 @@
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>4.8459330143540669</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-668.73875598086124</v>
+        <v>-138.41885521885521</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>-196</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-933.86174016686527</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>-196</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>4.7935843793584381</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-935.52053872053875</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-176</v>
+        <v>-196</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15158,15 +15147,15 @@
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-845.70028818443814</v>
+        <v>-933.86174016686527</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-176</v>
+        <v>-196</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15179,72 +15168,72 @@
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>4.7935843793584381</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-843.67085076708508</v>
+        <v>-935.52053872053875</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>-135</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-643.22109654350413</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>-135</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>4.7699594046008116</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-644.36363636363637</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15252,20 +15241,20 @@
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>4.7992073976221929</v>
+        <v>4.773063973063973</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15275,19 +15264,19 @@
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>858</v>
+        <v>117</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15295,20 +15284,20 @@
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>858</v>
+        <v>117</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>4.8703396851698422</v>
+        <v>4.7276902887139105</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15318,19 +15307,19 @@
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>768</v>
+        <v>120</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15338,20 +15327,20 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>768</v>
+        <v>120</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>4.8062164236377587</v>
+        <v>4.744170984455959</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15361,105 +15350,105 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>-198</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-943.39094159713932</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>-198</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>4.7642428785607196</v>
+        <v>4.744170984455959</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-939.34585492227984</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>-12</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-57.17520858164481</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>-12</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>4.8261661807580172</v>
+        <v>4.744170984455959</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-56.930051813471508</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>670</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15467,20 +15456,20 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>670</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15493,20 +15482,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>1245</v>
+        <v>-924</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>8339</v>
+        <v>2995</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-2551.5162103746402</v>
+        <v>-7632.8903456495818</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15514,20 +15503,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>1245</v>
+        <v>-924</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>8339</v>
+        <v>2995</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-2586.01446374959</v>
+        <v>-7764.3897297135572</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -31910,15 +31899,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>2245</v>
+        <v>76</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>10787.483789625361</v>
+        <v>362.10965435041714</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -31928,15 +31917,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>2245</v>
+        <v>76</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>4.8051152737752165</v>
+        <v>4.7646007151370675</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>10787.483789625361</v>
+        <v>362.10965435041714</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -31947,7 +31936,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>34.498253374949854</v>
+        <v>131.49938406397541</v>
       </c>
     </row>
   </sheetData>
@@ -32072,7 +32061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>122</v>
       </c>
@@ -33335,28 +33324,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -33373,6 +33340,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -14,17 +14,19 @@
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
     <sheet name="WORK_FLOW" sheetId="2" r:id="rId2"/>
-    <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId3"/>
-    <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="8" r:id="rId4"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId5"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId6"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId7"/>
+    <sheet name="TABLE" sheetId="9" r:id="rId3"/>
+    <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId4"/>
+    <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="8" r:id="rId5"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId6"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId7"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TABLE!$A$1:$E$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$26</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="185">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -575,6 +577,159 @@
       <t>Giữ chỗ cho đơn hàng &gt;&gt; Tiến hành đặt lệnh sản xuất và thông báo giao hàng một phần nếu thành viên yêu cầu &gt;&gt; đơn hàng đã được giữ chỗ và đang đợi sản xuất &gt;&gt; chủ động kiểm tra tồn kho hàng hoá hoặc đợi hệ thông báo đủ hàng 100% thì tiến hành giao hàng</t>
     </r>
   </si>
+  <si>
+    <t>TB_DON_DAT_HANG_THANH_VIEN</t>
+  </si>
+  <si>
+    <t>TB_DON_DAT_HANG_DANG_GIU_CHO</t>
+  </si>
+  <si>
+    <t>TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT</t>
+  </si>
+  <si>
+    <t>TB_KD04_THONG_BAO_GIAO_HANG</t>
+  </si>
+  <si>
+    <t>TB_KD05_DE_NGHI_XUAT_KHO_THANH_PHAM</t>
+  </si>
+  <si>
+    <t>TB_KD06_DE_NGHI_XUAT_HOA_DON</t>
+  </si>
+  <si>
+    <t>TB_KD07_BIEN_BAN_GIAO_NHAN</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_CHECK_EXISTS_COLUMN_SO_DNSX</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_CHECK_EXISTS_COLUMN_SO_DON_DAT_HANG</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_CHECK_EXISTS_SO_DNSX</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_DELETE_DDH_HOAN_THANH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_FILTER_BY_SOPHIEU_AND_TENDOITUONG_01</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_INSERT_FROM_TEMP_TABLE</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_INSERT_INTO_TEMP_TABLE</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_SELECT_THE_LATEST_SO_PHIEU</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_DE_NGHI_SAN_XUAT_UPDATE_SO_LUONG_GIU_CHO</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_GIU_CHO_CHECK_EXISTS_COLUMN_SO_DON_DAT_HANG</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_GIU_CHO_DELETE_DDH_HOAN_THANH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_GIU_CHO_INSERT_FROM_TB_DON_DAT_HANG_THANH_VIEN_BY_SO_DDH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_DANG_GIU_CHO_UPDATE_SO_LUONG_GIU_CHO</t>
+  </si>
+  <si>
+    <t>TÊN BỘ PHẬN</t>
+  </si>
+  <si>
+    <t>BP KINH DOANH</t>
+  </si>
+  <si>
+    <t>BPKD</t>
+  </si>
+  <si>
+    <t>TÊN TABLE</t>
+  </si>
+  <si>
+    <t>TÊN PROCEDURE</t>
+  </si>
+  <si>
+    <t>TÊN FUNCTION</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_ExecuteThreeProcedures_KINH_DOANH_XAC_NHAN_NOT_USED</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_KINH_DOANH_XAC_NHAN_EXCUTE_2_PROC_02_NOT_USED</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_COUNT_SL_CON_PHAI_GIAO_BY_ID</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_FILTER_BY_MANY_CONDITIONS_STATUS</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_FILTER_BY_MANY_CONDITIONS_STATUS_02</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_GET_STATUS_BY_ID</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_INSERT_FROM_TEMP_TABLE</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_INSERT_INTO_TEMP_TABLE</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_KINH_DOANH_XAC_NHAN_01_NOT_USED</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_MARK_HOAN_THANH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_MARK_STOP</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_MARK_XAC_NHAN</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_SELECT_ALL_02</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_SELECT_ONE_BY_SO_DDH_AND_CHECK_STOCK_QUANTITY_02</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_SELECT_ONE_BY_SO_DDH_TO_DE_NGHI_SAN_XUAT_NO_ROW_NUMBER</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_SELECT_ONE_BY_SO_DDH_TO_DE_NGHI_SAN_XUAT_WITH_ROW_NUMBER</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_NGAY_HOAN_THANH_DU_KIEN_BY_SO_DDH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_NGAY_XAC_NHAN_BY_SO_DDH_NOT_USED</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_BY_SO_DDH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_DA_GIAO_MOT_PHAN</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_DA_HOAN_THANH</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_DA_THONG_BAO_GIAO_HANG</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_STOP</t>
+  </si>
+  <si>
+    <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_XAC_NHAN</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +739,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +807,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -777,7 +945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,6 +1028,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -975,79 +1151,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,67 +1272,67 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0168350168350164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8880994671403197</c:v>
+                  <c:v>5.0168350168350164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8880994671403197</c:v>
+                  <c:v>5.0091896407685885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8880994671403197</c:v>
+                  <c:v>5.0091896407685885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8780918727915195</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9460580912863072</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9460580912863072</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9460580912863072</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7486950037285611</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.128043990573449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.104895104895105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.104895104895105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.104895104895105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.104895104895105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.104895104895105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.773063973063973</c:v>
+                  <c:v>5.0922761449077241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7276902887139105</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.744170984455959</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.744170984455959</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.744170984455959</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7646007151370675</c:v>
+                  <c:v>5.0841248303934874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14251,10 +14427,534 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E45"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B2:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A16:A22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -14273,7 +14973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
@@ -14293,7 +14993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
@@ -14400,7 +15100,7 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-112</v>
+        <v>-64</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
@@ -14413,18 +15113,18 @@
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-533.63528009535162</v>
+        <v>-325.38398914518319</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-112</v>
+        <v>-64</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
@@ -14441,13 +15141,13 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-560</v>
+        <v>-320</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-103</v>
+        <v>-140</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14459,15 +15159,15 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-490.75387365911797</v>
+        <v>-711.77747625508823</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-103</v>
+        <v>-140</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14484,41 +15184,41 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-515</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-41</v>
+        <v>168</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-195.34862932061978</v>
+        <v>0</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-41</v>
+        <v>168</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
@@ -14527,13 +15227,13 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-37</v>
+        <v>-89</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14545,15 +15245,15 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-176.29022646007149</v>
+        <v>-452.48710990502036</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-89</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14570,142 +15270,142 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-185</v>
+        <v>-445</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-57.17520858164481</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.0168350168350164</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>-71</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-360.97286295793759</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
+        <v>-71</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.8880994671403197</v>
+        <v>5.0168350168350164</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-356.19528619528614</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-176.29022646007149</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.8880994671403197</v>
+        <v>5.0091896407685885</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-180.85968028419182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-119</v>
+        <v>-59</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14717,15 +15417,15 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-566.98748510131099</v>
+        <v>-299.96336499321575</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-119</v>
+        <v>-59</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14738,29 +15438,29 @@
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.8880994671403197</v>
+        <v>5.0091896407685885</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-581.6838365896981</v>
+        <v>-295.54218880534671</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>532</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -14768,20 +15468,20 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>532</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.8780918727915195</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -14791,50 +15491,50 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>-102</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-518.58073270013574</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>-102</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.9460580912863072</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-523.06048703849183</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-153</v>
+        <v>-34</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14846,15 +15546,15 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-728.98390941597131</v>
+        <v>-172.86024423337858</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-153</v>
+        <v>-34</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14867,17 +15567,17 @@
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.9460580912863072</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-756.74688796680505</v>
+        <v>-174.35349567949726</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-60</v>
+        <v>-98</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -14889,15 +15589,15 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-285.87604290822406</v>
+        <v>-498.24423337856177</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>-98</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -14910,146 +15610,146 @@
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>4.9460580912863072</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-296.76348547717845</v>
+        <v>-502.54831107619799</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>-190</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-965.98371777476257</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>136</v>
+        <v>-190</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>4.7486950037285611</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-974.32835820895525</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>-9</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-45.757123473541384</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>-9</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.128043990573449</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-46.152395915161037</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-162</v>
+        <v>14</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-771.86531585220496</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-162</v>
+        <v>14</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.104895104895105</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-773.23636363636365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-29</v>
+        <v>-4</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15061,15 +15761,15 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-138.17342073897495</v>
+        <v>-20.33649932157395</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-29</v>
+        <v>-4</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15082,17 +15782,17 @@
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.104895104895105</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-138.41885521885521</v>
+        <v>-20.41958041958042</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-196</v>
+        <v>-152</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15104,15 +15804,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-933.86174016686527</v>
+        <v>-772.78697421981008</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-196</v>
+        <v>-152</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15125,17 +15825,17 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.104895104895105</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-935.52053872053875</v>
+        <v>-775.944055944056</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-196</v>
+        <v>-182</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15147,15 +15847,15 @@
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-933.86174016686527</v>
+        <v>-925.31071913161475</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-196</v>
+        <v>-182</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15168,17 +15868,17 @@
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.104895104895105</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-935.52053872053875</v>
+        <v>-929.09090909090912</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-135</v>
+        <v>-62</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15190,15 +15890,15 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-643.22109654350413</v>
+        <v>-315.21573948439624</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-135</v>
+        <v>-62</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15211,29 +15911,29 @@
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.104895104895105</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-644.36363636363637</v>
+        <v>-316.50349650349654</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15241,20 +15941,20 @@
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>4.773063973063973</v>
+        <v>5.0922761449077241</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15264,19 +15964,19 @@
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15284,20 +15984,20 @@
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>4.7276902887139105</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15307,50 +16007,50 @@
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>-121</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-615.17910447761199</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>-121</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>4.744170984455959</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-615.17910447761199</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-198</v>
+        <v>-14</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15362,15 +16062,15 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-943.39094159713932</v>
+        <v>-71.177747625508829</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-198</v>
+        <v>-14</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15383,17 +16083,17 @@
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>4.744170984455959</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-939.34585492227984</v>
+        <v>-71.177747625508829</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-107</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15405,15 +16105,15 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-57.17520858164481</v>
+        <v>-544.00135685210319</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-12</v>
+        <v>-107</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15426,54 +16126,54 @@
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>4.744170984455959</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-56.930051813471508</v>
+        <v>-544.00135685210319</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>-55</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-279.62686567164178</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>134</v>
+        <v>-55</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-279.62686567164178</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -15482,20 +16182,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-924</v>
+        <v>-1079</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.333333333333333</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>2995</v>
+        <v>2494</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-7632.8903456495818</v>
+        <v>-7895.6458616010868</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -15503,20 +16203,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-924</v>
+        <v>-1079</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.333333333333333</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>2995</v>
+        <v>2494</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-7764.3897297135572</v>
+        <v>-7889.1236395038459</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -31899,15 +32599,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>76</v>
+        <v>-79</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>362.10965435041714</v>
+        <v>-401.64586160108553</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -31917,15 +32617,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>76</v>
+        <v>-79</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>4.7646007151370675</v>
+        <v>5.0841248303934874</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>362.10965435041714</v>
+        <v>-401.64586160108553</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -31936,7 +32636,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>131.49938406397541</v>
+        <v>-6.5222220972409559</v>
       </c>
     </row>
   </sheetData>
@@ -31946,7 +32646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D18"/>
@@ -32110,7 +32810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E77"/>
@@ -33324,6 +34024,28 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -33340,28 +34062,6 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,18 @@
     <sheet name="TABLE" sheetId="9" r:id="rId3"/>
     <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId4"/>
     <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="8" r:id="rId5"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId6"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId7"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId8"/>
+    <sheet name="USER_FLOW_KE_TOAN" sheetId="10" r:id="rId6"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId7"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId8"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TABLE!$A$1:$E$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">USER_FLOW_KE_TOAN!$A$1:$AO$38</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -1013,11 +1015,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1028,14 +1038,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -1094,6 +1096,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1151,79 +1154,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,79 +1263,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.8510638297872344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4.8510638297872344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0695718654434252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.1250898634076201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0168350168350164</c:v>
+                  <c:v>5.1250898634076201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0168350168350164</c:v>
+                  <c:v>5.1250898634076201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0091896407685885</c:v>
+                  <c:v>5.2270564242012236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0091896407685885</c:v>
+                  <c:v>5.2430093209054593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.241721854304636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.2726089785296031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.256425948592411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.256425948592411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.2388825541619157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.128043990573449</c:v>
+                  <c:v>5.2591564927857934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.104895104895105</c:v>
+                  <c:v>5.2591564927857934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.104895104895105</c:v>
+                  <c:v>5.2591564927857934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.104895104895105</c:v>
+                  <c:v>5.2591564927857934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.104895104895105</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.104895104895105</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0922761449077241</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.268763796909492</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0841248303934874</c:v>
+                  <c:v>5.1581863979848865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,6 +1425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13743,6 +13747,1341 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="176892" y="54429"/>
+          <a:ext cx="3807278" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KẾ TOÁN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104214" y="601742"/>
+          <a:ext cx="1736068" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nghị xuất hoá đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594884</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77815</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431848" y="653758"/>
+          <a:ext cx="1932217" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Xuất</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> hoá đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594884</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1840282" y="1456580"/>
+          <a:ext cx="591566" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56968</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4955630" y="549079"/>
+          <a:ext cx="1836874" cy="1815000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhật số hoá đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77815</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4364065" y="1456579"/>
+          <a:ext cx="591565" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>268213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104214" y="2735931"/>
+          <a:ext cx="1736068" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nghị xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56968</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>320875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4955630" y="2683268"/>
+          <a:ext cx="1836874" cy="1815000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>733268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>733269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1840282" y="3590768"/>
+          <a:ext cx="3115348" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>640064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56968</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rounded Rectangle 71"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4955630" y="4817457"/>
+          <a:ext cx="1836874" cy="1815000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nhập kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56968</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4955630" y="6951645"/>
+          <a:ext cx="1836874" cy="1815000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Phiếu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> hoàn nhập</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28014</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rounded Rectangle 73"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7988193" y="601742"/>
+          <a:ext cx="1736068" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nghị mở mã</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>376827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>376737</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rounded Rectangle 74"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12623256" y="549079"/>
+          <a:ext cx="1836874" cy="1815000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tạo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mã HH-VT mới</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>376827</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9724261" y="1456579"/>
+          <a:ext cx="2898995" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104214" y="7004308"/>
+          <a:ext cx="1736068" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chứng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> từ trả hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1840282" y="7859145"/>
+          <a:ext cx="3115348" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>692727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rounded Rectangle 81"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104214" y="4870120"/>
+          <a:ext cx="1736068" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nghị nhập kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186851</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1840282" y="5724957"/>
+          <a:ext cx="3115348" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>347380</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -14054,26 +15393,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14429,7 +15768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14445,494 +15784,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="47" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="47" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="47" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="46"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="46"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="46"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="46"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="46"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="46"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="47" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="46"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="46"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E45"/>
@@ -14995,6 +16334,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A16:A22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="40" max="40" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
   <sheetViews>
@@ -15100,54 +16462,54 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-64</v>
+        <v>175</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-325.38398914518319</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-64</v>
+        <v>175</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.8510638297872344</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-140</v>
+        <v>-67</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15159,15 +16521,15 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-711.77747625508823</v>
+        <v>-345.59848866498737</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-140</v>
+        <v>-67</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15180,29 +16542,29 @@
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5</v>
+        <v>4.8510638297872344</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-700</v>
+        <v>-325.02127659574472</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>840</v>
+        <v>931</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15210,20 +16572,20 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>840</v>
+        <v>931</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.0695718654434252</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15233,93 +16595,93 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-452.48710990502036</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-89</v>
+        <v>83</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5</v>
+        <v>5.1250898634076201</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>-153</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-789.20251889168765</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>-153</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.0168350168350164</v>
+        <v>5.1250898634076201</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-784.13874910136587</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-71</v>
+        <v>-74</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15331,15 +16693,15 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-360.97286295793759</v>
+        <v>-381.70579345088163</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-74</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15352,29 +16714,29 @@
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.0168350168350164</v>
+        <v>5.1250898634076201</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-356.19528619528614</v>
+        <v>-379.25664989216386</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>560</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15382,20 +16744,20 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>560</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.0091896407685885</v>
+        <v>5.2270564242012236</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15405,62 +16767,62 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-59</v>
+        <v>31</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-299.96336499321575</v>
+        <v>0</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-59</v>
+        <v>31</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.0091896407685885</v>
+        <v>5.2430093209054593</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-295.54218880534671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -15468,20 +16830,20 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.241721854304636</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -15491,93 +16853,93 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-102</v>
+        <v>27</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-518.58073270013574</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-102</v>
+        <v>27</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.2726089785296031</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-523.06048703849183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-34</v>
+        <v>97</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-172.86024423337858</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>97</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.256425948592411</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-174.35349567949726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-98</v>
+        <v>-3</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15589,15 +16951,15 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-498.24423337856177</v>
+        <v>-15.47455919395466</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-98</v>
+        <v>-3</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15610,146 +16972,146 @@
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.256425948592411</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-502.54831107619799</v>
+        <v>-15.769277845777232</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-190</v>
+        <v>120</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-965.98371777476257</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-190</v>
+        <v>120</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.2388825541619157</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-974.32835820895525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>48</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-45.757123473541384</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>48</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.128043990573449</v>
+        <v>5.2591564927857934</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-46.152395915161037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>-27</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-139.27103274559192</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>-27</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.104895104895105</v>
+        <v>5.2591564927857934</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-141.99722530521643</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-72</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15761,15 +17123,15 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-20.33649932157395</v>
+        <v>-371.38942065491182</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-72</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15782,17 +17144,17 @@
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.104895104895105</v>
+        <v>5.2591564927857934</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.41958041958042</v>
+        <v>-378.65926748057711</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-152</v>
+        <v>-7</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15804,15 +17166,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-772.78697421981008</v>
+        <v>-36.107304785894208</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-152</v>
+        <v>-7</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15825,60 +17187,60 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.104895104895105</v>
+        <v>5.2591564927857934</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-775.944055944056</v>
+        <v>-36.814095449500556</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-182</v>
+        <v>10</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-925.31071913161475</v>
+        <v>0</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-182</v>
+        <v>10</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.104895104895105</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-929.09090909090912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-62</v>
+        <v>-162</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -15890,15 +17252,15 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-315.21573948439624</v>
+        <v>-835.62619647355166</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-162</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -15911,103 +17273,103 @@
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.104895104895105</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-316.50349650349654</v>
+        <v>-853.53973509933769</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>-34</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-175.37833753148615</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>-34</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.0922761449077241</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-179.13796909492274</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>-160</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-825.30982367758179</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>-160</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-843.00220750551875</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-121</v>
+        <v>-3</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16019,15 +17381,15 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-615.17910447761199</v>
+        <v>-15.47455919395466</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-121</v>
+        <v>-3</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16040,17 +17402,17 @@
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-615.17910447761199</v>
+        <v>-15.806291390728475</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>-128</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16062,15 +17424,15 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-71.177747625508829</v>
+        <v>-660.24785894206548</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-14</v>
+        <v>-128</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16083,60 +17445,60 @@
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.268763796909492</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-71.177747625508829</v>
+        <v>-674.40176600441498</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-107</v>
+        <v>173</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-544.00135685210319</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-107</v>
+        <v>173</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-544.00135685210319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-55</v>
+        <v>-73</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16148,15 +17510,15 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-279.62686567164178</v>
+        <v>-376.54760705289669</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>-73</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16169,11 +17531,11 @@
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-279.62686567164178</v>
+        <v>-376.54760705289669</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -16182,20 +17544,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-1079</v>
+        <v>22</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.8571428571428568</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>2494</v>
+        <v>5239</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-7895.6458616010868</v>
+        <v>-4967.3335012594453</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -16203,20 +17565,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-1079</v>
+        <v>22</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.8571428571428568</v>
+        <v>5.75</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>2494</v>
+        <v>5239</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-7889.1236395038459</v>
+        <v>-5004.0921178181652</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -32599,15 +33961,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>-79</v>
+        <v>1022</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>-401.64586160108553</v>
+        <v>5271.6664987405538</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -32617,15 +33979,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>-79</v>
+        <v>1022</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.0841248303934874</v>
+        <v>5.1581863979848865</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>-401.64586160108553</v>
+        <v>5271.6664987405538</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -32636,7 +33998,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-6.5222220972409559</v>
+        <v>36.75861655871995</v>
       </c>
     </row>
   </sheetData>
@@ -32646,13 +34008,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -32810,7 +34172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E77"/>
@@ -32850,10 +34212,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -32867,10 +34229,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -32882,10 +34244,10 @@
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -32899,10 +34261,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -32914,10 +34276,10 @@
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -32929,10 +34291,10 @@
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -32944,10 +34306,10 @@
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -32959,10 +34321,10 @@
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -32974,10 +34336,10 @@
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -32989,10 +34351,10 @@
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -33004,10 +34366,10 @@
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -33019,10 +34381,10 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -33034,10 +34396,10 @@
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="47" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -33049,10 +34411,10 @@
       <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="48" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -33064,10 +34426,10 @@
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="48" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -33079,10 +34441,10 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -33094,10 +34456,10 @@
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="47" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -33109,10 +34471,10 @@
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -33124,10 +34486,10 @@
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -33139,10 +34501,10 @@
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -33154,10 +34516,10 @@
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="47" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -33169,10 +34531,10 @@
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -33184,10 +34546,10 @@
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -33199,10 +34561,10 @@
       <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="49" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -33214,10 +34576,10 @@
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="47" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="34" t="s">
@@ -33229,10 +34591,10 @@
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -33244,10 +34606,10 @@
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -33259,10 +34621,10 @@
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -33274,10 +34636,10 @@
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -33289,10 +34651,10 @@
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -33304,10 +34666,10 @@
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -33319,10 +34681,10 @@
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="49" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -33334,10 +34696,10 @@
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -33349,10 +34711,10 @@
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -33364,10 +34726,10 @@
       <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -33379,10 +34741,10 @@
       <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -33394,10 +34756,10 @@
       <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -33411,10 +34773,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="34" t="s">
@@ -33426,10 +34788,10 @@
       <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -33443,10 +34805,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -33458,10 +34820,10 @@
       <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -33475,10 +34837,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -33490,10 +34852,10 @@
       <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="48" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="34" t="s">
@@ -33507,10 +34869,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -33522,10 +34884,10 @@
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="34" t="s">
@@ -33539,10 +34901,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="48" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -33554,10 +34916,10 @@
       <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="48" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="34" t="s">
@@ -33571,10 +34933,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="34" t="s">
@@ -33586,10 +34948,10 @@
       <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="47" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="34" t="s">
@@ -33603,10 +34965,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -33618,10 +34980,10 @@
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="34" t="s">
@@ -33635,10 +34997,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="34" t="s">
@@ -33650,10 +35012,10 @@
       <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="47" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -33667,10 +35029,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -33682,10 +35044,10 @@
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="34" t="s">
@@ -33699,10 +35061,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="49" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="34" t="s">
@@ -33714,10 +35076,10 @@
       <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="47" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -33731,10 +35093,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="34" t="s">
@@ -33746,10 +35108,10 @@
       <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="34" t="s">
@@ -33763,10 +35125,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="34" t="s">
@@ -33778,10 +35140,10 @@
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="34" t="s">
@@ -33793,10 +35155,10 @@
       <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="34" t="s">
@@ -33808,10 +35170,10 @@
       <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -33823,10 +35185,10 @@
       <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="49" t="s">
         <v>112</v>
       </c>
       <c r="C65" s="34" t="s">
@@ -33838,10 +35200,10 @@
       <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="34" t="s">
@@ -33853,10 +35215,10 @@
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="34" t="s">
@@ -33868,10 +35230,10 @@
       <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C68" s="34" t="s">
@@ -33883,10 +35245,10 @@
       <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="34" t="s">
@@ -33898,10 +35260,10 @@
       <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C70" s="34" t="s">
@@ -33913,10 +35275,10 @@
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="34" t="s">
@@ -33928,10 +35290,10 @@
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="34" t="s">
@@ -33943,10 +35305,10 @@
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C73" s="34" t="s">
@@ -33958,10 +35320,10 @@
       <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -33975,10 +35337,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C75" s="34" t="s">
@@ -33990,10 +35352,10 @@
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C76" s="34" t="s">
@@ -34007,10 +35369,10 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="34" t="s">
@@ -34024,28 +35386,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -34062,6 +35402,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
   <si>
     <t>I. CÁC ĐIỂM CẦN GHI NHỚ</t>
   </si>
@@ -732,6 +732,15 @@
   <si>
     <t>Proc_TB_DON_DAT_HANG_THANH_VIEN_UPDATE_STATUS_XAC_NHAN</t>
   </si>
+  <si>
+    <t>Thông báo giao hàng</t>
+  </si>
+  <si>
+    <t>Nếu thành viên đã xác nhận, cần phải bỏ xác nhận thì mới xoá phiếu được</t>
+  </si>
+  <si>
+    <t>Nếu làm sai, xoá phiếu làm lại</t>
+  </si>
 </sst>
 </file>
 
@@ -1154,79 +1163,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,79 +1272,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.8510638297872344</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8510638297872344</c:v>
+                  <c:v>4.9407337723424272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0695718654434252</c:v>
+                  <c:v>4.9407337723424272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1250898634076201</c:v>
+                  <c:v>4.9892280071813282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1250898634076201</c:v>
+                  <c:v>4.9892280071813282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1250898634076201</c:v>
+                  <c:v>4.8752978554408264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2270564242012236</c:v>
+                  <c:v>4.8752978554408264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2430093209054593</c:v>
+                  <c:v>4.7845804988662133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.241721854304636</c:v>
+                  <c:v>4.7845804988662133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2726089785296031</c:v>
+                  <c:v>4.6768465909090908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.256425948592411</c:v>
+                  <c:v>4.6768465909090908</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.256425948592411</c:v>
+                  <c:v>4.6768465909090908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2388825541619157</c:v>
+                  <c:v>4.6768465909090908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2591564927857934</c:v>
+                  <c:v>4.6768465909090908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2591564927857934</c:v>
+                  <c:v>4.5471821756225426</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2591564927857934</c:v>
+                  <c:v>4.6522796352583589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2591564927857934</c:v>
+                  <c:v>4.7345890410958908</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.6968056307525714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.6968056307525714</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.6968056307525714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.6968056307525714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.6431784107946026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.268763796909492</c:v>
+                  <c:v>4.699512195121951</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.699512195121951</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1581863979848865</c:v>
+                  <c:v>4.6265172735760975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15381,8 +15390,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -16336,8 +16345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:A22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16462,140 +16471,140 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>175</v>
+        <v>-114</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>0</v>
+        <v>-527.42296918767511</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>175</v>
+        <v>-114</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I4,$I$4:I4,"&gt;0"))</f>
-        <v>4.8510638297872344</v>
+        <v>5</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>0</v>
+        <v>-570</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-345.59848866498737</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>63</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>4.8510638297872344</v>
+        <v>4.9407337723424272</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-325.02127659574472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-4.6265172735760975</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>133</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.0695718654434252</v>
+        <v>4.9407337723424272</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-4.9407337723424272</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16603,11 +16612,11 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>498</v>
+        <v>306</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16615,7 +16624,7 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16623,12 +16632,12 @@
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>498</v>
+        <v>306</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.1250898634076201</v>
+        <v>4.9892280071813282</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16638,7 +16647,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-153</v>
+        <v>-13</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16650,15 +16659,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-789.20251889168765</v>
+        <v>-60.144724556489265</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-153</v>
+        <v>-13</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16671,115 +16680,115 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.1250898634076201</v>
+        <v>4.9892280071813282</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-784.13874910136587</v>
+        <v>-64.859964093357263</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-74</v>
+        <v>145</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-381.70579345088163</v>
+        <v>0</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>145</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.1250898634076201</v>
+        <v>4.8752978554408264</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-379.25664989216386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>-195</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-902.17086834733902</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>-195</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.2270564242012236</v>
+        <v>4.8752978554408264</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-950.6830818109612</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16787,20 +16796,20 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.2430093209054593</v>
+        <v>4.7845804988662133</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16810,62 +16819,62 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-57</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-263.71148459383755</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>-57</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.241721854304636</v>
+        <v>4.7845804988662133</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-272.72108843537416</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16873,20 +16882,20 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.2726089785296031</v>
+        <v>4.6768465909090908</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16896,50 +16905,50 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>-18</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-83.277310924369758</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>-18</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.256425948592411</v>
+        <v>4.6768465909090908</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-84.18323863636364</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-112</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16951,15 +16960,15 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-15.47455919395466</v>
+        <v>-518.16993464052291</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>-112</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16972,244 +16981,244 @@
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.256425948592411</v>
+        <v>4.6768465909090908</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.769277845777232</v>
+        <v>-523.80681818181813</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>-63</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-291.47058823529414</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>-63</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.2388825541619157</v>
+        <v>4.6768465909090908</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-294.64133522727275</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>-121</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-559.80859010270785</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>-121</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.2591564927857934</v>
+        <v>4.6768465909090908</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-565.8984375</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-27</v>
+        <v>118</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-139.27103274559192</v>
+        <v>0</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-27</v>
+        <v>118</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.2591564927857934</v>
+        <v>4.5471821756225426</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-141.99722530521643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-72</v>
+        <v>119</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-371.38942065491182</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>119</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.2591564927857934</v>
+        <v>4.6522796352583589</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-378.65926748057711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>107</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-36.107304785894208</v>
+        <v>0</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-7</v>
+        <v>107</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.2591564927857934</v>
+        <v>4.7345890410958908</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-36.814095449500556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17217,20 +17226,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.6968056307525714</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17240,7 +17249,7 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-162</v>
+        <v>-68</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -17252,15 +17261,15 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-835.62619647355166</v>
+        <v>-314.60317460317464</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-162</v>
+        <v>-68</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -17273,17 +17282,17 @@
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.6968056307525714</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-853.53973509933769</v>
+        <v>-319.38278289117488</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-34</v>
+        <v>-149</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -17295,15 +17304,15 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-175.37833753148615</v>
+        <v>-689.3510737628385</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-149</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -17316,17 +17325,17 @@
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.6968056307525714</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-179.13796909492274</v>
+        <v>-699.82403898213317</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-160</v>
+        <v>-122</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -17338,15 +17347,15 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-825.30982367758179</v>
+        <v>-564.4351073762839</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-160</v>
+        <v>-122</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -17359,183 +17368,183 @@
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.6968056307525714</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-843.00220750551875</v>
+        <v>-573.01028695181367</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>154</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-15.47455919395466</v>
+        <v>0</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>154</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.6431784107946026</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.806291390728475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-128</v>
+        <v>49</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-660.24785894206548</v>
+        <v>0</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-128</v>
+        <v>49</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.268763796909492</v>
+        <v>4.699512195121951</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-674.40176600441498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>-169</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-781.88141923436046</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>-169</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.1581863979848865</v>
+        <v>4.699512195121951</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-794.21756097560967</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-73</v>
+        <v>92</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-376.54760705289669</v>
+        <v>0</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-73</v>
+        <v>92</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-376.54760705289669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -17544,20 +17553,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>22</v>
+        <v>-60</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>5239</v>
+        <v>4910</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-4967.3335012594453</v>
+        <v>-5561.0737628384686</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -17565,20 +17574,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>22</v>
+        <v>-60</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>5239</v>
+        <v>4910</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-5004.0921178181652</v>
+        <v>-5718.1693674582211</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -33961,15 +33970,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1022</v>
+        <v>940</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>5271.6664987405538</v>
+        <v>4348.9262371615314</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -33979,15 +33988,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1022</v>
+        <v>940</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.1581863979848865</v>
+        <v>4.6265172735760975</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>5271.6664987405538</v>
+        <v>4348.9262371615314</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -33998,7 +34007,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>36.75861655871995</v>
+        <v>157.09560461975252</v>
       </c>
     </row>
   </sheetData>
@@ -34011,10 +34020,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -34165,6 +34174,21 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35386,6 +35410,28 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -35402,28 +35448,6 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId4"/>
     <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="8" r:id="rId5"/>
     <sheet name="USER_FLOW_KE_TOAN" sheetId="10" r:id="rId6"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId7"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId8"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId9"/>
+    <sheet name="USER_FLOW_DDH_THANH_VIEN" sheetId="11" r:id="rId7"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId8"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId9"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TABLE!$A$1:$E$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">USER_FLOW_KE_TOAN!$A$1:$AO$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">USER_FLOW_DDH_THANH_VIEN!$A$1:$AO$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">USER_FLOW_KE_TOAN!$A$1:$AO$36</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -1163,79 +1165,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,76 +1277,76 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9407337723424272</c:v>
+                  <c:v>5.0175879396984921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9407337723424272</c:v>
+                  <c:v>5.0175879396984921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9892280071813282</c:v>
+                  <c:v>5.0630114566284776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9892280071813282</c:v>
+                  <c:v>5.0630114566284776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8752978554408264</c:v>
+                  <c:v>5.0630114566284776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8752978554408264</c:v>
+                  <c:v>5.0630114566284776</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7845804988662133</c:v>
+                  <c:v>5.2256371814092955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7845804988662133</c:v>
+                  <c:v>5.2099023709902372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6768465909090908</c:v>
+                  <c:v>5.1325706594885601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6768465909090908</c:v>
+                  <c:v>5.0879120879120876</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6768465909090908</c:v>
+                  <c:v>5.0816195372750643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6768465909090908</c:v>
+                  <c:v>5.1608925425719319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6768465909090908</c:v>
+                  <c:v>5.194929577464789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5471821756225426</c:v>
+                  <c:v>5.1985417835109367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6522796352583589</c:v>
+                  <c:v>5.1464592274678109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7345890410958908</c:v>
+                  <c:v>5.1464592274678109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6968056307525714</c:v>
+                  <c:v>5.1948380566801617</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6968056307525714</c:v>
+                  <c:v>5.1943462897526498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6968056307525714</c:v>
+                  <c:v>5.1943462897526498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6968056307525714</c:v>
+                  <c:v>5.1943462897526498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6431784107946026</c:v>
+                  <c:v>5.3500922509225095</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.699512195121951</c:v>
+                  <c:v>5.3500922509225095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.699512195121951</c:v>
+                  <c:v>5.3931955211024976</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6265172735760975</c:v>
+                  <c:v>5.3628775834658189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,13 +5228,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>136060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>326570</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>163274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5241,7 +5243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176892" y="54429"/>
+          <a:off x="176892" y="5102667"/>
           <a:ext cx="3823607" cy="408214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5308,14 +5310,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171423</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166598</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5326,7 +5328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104214" y="552423"/>
+          <a:off x="104214" y="5750338"/>
           <a:ext cx="1736068" cy="1709675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5380,14 +5382,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>75161</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5396,7 +5398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4424972" y="453360"/>
+          <a:off x="4424972" y="5651275"/>
           <a:ext cx="2932182" cy="1907801"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -5442,14 +5444,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>138722</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73761</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5461,7 +5463,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4068538" y="1407260"/>
+          <a:off x="4068538" y="6605175"/>
           <a:ext cx="356434" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5492,14 +5494,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>394609</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5508,7 +5510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136321" y="835760"/>
+          <a:off x="2136321" y="6033675"/>
           <a:ext cx="1932217" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5554,14 +5556,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5570,8 +5572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13284139" y="835760"/>
-          <a:ext cx="2094700" cy="1423026"/>
+          <a:off x="12671818" y="6033675"/>
+          <a:ext cx="2094699" cy="1423026"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5616,14 +5618,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5632,7 +5634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8564726" y="835760"/>
+          <a:off x="8564726" y="6033675"/>
           <a:ext cx="1339504" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5680,14 +5682,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604547</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5699,7 +5701,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8297717" y="1407260"/>
+          <a:off x="8297717" y="6605175"/>
           <a:ext cx="267009" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5730,14 +5732,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73761</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5749,7 +5751,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1840282" y="1407260"/>
+          <a:off x="1840282" y="6605175"/>
           <a:ext cx="296039" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5780,14 +5782,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>425389</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23273</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50474</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5799,8 +5801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12668250" y="1407260"/>
-          <a:ext cx="615889" cy="140013"/>
+          <a:off x="12055928" y="6605175"/>
+          <a:ext cx="615890" cy="140013"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5830,14 +5832,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5846,7 +5848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18901614" y="835760"/>
+          <a:off x="18901614" y="6033675"/>
           <a:ext cx="2105905" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5892,14 +5894,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>70803</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73761</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23273</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50474</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5911,7 +5913,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15378839" y="1407261"/>
+          <a:off x="14766517" y="6605176"/>
           <a:ext cx="335044" cy="140012"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5942,14 +5944,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174734</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5958,7 +5960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15101561" y="163287"/>
+          <a:off x="15101561" y="5361202"/>
           <a:ext cx="2470019" cy="2487947"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -6004,14 +6006,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>531971</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6023,7 +6025,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18566570" y="1407260"/>
+          <a:off x="18566570" y="6605175"/>
           <a:ext cx="335044" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6054,14 +6056,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>194491</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>512738</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>194401</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>917</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6072,7 +6074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20401098" y="4690131"/>
+          <a:off x="20401098" y="9888046"/>
           <a:ext cx="1836874" cy="1815000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6122,14 +6124,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>500606</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1068559</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>512738</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6141,7 +6143,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21319535" y="3926059"/>
+          <a:off x="21319535" y="9123974"/>
           <a:ext cx="880518" cy="764072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6172,14 +6174,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>318568</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>483892</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>116486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>101362</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>29763</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6190,7 +6192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22362139" y="4661285"/>
+          <a:off x="22362139" y="9859200"/>
           <a:ext cx="1891902" cy="1872692"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6238,14 +6240,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1068559</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>39876</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>483892</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>116486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6257,7 +6259,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22200053" y="3926059"/>
+          <a:off x="22200053" y="9123974"/>
           <a:ext cx="1108037" cy="735226"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6288,14 +6290,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83285</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>337538</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>64235</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6304,7 +6306,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7637770" y="1226285"/>
+          <a:off x="7637770" y="6424200"/>
           <a:ext cx="659947" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6360,14 +6362,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9297</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>289913</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73761</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6379,7 +6381,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7357154" y="1407260"/>
+          <a:off x="7357154" y="6605175"/>
           <a:ext cx="280616" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6410,14 +6412,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83285</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>196927</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>64235</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6426,7 +6428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17906624" y="1226285"/>
+          <a:off x="17906624" y="6424200"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6482,14 +6484,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>426580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>149303</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73761</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6501,7 +6503,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17571580" y="1407260"/>
+          <a:off x="17571580" y="6605175"/>
           <a:ext cx="335044" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6532,14 +6534,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>121584</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>162392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6548,7 +6550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14620920" y="121584"/>
+          <a:off x="14620920" y="5319499"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6603,14 +6605,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>585152</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6622,7 +6624,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15280866" y="163287"/>
+          <a:off x="15280866" y="5361202"/>
           <a:ext cx="1055705" cy="139272"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6654,14 +6656,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248096</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>537527</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6673,8 +6675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14331489" y="302559"/>
-          <a:ext cx="901752" cy="533201"/>
+          <a:off x="13719167" y="5500474"/>
+          <a:ext cx="901753" cy="533201"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6705,14 +6707,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>102130</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>251415</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>74225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>588674</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6721,7 +6723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5613023" y="3108915"/>
+          <a:off x="5613023" y="8306830"/>
           <a:ext cx="584416" cy="337259"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6776,14 +6778,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380170</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>75161</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>251415</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6795,7 +6797,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5891063" y="2361161"/>
+          <a:off x="5891063" y="7559076"/>
           <a:ext cx="14168" cy="747754"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6827,14 +6829,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394337</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>588674</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394338</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113953</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6846,7 +6848,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5905230" y="3446174"/>
+          <a:off x="5905230" y="8644089"/>
           <a:ext cx="1" cy="845172"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6878,14 +6880,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>380997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6894,7 +6896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21342561" y="835760"/>
+          <a:off x="21342561" y="6033675"/>
           <a:ext cx="1694329" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6940,14 +6942,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>188590</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>523632</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6959,7 +6961,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21007519" y="1407260"/>
+          <a:off x="21007519" y="6605175"/>
           <a:ext cx="335042" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6990,14 +6992,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104853</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1068559</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7006,7 +7008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20723678" y="2581353"/>
+          <a:off x="20723678" y="7779268"/>
           <a:ext cx="2952749" cy="1344706"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7060,14 +7062,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>146155</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>156482</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104853</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7079,7 +7081,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22189726" y="1978760"/>
+          <a:off x="22189726" y="7176675"/>
           <a:ext cx="10327" cy="602593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7110,14 +7112,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>274019</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113953</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86739</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7126,7 +7128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172590" y="4291346"/>
+          <a:off x="5172590" y="9489261"/>
           <a:ext cx="1465280" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7180,14 +7182,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1123830</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15756</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7198,7 +7200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362691" y="3981330"/>
+          <a:off x="7362691" y="9179245"/>
           <a:ext cx="1792515" cy="1763033"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7248,14 +7250,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514656</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685453</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14834</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685454</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7267,7 +7269,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6637870" y="4862846"/>
+          <a:off x="6637870" y="10060761"/>
           <a:ext cx="724821" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7298,14 +7300,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7314,7 +7316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10599964" y="835760"/>
+          <a:off x="10599964" y="6033675"/>
           <a:ext cx="1455964" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7402,14 +7404,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>107087</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7421,7 +7423,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9904230" y="1407260"/>
+          <a:off x="9904230" y="6605175"/>
           <a:ext cx="695734" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7452,14 +7454,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1061357</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7468,7 +7470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9293680" y="2326821"/>
+          <a:off x="9293680" y="7515211"/>
           <a:ext cx="2326818" cy="1592036"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -7514,14 +7516,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>36494</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182740</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>84121</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163690</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7530,7 +7532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12895244" y="2468740"/>
+          <a:off x="12282923" y="7666655"/>
           <a:ext cx="659948" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7583,14 +7585,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>173215</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>36494</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265339</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7602,7 +7604,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12232819" y="2649715"/>
+          <a:off x="11620498" y="7847630"/>
           <a:ext cx="662425" cy="473124"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7633,14 +7635,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>84121</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248096</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>173215</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9916</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7652,8 +7654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13555192" y="2258786"/>
-          <a:ext cx="776297" cy="390929"/>
+          <a:off x="12942871" y="7456701"/>
+          <a:ext cx="776296" cy="390929"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7683,14 +7685,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>777451</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1139401</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7699,7 +7701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12269606" y="3634951"/>
+          <a:off x="12269606" y="8832866"/>
           <a:ext cx="659946" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7751,14 +7753,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>598712</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265339</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>958426</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33127</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7770,7 +7772,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11620498" y="3122839"/>
+          <a:off x="11620498" y="8320754"/>
           <a:ext cx="649108" cy="693087"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7802,14 +7804,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70802</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>958426</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>87534</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113953</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7821,7 +7823,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12929552" y="3815926"/>
+          <a:off x="12929552" y="9013841"/>
           <a:ext cx="629053" cy="475420"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7853,14 +7855,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685453</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685454</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7872,7 +7874,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9155206" y="4862846"/>
+          <a:off x="9155206" y="10060761"/>
           <a:ext cx="3356049" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7903,14 +7905,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174734</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>416214</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685453</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7922,7 +7924,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14605954" y="2651234"/>
+          <a:off x="14605954" y="7849149"/>
           <a:ext cx="1730617" cy="2211612"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7953,14 +7955,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113953</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>522561</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86739</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7969,7 +7971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12511255" y="4291346"/>
+          <a:off x="12511255" y="9489261"/>
           <a:ext cx="2094699" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8015,14 +8017,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265339</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>108859</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>685454</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8034,13 +8036,415 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9155206" y="3122839"/>
+          <a:off x="9155206" y="8320754"/>
           <a:ext cx="138474" cy="1740008"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23703643" y="5728595"/>
+          <a:ext cx="1034143" cy="680356"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>BP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>kế toán</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>380997</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="128" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23036890" y="6068773"/>
+          <a:ext cx="666753" cy="536402"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>101362</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="72" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24220715" y="6408951"/>
+          <a:ext cx="33326" cy="4386595"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383721</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193221</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7731578" y="11242209"/>
+          <a:ext cx="1034143" cy="680356"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>BP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>kế hoạch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288471</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298770</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8248650" y="10942278"/>
+          <a:ext cx="10299" cy="299931"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>127906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rounded Rectangle 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18497549" y="10469323"/>
+          <a:ext cx="1034143" cy="680356"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>BP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>giao nhận</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>194491</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="74" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19531692" y="10795546"/>
+          <a:ext cx="869406" cy="13955"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14176,14 +14580,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>68931</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>268213</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>64103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14194,7 +14598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104214" y="2735931"/>
+          <a:off x="104214" y="5049142"/>
           <a:ext cx="1736068" cy="1709675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14267,14 +14671,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16268</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56968</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>320875</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14285,7 +14689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955630" y="2683268"/>
+          <a:off x="4955630" y="4996479"/>
           <a:ext cx="1836874" cy="1815000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14354,14 +14758,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>733268</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>733269</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175373</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14373,7 +14777,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1840282" y="3590768"/>
+          <a:off x="1840282" y="5903979"/>
           <a:ext cx="3115348" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -14404,14 +14808,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>640064</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56968</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128243</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14422,7 +14826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955630" y="4817457"/>
+          <a:off x="4955630" y="7130668"/>
           <a:ext cx="1836874" cy="1815000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14491,14 +14895,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66431</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>56968</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166931</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14509,7 +14913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955630" y="6951645"/>
+          <a:off x="4955630" y="9264856"/>
           <a:ext cx="1836874" cy="1815000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14806,14 +15210,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119094</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114269</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14824,7 +15228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104214" y="7004308"/>
+          <a:off x="104214" y="9317519"/>
           <a:ext cx="1736068" cy="1709675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14897,14 +15301,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14916,7 +15320,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1840282" y="7859145"/>
+          <a:off x="1840282" y="10172356"/>
           <a:ext cx="3115348" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -14947,14 +15351,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>692727</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>75581</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14965,7 +15369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104214" y="4870120"/>
+          <a:off x="104214" y="7183331"/>
           <a:ext cx="1736068" cy="1709675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -15038,14 +15442,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3318</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>186850</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57059</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>186851</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15057,7 +15461,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1840282" y="5724957"/>
+          <a:off x="1840282" y="8038168"/>
           <a:ext cx="3115348" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15088,6 +15492,400 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="176892" y="54429"/>
+          <a:ext cx="3807278" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ĐƠN ĐẶT HÀNG TV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104214" y="601742"/>
+          <a:ext cx="1727904" cy="1709675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đơn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> đặt hàng LA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68038</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3034392" y="884465"/>
+          <a:ext cx="1932217" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Xác</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> nhận TBGH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177401</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>103763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6857999" y="517071"/>
+          <a:ext cx="1891902" cy="1872692"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Nhận</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1840282" y="1455965"/>
+          <a:ext cx="1194110" cy="615"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68038</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4966609" y="1453417"/>
+          <a:ext cx="1891390" cy="2548"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15635,6 +16433,1264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="38"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="38"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="38"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="38"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="38"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="38"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="37"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="37"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="37"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="38"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="37"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E77"/>
+  <mergeCells count="38">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -15775,6 +17831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16300,10 +18357,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A16:A22"/>
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16311,9 +18368,7 @@
     <col min="40" max="40" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16343,10 +18398,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:A22"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16354,9 +18410,7 @@
     <col min="40" max="40" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16366,12 +18420,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="40" max="40" width="4" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16471,39 +18545,39 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>-114</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
-        <v>-527.42296918767511</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>-114</v>
+        <v>173</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
@@ -16512,25 +18586,25 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M28" ca="1" si="8">IF(I4&lt;0,I4*L4,0)</f>
-        <v>-570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16538,20 +18612,20 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>4.9407337723424272</v>
+        <v>5.0175879396984921</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16561,7 +18635,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-110</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16573,15 +18647,15 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.6265172735760975</v>
+        <v>-589.91653418124008</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>-110</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16594,29 +18668,29 @@
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>4.9407337723424272</v>
+        <v>5.0175879396984921</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.9407337723424272</v>
+        <v>-551.93467336683409</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16624,20 +18698,20 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>4.9892280071813282</v>
+        <v>5.0630114566284776</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16647,7 +18721,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-148</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16659,15 +18733,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-60.144724556489265</v>
+        <v>-793.70588235294122</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-13</v>
+        <v>-148</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16680,60 +18754,60 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>4.9892280071813282</v>
+        <v>5.0630114566284776</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-64.859964093357263</v>
+        <v>-749.32569558101466</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>-38</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-203.78934817170111</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>145</v>
+        <v>-38</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>4.8752978554408264</v>
+        <v>5.0630114566284776</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-192.39443535188215</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-195</v>
+        <v>-137</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16745,15 +18819,15 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-902.17086834733902</v>
+        <v>-734.71422893481724</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-195</v>
+        <v>-137</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16766,29 +18840,29 @@
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>4.8752978554408264</v>
+        <v>5.0630114566284776</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-950.6830818109612</v>
+        <v>-693.63256955810141</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>784</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16796,20 +18870,20 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>192</v>
+        <v>784</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>4.7845804988662133</v>
+        <v>5.2256371814092955</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16819,50 +18893,50 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-57</v>
+        <v>100</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-263.71148459383755</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>100</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>4.7845804988662133</v>
+        <v>5.2099023709902372</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-272.72108843537416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -16870,11 +18944,11 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -16882,7 +18956,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -16890,12 +18964,12 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>4.6768465909090908</v>
+        <v>5.1325706594885601</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -16905,191 +18979,191 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-18</v>
+        <v>61</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-83.277310924369758</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-18</v>
+        <v>61</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>4.6768465909090908</v>
+        <v>5.0879120879120876</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-84.18323863636364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-112</v>
+        <v>9</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-518.16993464052291</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-112</v>
+        <v>9</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>4.6768465909090908</v>
+        <v>5.0816195372750643</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-523.80681818181813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-63</v>
+        <v>147</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-291.47058823529414</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-63</v>
+        <v>147</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>4.6768465909090908</v>
+        <v>5.1608925425719319</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-294.64133522727275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-121</v>
+        <v>72</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-559.80859010270785</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-121</v>
+        <v>72</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>4.6768465909090908</v>
+        <v>5.194929577464789</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-565.8984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17097,20 +19171,20 @@
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>4.5471821756225426</v>
+        <v>5.1985417835109367</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17120,19 +19194,19 @@
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>324</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17140,20 +19214,20 @@
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>714</v>
+        <v>324</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>4.6522796352583589</v>
+        <v>5.1464592274678109</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17163,62 +19237,62 @@
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>-156</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-836.60890302066775</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>-156</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>4.7345890410958908</v>
+        <v>5.1464592274678109</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-802.84763948497846</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>380</v>
+        <v>672</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17226,20 +19300,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>380</v>
+        <v>672</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>4.6968056307525714</v>
+        <v>5.1948380566801617</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17249,50 +19323,50 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-68</v>
+        <v>5</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-314.60317460317464</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-68</v>
+        <v>5</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>4.6968056307525714</v>
+        <v>5.1943462897526498</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-319.38278289117488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-149</v>
+        <v>-53</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -17304,15 +19378,15 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-689.3510737628385</v>
+        <v>-284.23251192368838</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-149</v>
+        <v>-53</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -17325,17 +19399,17 @@
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>4.6968056307525714</v>
+        <v>5.1943462897526498</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-699.82403898213317</v>
+        <v>-275.30035335689041</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-122</v>
+        <v>-83</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -17347,15 +19421,15 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-564.4351073762839</v>
+        <v>-445.11883942766298</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-122</v>
+        <v>-83</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -17368,29 +19442,29 @@
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>4.6968056307525714</v>
+        <v>5.1943462897526498</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-573.01028695181367</v>
+        <v>-431.13074204946992</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>616</v>
+        <v>1309</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17398,20 +19472,20 @@
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>616</v>
+        <v>1309</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>4.6431784107946026</v>
+        <v>5.3500922509225095</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17421,105 +19495,105 @@
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>-126</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-675.72257551669315</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>-126</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>4.699512195121951</v>
+        <v>5.3500922509225095</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-674.11162361623622</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-169</v>
+        <v>154</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-781.88141923436046</v>
+        <v>0</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-169</v>
+        <v>154</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>4.699512195121951</v>
+        <v>5.3931955211024976</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-794.21756097560967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>970</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -17527,20 +19601,20 @@
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>276</v>
+        <v>970</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -17553,20 +19627,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>-60</v>
+        <v>665</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>4.416666666666667</v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>4910</v>
+        <v>8493</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-5561.0737628384686</v>
+        <v>-4563.8088235294117</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -17574,20 +19648,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>-60</v>
+        <v>665</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>4.416666666666667</v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>4910</v>
+        <v>8493</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-5718.1693674582211</v>
+        <v>-4370.6777323654078</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -33970,15 +36044,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>940</v>
+        <v>1665</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>4348.9262371615314</v>
+        <v>8929.1911764705892</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -33988,15 +36062,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>940</v>
+        <v>1665</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>4.6265172735760975</v>
+        <v>5.3628775834658189</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>4348.9262371615314</v>
+        <v>8929.1911764705892</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -34007,7 +36081,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>157.09560461975252</v>
+        <v>-193.13109116400392</v>
       </c>
     </row>
   </sheetData>
@@ -34017,12 +36091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -34194,1262 +36268,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54.7109375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="37"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="37"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="37"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="37"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="37"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="37"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="37"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="37"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="38"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="38"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="38"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="38"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="38"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="37"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E77"/>
-  <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
+++ b/VB05_QUAN_LY_KHO/NHAT_KY_THIET_KE_DATABASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QUAN_LY_TON_KHO_DINH_MUC" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,22 @@
     <sheet name="TABLE" sheetId="9" r:id="rId3"/>
     <sheet name="USER_FLOW_BP_KINH_DOANH" sheetId="6" r:id="rId4"/>
     <sheet name="USER_FLOW_BP_KE_HOACH" sheetId="8" r:id="rId5"/>
-    <sheet name="USER_FLOW_KE_TOAN" sheetId="10" r:id="rId6"/>
-    <sheet name="USER_FLOW_DDH_THANH_VIEN" sheetId="11" r:id="rId7"/>
-    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId8"/>
-    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId9"/>
-    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId10"/>
+    <sheet name="USER_FLOW_BP_KE_HOACH_NEW" sheetId="12" r:id="rId6"/>
+    <sheet name="USER_FLOW_KE_TOAN" sheetId="10" r:id="rId7"/>
+    <sheet name="USER_FLOW_DDH_THANH_VIEN" sheetId="11" r:id="rId8"/>
+    <sheet name="PP_TINH_GIA_XUAT_KHO" sheetId="3" r:id="rId9"/>
+    <sheet name="HUONG_DAN_NGHIEP_VU" sheetId="4" r:id="rId10"/>
+    <sheet name="PHAN_QUYEN" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PHAN_QUYEN!$A$1:$E$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TABLE!$A$1:$E$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">HUONG_DAN_NGHIEP_VU!$A$1:$B$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">USER_FLOW_BP_KE_HOACH!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">USER_FLOW_BP_KE_HOACH_NEW!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">USER_FLOW_BP_KINH_DOANH!$A$1:$AO$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">USER_FLOW_DDH_THANH_VIEN!$A$1:$AO$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">USER_FLOW_KE_TOAN!$A$1:$AO$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">USER_FLOW_DDH_THANH_VIEN!$A$1:$AO$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">USER_FLOW_KE_TOAN!$A$1:$AO$36</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -1165,79 +1167,79 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,76 +1279,76 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0175879396984921</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0175879396984921</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0630114566284776</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0630114566284776</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0630114566284776</c:v>
+                  <c:v>5.0811638591117916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0630114566284776</c:v>
+                  <c:v>5.0811638591117916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2256371814092955</c:v>
+                  <c:v>5.1879971077368037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2099023709902372</c:v>
+                  <c:v>5.2860775588048314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1325706594885601</c:v>
+                  <c:v>5.2860775588048314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0879120879120876</c:v>
+                  <c:v>5.2860775588048314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0816195372750643</c:v>
+                  <c:v>5.1675708257986743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1608925425719319</c:v>
+                  <c:v>5.1595866819747416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.194929577464789</c:v>
+                  <c:v>5.1595866819747416</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1985417835109367</c:v>
+                  <c:v>5.1595866819747416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1464592274678109</c:v>
+                  <c:v>5.2216905901116428</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1464592274678109</c:v>
+                  <c:v>5.2216905901116428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1948380566801617</c:v>
+                  <c:v>5.3190954773869343</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1943462897526498</c:v>
+                  <c:v>5.4086584205518555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1943462897526498</c:v>
+                  <c:v>5.4086584205518555</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1943462897526498</c:v>
+                  <c:v>5.3664051684356249</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3500922509225095</c:v>
+                  <c:v>5.3664051684356249</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3500922509225095</c:v>
+                  <c:v>5.307830783078308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3931955211024976</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3628775834658189</c:v>
+                  <c:v>5.3452532992762878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14160,6 +14162,5596 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>415630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="428" name="Straight Arrow Connector 427"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="419" idx="3"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16902546" y="1654320"/>
+          <a:ext cx="1091039" cy="1549545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>502226</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>274555</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22323135" y="1537011"/>
+          <a:ext cx="2196875" cy="6349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>239391</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>274555</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22666436" y="3254090"/>
+          <a:ext cx="1853574" cy="1506532"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510473</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>407951</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>169716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 1253"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9602518" y="3758048"/>
+          <a:ext cx="19293842" cy="7841668"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238870" y="1525300"/>
+          <a:ext cx="800405" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407906</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299049" y="86591"/>
+          <a:ext cx="3766457" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BỘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PHẬN KẾ HOẠCH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260392</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410070</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="260392" y="545748"/>
+          <a:ext cx="1978478" cy="1959104"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DNSX-001</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>277112</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13933</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11793703" y="1032970"/>
+          <a:ext cx="2767503" cy="958621"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kiểm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> tra tồn kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>592840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Diamond 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15140113" y="796539"/>
+          <a:ext cx="1935614" cy="1385552"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>ĐỦ chi tiết</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95243</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>129880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17673198" y="1292370"/>
+          <a:ext cx="640773" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78452</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1896861" y="2562777"/>
+          <a:ext cx="578233" cy="337259"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367569</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="900545" y="2900036"/>
+          <a:ext cx="1285433" cy="812982"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344177</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82911</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7891898" y="1583874"/>
+          <a:ext cx="332052" cy="23037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17075727" y="1473345"/>
+          <a:ext cx="597471" cy="15970"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50549</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>348375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64407</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2475094" y="2182091"/>
+          <a:ext cx="13632826" cy="549316"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344177</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>189019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488357</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223950" y="1141519"/>
+          <a:ext cx="3174862" cy="884709"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ cho chi tiết</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>129880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7944</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18313971" y="1473345"/>
+          <a:ext cx="1090337" cy="63666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13933</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>592840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14561206" y="1489315"/>
+          <a:ext cx="578907" cy="22966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>223870</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>98720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27196473" y="8272903"/>
+          <a:ext cx="303533" cy="17317"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>578892</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>578893</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28461165" y="8943124"/>
+          <a:ext cx="1" cy="402703"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>436418</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>257004</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27106418" y="10071088"/>
+          <a:ext cx="426722" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7944</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>502226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19404308" y="86587"/>
+          <a:ext cx="2918827" cy="2900847"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sản xuất thành phẩm (trạng thái: đủ hàng, SX ngay)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>574408</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13155545" y="4277590"/>
+          <a:ext cx="2572272" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Kiểm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> tra tồn kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Diamond 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16053954" y="3854361"/>
+          <a:ext cx="2286000" cy="1907801"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>ĐỦ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> NVL 100%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>411301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>458926</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18595392" y="4627286"/>
+          <a:ext cx="653761" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>574408</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15727817" y="4753840"/>
+          <a:ext cx="326137" cy="54422"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>411301</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18339954" y="4808261"/>
+          <a:ext cx="255438" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>458926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45761</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19249153" y="4760622"/>
+          <a:ext cx="493574" cy="47639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>239391</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>355058</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22666436" y="4760622"/>
+          <a:ext cx="1934077" cy="1784502"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>239391</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19742727" y="3307771"/>
+          <a:ext cx="2923709" cy="2905702"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sản xuất tổng phần chi tiết còn thiếu</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(trạng thái: đủ hàng, SX ngay)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>427760</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>130452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>445078</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25885487" y="10798452"/>
+          <a:ext cx="17318" cy="352235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20768</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10165773" y="4459114"/>
+          <a:ext cx="2583859" cy="563158"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Giữ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chỗ cho NVL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20768</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426681</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12749632" y="4740693"/>
+          <a:ext cx="405913" cy="13147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>102466</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142967</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30704</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26772466" y="11984187"/>
+          <a:ext cx="646637" cy="48017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>502226</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>437303</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22323135" y="1537011"/>
+          <a:ext cx="3571895" cy="4210327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314469</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>286566</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15467878" y="5745860"/>
+          <a:ext cx="578233" cy="337259"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>286566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16046111" y="5762162"/>
+          <a:ext cx="1150843" cy="152328"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155862</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314469</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5004953" y="5914490"/>
+          <a:ext cx="10462925" cy="1628444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243685</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186537</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rounded Rectangle 52"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455958" y="8971558"/>
+          <a:ext cx="1761261" cy="1763033"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Đề nghị mua</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> NVL 02</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518180</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350593</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2336589" y="8104911"/>
+          <a:ext cx="1650822" cy="866647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72366</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1284639" y="8156864"/>
+          <a:ext cx="1051950" cy="814694"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214004</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="214004" y="6918614"/>
+          <a:ext cx="2141269" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng đề nghị mua NVL 01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545323</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155862</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rounded Rectangle 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969868" y="6980957"/>
+          <a:ext cx="2035085" cy="1123954"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> đề nghị mua NVL 02</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352072</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>148935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510473</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019572" y="11007435"/>
+          <a:ext cx="2582946" cy="1184561"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xác định ngày</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mua xong 02</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186537</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>137575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352072</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>169716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217219" y="9853075"/>
+          <a:ext cx="3802353" cy="1746641"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>378054</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27102954" y="2523531"/>
+          <a:ext cx="551236" cy="730559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>378054</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27102954" y="1543360"/>
+          <a:ext cx="551236" cy="980171"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10893137" y="8711043"/>
+          <a:ext cx="2407228" cy="1645228"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hệ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> thống báo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NVL nhập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kho tự động</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>355058</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13300365" y="6545124"/>
+          <a:ext cx="11300148" cy="2988533"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Diamond 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51954" y="3713018"/>
+          <a:ext cx="1697182" cy="2078182"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>Thiếu chi tiết là NVL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571191</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12679</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571191" y="6148696"/>
+          <a:ext cx="653761" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291936</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="898072" y="5791200"/>
+          <a:ext cx="2473" cy="357496"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291936</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72366</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898072" y="6510646"/>
+          <a:ext cx="386567" cy="407968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89119</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29444</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82911</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4938210" y="1525301"/>
+          <a:ext cx="546461" cy="81610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89119</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rounded Rectangle 77"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3039275" y="568342"/>
+          <a:ext cx="1926644" cy="1913917"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KHSX-001</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>437303</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>453737</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25895030" y="7342909"/>
+          <a:ext cx="16434" cy="242454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397386</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517745</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5246477" y="3730076"/>
+          <a:ext cx="1938768" cy="1913917"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KHSX-CT-001</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517745</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133354</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7185245" y="4687035"/>
+          <a:ext cx="221745" cy="37364"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29444</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>131186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rounded Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5484671" y="1083686"/>
+          <a:ext cx="2407227" cy="1046450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kê chi tiết từ định mức</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488357</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>277112</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11398812" y="1512281"/>
+          <a:ext cx="394891" cy="71593"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133354</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116035</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rounded Rectangle 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406990" y="4114797"/>
+          <a:ext cx="2407227" cy="1219203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bảng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kê NVL từ định mức</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168693</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9814217" y="4724399"/>
+          <a:ext cx="351556" cy="16294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455835</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320752</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>117761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rounded Rectangle 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1061971" y="11326090"/>
+          <a:ext cx="2895599" cy="793171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NVL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> về nhập kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85226</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336589" y="10734591"/>
+          <a:ext cx="173182" cy="591499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320752</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>102176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="3"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3957570" y="9533657"/>
+          <a:ext cx="6935567" cy="2189019"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="154" name="Group 153"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24332045" y="173183"/>
+          <a:ext cx="6026728" cy="3983181"/>
+          <a:chOff x="24522544" y="69273"/>
+          <a:chExt cx="6026728" cy="3983181"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="Rounded Rectangle 152"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24522544" y="69273"/>
+            <a:ext cx="6026728" cy="3983181"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 8717"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Xác</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> định ngày hoàn thành</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24710509" y="748765"/>
+            <a:ext cx="2582944" cy="1381369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Xác định ngày hoàn thành toàn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> bộ DNSX</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24710509" y="2490360"/>
+            <a:ext cx="2582944" cy="1319640"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Xác định ngày hoàn thành sản</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> xuất chi tiết</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27844689" y="1185104"/>
+            <a:ext cx="2484339" cy="2469034"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ngày</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> hoàn thành sản xuất (bằng tổng 3 ngày)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="156" name="Group 155"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24401320" y="5039591"/>
+          <a:ext cx="5559136" cy="8052955"/>
+          <a:chOff x="24054955" y="4987635"/>
+          <a:chExt cx="5559136" cy="8052955"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="Rounded Rectangle 154"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24054955" y="4987635"/>
+            <a:ext cx="5559136" cy="8052955"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 8717"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Kế</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> hoạch sản xuất</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24280090" y="7533407"/>
+            <a:ext cx="2570018" cy="1409713"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Các</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> phiếu đề nghị xuất kho phần có sẵn (nhiều đợt)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27153641" y="7550726"/>
+            <a:ext cx="1922318" cy="1340442"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Kế</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> toán làm phiếu xuất kho</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27186775" y="9293871"/>
+            <a:ext cx="1856051" cy="1450522"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Đưa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> NVL về tồn tại xưởng</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24652142" y="11098731"/>
+            <a:ext cx="1773959" cy="1763033"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Kế</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> hoạch SX tuần</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24352826" y="9291769"/>
+            <a:ext cx="2407227" cy="1454727"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Bỏ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> g</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>iữ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> chỗ các kho theo số lượng đã giao</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27072738" y="11222189"/>
+            <a:ext cx="2039124" cy="1420084"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Đánh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> dấu DNSX đã hoàn thành </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="Rounded Rectangle 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24254148" y="5695382"/>
+            <a:ext cx="2589033" cy="1595571"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Bảng</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> đề nghị xuất kho so sánh với tồn kho khả dụng</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494455</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="Diamond 267"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1939637" y="3674917"/>
+          <a:ext cx="2191636" cy="2078182"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>Thiếu chi tiết là Chi tiết</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161052</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="Rounded Rectangle 268"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4369370" y="4510089"/>
+          <a:ext cx="640773" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126415</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="Straight Arrow Connector 269"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="268" idx="3"/>
+          <a:endCxn id="269" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4131273" y="4691064"/>
+          <a:ext cx="238097" cy="22944"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397386</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="Straight Arrow Connector 270"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="269" idx="3"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5010143" y="4687035"/>
+          <a:ext cx="236334" cy="4029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367569</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4773</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="Straight Arrow Connector 276"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="268" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2185978" y="2900036"/>
+          <a:ext cx="849477" cy="774881"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="Rounded Rectangle 418"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13646727" y="2580410"/>
+          <a:ext cx="3255819" cy="1246909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> lệnh SX có trạng thái: chưa đủ NVL, đợi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367569</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="420" name="Straight Arrow Connector 419"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="419" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2185978" y="2900036"/>
+          <a:ext cx="11460749" cy="303829"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>516082</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>135082</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="Rounded Rectangle 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16275627" y="6473538"/>
+          <a:ext cx="3255819" cy="1246909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> lệnh SX có trạng thái: chưa đủ NVL, đợi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>603586</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>516082</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="434" name="Straight Arrow Connector 433"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="433" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15756995" y="6083119"/>
+          <a:ext cx="518632" cy="1013874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>325582</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>132046</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="435" name="Straight Arrow Connector 434"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="433" idx="0"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17903537" y="4989236"/>
+          <a:ext cx="1018736" cy="1484302"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176892</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -15491,7 +21083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15885,7 +21477,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16435,6 +22027,185 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="101" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.85546875" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
@@ -17647,28 +23418,6 @@
   </sheetData>
   <autoFilter ref="A1:E77"/>
   <mergeCells count="38">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="B74:B77"/>
     <mergeCell ref="A70:A73"/>
@@ -17685,6 +23434,28 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18398,6 +24169,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AK43" sqref="AK43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A20"/>
   <sheetViews>
@@ -18418,7 +24208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
@@ -18438,12 +24228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XER34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
@@ -18545,7 +24335,7 @@
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B28" ca="1" si="0">RANDBETWEEN(-200,200)</f>
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C28" ca="1" si="1">IF(B4&lt;0,0,RANDBETWEEN($C$3-2,$C$3+2))</f>
@@ -18553,12 +24343,12 @@
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D28" ca="1" si="2">+IF(B4&lt;0,0,B4*C4)</f>
-        <v>865</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E28" ca="1" si="3">($D$3+SUMIFS($D$4:$D$28,$B$4:$B$28,"&gt;0"))/
 ($B$3+SUMIFS($B$4:$B$28,$B$4:$B$28,"&gt;0"))</f>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" ref="F4:F28" ca="1" si="4">IF(B4&lt;0,B4*E4,0)</f>
@@ -18569,7 +24359,7 @@
       </c>
       <c r="I4" s="21">
         <f t="shared" ref="I4:I28" ca="1" si="5">+B4</f>
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" ref="J4:J28" ca="1" si="6">+C4</f>
@@ -18577,7 +24367,7 @@
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K28" ca="1" si="7">+IF(I4&lt;0,0,I4*J4)</f>
-        <v>865</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="13">
         <f ca="1">($K$3+SUMIFS($K$4:K4,$I$4:I4,"&gt;0"))/
@@ -18592,50 +24382,50 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>-7</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-37.416773094934015</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>-7</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K5,$I$4:I5,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I5,$I$4:I5,"&gt;0"))</f>
-        <v>5.0175879396984921</v>
+        <v>5</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-110</v>
+        <v>-146</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -18647,15 +24437,15 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-589.91653418124008</v>
+        <v>-780.40698169433801</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-110</v>
+        <v>-146</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -18668,60 +24458,60 @@
       <c r="L6" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K6,$I$4:I6,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I6,$I$4:I6,"&gt;0"))</f>
-        <v>5.0175879396984921</v>
+        <v>5</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-551.93467336683409</v>
+        <v>-730</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>-69</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-368.82247765006383</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>-69</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K7,$I$4:I7,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I7,$I$4:I7,"&gt;0"))</f>
-        <v>5.0630114566284776</v>
+        <v>5</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-148</v>
+        <v>-173</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -18733,15 +24523,15 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-793.70588235294122</v>
+        <v>-924.72882077479778</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-148</v>
+        <v>-173</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -18754,60 +24544,60 @@
       <c r="L8" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K8,$I$4:I8,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I8,$I$4:I8,"&gt;0"))</f>
-        <v>5.0630114566284776</v>
+        <v>5</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-749.32569558101466</v>
+        <v>-865</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-38</v>
+        <v>106</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-203.78934817170111</v>
+        <v>0</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-38</v>
+        <v>106</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K9,$I$4:I9,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I9,$I$4:I9,"&gt;0"))</f>
-        <v>5.0630114566284776</v>
+        <v>5.0811638591117916</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-192.39443535188215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-137</v>
+        <v>-145</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -18819,15 +24609,15 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-734.71422893481724</v>
+        <v>-775.06172839506178</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-137</v>
+        <v>-145</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -18840,17 +24630,17 @@
       <c r="L10" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K10,$I$4:I10,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I10,$I$4:I10,"&gt;0"))</f>
-        <v>5.0630114566284776</v>
+        <v>5.0811638591117916</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-693.63256955810141</v>
+        <v>-736.76875957120978</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -18858,11 +24648,11 @@
       </c>
       <c r="D11" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>784</v>
+        <v>539</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -18870,7 +24660,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -18878,12 +24668,12 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>784</v>
+        <v>539</v>
       </c>
       <c r="L11" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K11,$I$4:I11,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I11,$I$4:I11,"&gt;0"))</f>
-        <v>5.2256371814092955</v>
+        <v>5.1879971077368037</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -18893,19 +24683,19 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -18913,20 +24703,20 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>500</v>
+        <v>1140</v>
       </c>
       <c r="L12" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K12,$I$4:I12,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I12,$I$4:I12,"&gt;0"))</f>
-        <v>5.2099023709902372</v>
+        <v>5.2860775588048314</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -18936,105 +24726,105 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>-69</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-368.82247765006383</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>-69</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K13,$I$4:I13,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I13,$I$4:I13,"&gt;0"))</f>
-        <v>5.1325706594885601</v>
+        <v>5.2860775588048314</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-364.73935155753338</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>-43</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-229.84589186888039</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>-43</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K14,$I$4:I14,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I14,$I$4:I14,"&gt;0"))</f>
-        <v>5.0879120879120876</v>
+        <v>5.2860775588048314</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-227.30133502860775</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19042,20 +24832,20 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="L15" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K15,$I$4:I15,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I15,$I$4:I15,"&gt;0"))</f>
-        <v>5.0816195372750643</v>
+        <v>5.1675708257986743</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19065,19 +24855,19 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>882</v>
+        <v>415</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19085,20 +24875,20 @@
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>882</v>
+        <v>415</v>
       </c>
       <c r="L16" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K16,$I$4:I16,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I16,$I$4:I16,"&gt;0"))</f>
-        <v>5.1608925425719319</v>
+        <v>5.1595866819747416</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19108,105 +24898,105 @@
     <row r="17" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>-49</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-261.91741166453812</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>-49</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="L17" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K17,$I$4:I17,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I17,$I$4:I17,"&gt;0"))</f>
-        <v>5.194929577464789</v>
+        <v>5.1595866819747416</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-252.81974741676234</v>
       </c>
     </row>
     <row r="18" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-159</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-849.89527458492978</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>-159</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L18" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K18,$I$4:I18,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I18,$I$4:I18,"&gt;0"))</f>
-        <v>5.1985417835109367</v>
+        <v>5.1595866819747416</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-820.37428243398392</v>
       </c>
     </row>
     <row r="19" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>324</v>
+        <v>834</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19214,20 +25004,20 @@
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>324</v>
+        <v>834</v>
       </c>
       <c r="L19" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K19,$I$4:I19,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I19,$I$4:I19,"&gt;0"))</f>
-        <v>5.1464592274678109</v>
+        <v>5.2216905901116428</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19237,7 +25027,7 @@
     <row r="20" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-156</v>
+        <v>-125</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -19249,15 +25039,15 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-836.60890302066775</v>
+        <v>-668.15666240953601</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-156</v>
+        <v>-125</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -19270,29 +25060,29 @@
       <c r="L20" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K20,$I$4:I20,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I20,$I$4:I20,"&gt;0"))</f>
-        <v>5.1464592274678109</v>
+        <v>5.2216905901116428</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-802.84763948497846</v>
+        <v>-652.71132376395531</v>
       </c>
     </row>
     <row r="21" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19300,20 +25090,20 @@
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="L21" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K21,$I$4:I21,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I21,$I$4:I21,"&gt;0"))</f>
-        <v>5.1948380566801617</v>
+        <v>5.3190954773869343</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19323,19 +25113,19 @@
     <row r="22" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>784</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19343,20 +25133,20 @@
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>784</v>
       </c>
       <c r="L22" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K22,$I$4:I22,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I22,$I$4:I22,"&gt;0"))</f>
-        <v>5.1943462897526498</v>
+        <v>5.4086584205518555</v>
       </c>
       <c r="M22" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19366,7 +25156,7 @@
     <row r="23" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-53</v>
+        <v>-5</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -19378,15 +25168,15 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-284.23251192368838</v>
+        <v>-26.726266496381438</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-53</v>
+        <v>-5</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -19399,146 +25189,146 @@
       <c r="L23" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K23,$I$4:I23,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I23,$I$4:I23,"&gt;0"))</f>
-        <v>5.1943462897526498</v>
+        <v>5.4086584205518555</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-275.30035335689041</v>
+        <v>-27.043292102759278</v>
       </c>
     </row>
     <row r="24" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-83</v>
+        <v>65</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-445.11883942766298</v>
+        <v>0</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-83</v>
+        <v>65</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L24" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K24,$I$4:I24,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I24,$I$4:I24,"&gt;0"))</f>
-        <v>5.1943462897526498</v>
+        <v>5.3664051684356249</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-431.13074204946992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>-33</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-176.3933588761175</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>-33</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="L25" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K25,$I$4:I25,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I25,$I$4:I25,"&gt;0"))</f>
-        <v>5.3500922509225095</v>
+        <v>5.3664051684356249</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-177.09137055837562</v>
       </c>
     </row>
     <row r="26" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-126</v>
+        <v>55</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-675.72257551669315</v>
+        <v>0</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-126</v>
+        <v>55</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K26,$I$4:I26,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I26,$I$4:I26,"&gt;0"))</f>
-        <v>5.3500922509225095</v>
+        <v>5.307830783078308</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-674.11162361623622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16372" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -19546,11 +25336,11 @@
       </c>
       <c r="D27" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>924</v>
+        <v>762</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F27" s="18">
         <f t="shared" ca="1" si="4"/>
@@ -19558,7 +25348,7 @@
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" ca="1" si="6"/>
@@ -19566,12 +25356,12 @@
       </c>
       <c r="K27" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>924</v>
+        <v>762</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K27,$I$4:I27,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I27,$I$4:I27,"&gt;0"))</f>
-        <v>5.3931955211024976</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" ca="1" si="8"/>
@@ -19581,44 +25371,44 @@
     <row r="28" spans="1:16372" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>-71</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-379.51298424861642</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>194</v>
+        <v>-71</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f ca="1">($K$3+SUMIFS($K$4:K28,$I$4:I28,"&gt;0"))/
 ($I$3+SUMIFS($I$4:I28,$I$4:I28,"&gt;0"))</f>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-379.51298424861642</v>
       </c>
     </row>
     <row r="29" spans="1:16372" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -19627,20 +25417,20 @@
       </c>
       <c r="B29" s="15">
         <f ca="1">+SUM(B4:B28)</f>
-        <v>665</v>
+        <v>255</v>
       </c>
       <c r="C29" s="13">
         <f ca="1">+SUMIFS(C4:C28,C4:C28,"&gt;0")/COUNTIFS(C4:C28,"&gt;0")</f>
-        <v>5.4117647058823533</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D29" s="13">
         <f ca="1">+SUM(D4:D28)</f>
-        <v>8493</v>
+        <v>7556</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <f ca="1">+SUM(F4:F28)</f>
-        <v>-4563.8088235294117</v>
+        <v>-5847.7071094082594</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16" t="s">
@@ -19648,20 +25438,20 @@
       </c>
       <c r="I29" s="15">
         <f ca="1">+SUM(I4:I28)</f>
-        <v>665</v>
+        <v>255</v>
       </c>
       <c r="J29" s="13">
         <f ca="1">+C29</f>
-        <v>5.4117647058823533</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="K29" s="13">
         <f ca="1">+SUM(K4:K28)</f>
-        <v>8493</v>
+        <v>7556</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="13">
         <f ca="1">+SUM(M4:M28)</f>
-        <v>-4370.6777323654078</v>
+        <v>-5613.3624466818037</v>
       </c>
     </row>
     <row r="30" spans="1:16372" x14ac:dyDescent="0.3">
@@ -36044,15 +41834,15 @@
       </c>
       <c r="B31" s="11">
         <f ca="1">B3+SUM(B4:B28)</f>
-        <v>1665</v>
+        <v>1255</v>
       </c>
       <c r="C31" s="10">
         <f ca="1">+E28</f>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="D31" s="10">
         <f ca="1">+B31*C31</f>
-        <v>8929.1911764705892</v>
+        <v>6708.2928905917415</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -36062,15 +41852,15 @@
       </c>
       <c r="I31" s="11">
         <f ca="1">I3+SUM(I4:I28)</f>
-        <v>1665</v>
+        <v>1255</v>
       </c>
       <c r="J31" s="10">
         <f ca="1">+L28</f>
-        <v>5.3628775834658189</v>
+        <v>5.3452532992762878</v>
       </c>
       <c r="K31" s="10">
         <f ca="1">+I31*J31</f>
-        <v>8929.1911764705892</v>
+        <v>6708.2928905917415</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -36081,7 +41871,7 @@
       </c>
       <c r="M34" s="18">
         <f ca="1">-M29--F29</f>
-        <v>-193.13109116400392</v>
+        <v>-234.34466272645568</v>
       </c>
     </row>
   </sheetData>
@@ -36089,183 +41879,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="101" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.85546875" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>